--- a/ciq reference/data/每日数据监控.xlsx
+++ b/ciq reference/data/每日数据监控.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18613\Desktop\cursor\FundsMonitor-CIQ\ciq reference\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985E24E6-AE69-4CB8-8DC7-2B942A15A52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDA17DD-87F6-48F5-A023-B83CF2FE63DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__snloffice" sheetId="8" state="veryHidden" r:id="rId1"/>
-    <sheet name="_CIQHiddenCacheSheet" sheetId="126" state="veryHidden" r:id="rId2"/>
+    <sheet name="_CIQHiddenCacheSheet" sheetId="129" state="veryHidden" r:id="rId2"/>
     <sheet name="raw1" sheetId="12" r:id="rId3"/>
     <sheet name="raw2" sheetId="2" r:id="rId4"/>
     <sheet name="chart" sheetId="4" r:id="rId5"/>
@@ -38,7 +38,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">holdings!$A$4:$P$48</definedName>
     <definedName name="CIQWBGuid" localSheetId="12" hidden="1">"244e8b9b-9555-43d4-a766-55f71f6305a6"</definedName>
-    <definedName name="CIQWBGuid" hidden="1">"dbd062ea-7b1b-454e-84e8-e7731de21d0c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"70e33fb6-5bc7-413e-a563-4662ead076c6"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="585">
   <si>
     <t>Name</t>
   </si>
@@ -2088,396 +2088,6 @@
     <t>220</t>
   </si>
   <si>
-    <t>BAABTAVMT0NBTAFI/////wFQbAcAACNDSVEuXlNQWC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAACbuCgAAgAAAAc1NjA4LjU2ADwcdW4X1N0IEtsdbxfU3QgiQ0lRLl5TUFguSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAACbuCgAAgAAABA2Mjk3LjM2MTkwOTQ0MDQ1ADwcdW4X1N0IEZ8ebxfU3QghQ0lRLl5TUFguSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAJu4KAACAAAAEDQ5ODIuNzcwMzEzMjY5NDIAPBx1bhfU3QgHVxhvF9TdCBlDSVEuXlNQWC5JUV9ZRUFSSElHSF9EQVRFAQAAAJu4KAAFAAAACTIwMjUvNy8yOAA8HHVuF9TdCGuxH28X1N0IGENJUS5eU1BYLklRX1lFQVJMT1dfREFURQEAAACbuCgABQAAAAgyMDI1LzQvOAA8HHVuF9TdCIF1IG8X1N0IJENJUS5eREpJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAD4tCgAAgAAABA0NDQ4NC40ODYyNDk5MTQ2ADwcdW4X1N0IResgbxfU3QgkQ0lRLl5ESkkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAPi0KAACAAAAEDM5MTQyLjIzMTk0ODM4ODQAPBx1bhfU3Qg0GRtvF9TdCCVDSVEuXkRKSS5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAPi0KAACAAAAEDM0NTg5Ljc2ODUxNDM2MDgAPBx1bhfU3Qgy3RtvF9TdCCRDSVEuXkRKSS5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAA+LQoAAIA</t>
-  </si>
-  <si>
-    <t>AAAQMzIxNTUuNDA0NjkyMjUyNwA8HHVuF9TdCFGsEW8X1N0II0NJUS5eREpJLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAPi0KAACAAAACDQxMTU2LjU2ADwcdW4X1N0Io74TbxfU3QgiQ0lRLl5ESkkuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAD4tCgAAgAAABA0NTAxNC4wNDAwNTA0ODU4ADwcdW4X1N0IyqkUbxfU3QghQ0lRLl5ESkkuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAPi0KAACAAAAEDM3NjQ1LjU4OTM1NTY2NTQAPBx1bhfU3QjabRVvF9TdCBlDSVEuXkRKSS5JUV9ZRUFSSElHSF9EQVRFAQAAAPi0KAAFAAAACTIwMjQvMTIvNAA8HHVuF9TdCDmAFm8X1N0IGENJUS5eREpJLklRX1lFQVJMT1dfREFURQEAAAD4tCgABQAAAAgyMDI1LzQvOAA8HHVuF9TdCJOsJG8X1N0IJENJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAj9wBwAgAAAAYzMS45NTUAu8J2bhfU3QhrZR1vF9TdCCVDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAACP3AHACAAAABTI4LjQzALvCdm4X1N0I8K8hbxfU3QgkQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAACP3AHACAAAABzIzLjIxMjMAu8J2bhfU3QiHiCFvF9TdCCNDSVEuQUdJWC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAAAj9wBwAgAAAAUyNS4zNgC7wnZuF9Td</t>
-  </si>
-  <si>
-    <t>CPCvIW8X1N0IIkNJUS5BR0lYLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAI/cAcAIAAAAFMzEuOTkAu8J2bhfU3QjXriJvF9TdCCFDSVEuQUdJWC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAI/cAcAIAAAAGMjAuODE1ALvCdm4X1N0IB1cYbxfU3QgZQ0lRLkFHSVguSVFfWUVBUkhJR0hfREFURQEAAAAj9wBwBQAAAAkyMDI1LzcvMzEAu8J2bhfU3QjgNiRvF9TdCBhDSVEuQUdJWC5JUV9ZRUFSTE9XX0RBVEUBAAAAI/cAcAUAAAAIMjAyNS80LzcAu8J2bhfU3QhrsR9vF9TdCCVDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAACP3AHADAAAAAAC7wnZuF9TdCAH7JG8X1N0IJENJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAAj9wBwAwAAAAAAu8J2bhfU3QhF6yBvF9TdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAAMDVtAgAAAAU0OS44NQA8HHVuF9TdCFGsEW8X1N0IKkNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAAAAMDVtAgAAAAU0MC40NgA8HHVuF9TdCKO+E28X1N0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAAAwNW0CAAAABTMyLjYzADwcdW4X1N0IiYIUbxfU3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4</t>
-  </si>
-  <si>
-    <t>LlVTRAEAAAAAMDVtAgAAAAUzNi45OAA8HHVuF9TdCNptFW8X1N0IJ0NJUS5BUkNBOkNIQVQuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAAMDVtAgAAAAc0OS45Mzk1ADwcdW4X1N0I2m0VbxfU3QgmQ0lRLkFSQ0E6Q0hBVC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAADA1bQIAAAAHMjguOTYwOQA8HHVuF9TdCDmAFm8X1N0IHkNJUS5BUkNBOkNIQVQuSVFfWUVBUkhJR0hfREFURQEAAAAAMDVtBQAAAAkyMDI1LzcvMzEAPBx1bhfU3Qj5khdvF9TdCB1DSVEuQVJDQTpDSEFULklRX1lFQVJMT1dfREFURQEAAAAAMDVtBQAAAAgyMDI1LzQvNwA8HHVuF9TdCGtlHW8X1N0IKkNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAAAMDVtAwAAAAAAPBx1bhfU3QgHVxhvF9TdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAAAMDVtAwAAAAAAPBx1bhfU3QgRnx5vF9TdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAADp3GIhAgAAAAU0NC40MwA8HHVuF9TdCALfGW8X1N0ILUNJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAADp3GIhAgAAAAUzOC42NAA8HHVuF9TdCGkkI28X1N0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNE</t>
-  </si>
-  <si>
-    <t>AQAAAOncYiECAAAABDMzLjkAPBx1bhfU3QgcwSNvF9TdCC1DSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAA6dxiIQIAAAAFMjEuNzQAPBx1bhfU3Qg0GRtvF9TdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAADp3GIhAgAAAAUyMi4zOAA8HHVuF9TdCDLdG28X1N0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAA6dxiIQIAAAAFMzUuOTMAPBx1bhfU3QhRrBFvF9TdCCpDSVEuTkFTREFRR006QUlRLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAA6dxiIQIAAAAENDQuNQA8HHVuF9TdCKO+E28X1N0IKUNJUS5OQVNEQVFHTTpBSVEuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAOncYiECAAAABDMwLjYAPBx1bhfU3QiJghRvF9TdCCFDSVEuTkFTREFRR006QUlRLklRX1lFQVJISUdIX0RBVEUBAAAA6dxiIQUAAAAJMjAyNS83LzI5ADwcdW4X1N0I2m0VbxfU3QggQ0lRLk5BU0RBUUdNOkFJUS5JUV9ZRUFSTE9XX0RBVEUBAAAA6dxiIQUAAAAIMjAyNS80LzcAPBx1bhfU3QiTRBdvF9TdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAA9/0IFgIAAAAFMzMuMjIAPBx1bhfU3QjwryFvF9TdCC5DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBS</t>
-  </si>
-  <si>
-    <t>SUNFLjIwMjQvMTIvMzEuVVNEAQAAAPf9CBYCAAAABTMxLjk1ADwcdW4X1N0IGIMmbxfU3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAPf9CBYCAAAABTI2LjYyADwcdW4X1N0IB1cYbxfU3QguQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAD3/QgWAgAAAAUyMS40MwA8HHVuF9TdCCb9Im8X1N0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAD3/QgWAgAAAAUyMy43MQA8HHVuF9TdCALfGW8X1N0ILENJUS5OQVNEQVFHTTpCT1RaLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAPf9CBYCAAAABDMxLjQAPBx1bhfU3QgRnx5vF9TdCCtDSVEuTkFTREFRR006Qk9UWi5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAPf9CBYCAAAACTM0Ljg1NTkwMgA8HHVuF9TdCALfGW8X1N0IKkNJUS5OQVNEQVFHTTpCT1RaLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAD3/QgWAgAAAAYyMy44MTUAPBx1bhfU3QhrsR9vF9TdCCJDSVEuTkFTREFRR006Qk9UWi5JUV9ZRUFSSElHSF9EQVRFAQAAAPf9CBYFAAAACTIwMjUvMS8yNAA8HHVuF9TdCIF1IG8X1N0IIUNJUS5OQVNEQVFHTTpCT1RaLklRX1lFQVJMT1dfREFURQEAAAD3/QgWBQAAAAgyMDI1LzQvNwA8HHVuF9TdCEXrIG8X</t>
-  </si>
-  <si>
-    <t>1N0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAGBOb2QCAAAABTI0Ljk5ADwcdW4X1N0Io74TbxfU3QgqQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAGBOb2QCAAAAAjIyADwcdW4X1N0IiYIUbxfU3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAYE5vZAIAAAAFMTcuOTQAPBx1bhfU3QiJghRvF9TdCCpDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAYE5vZAIAAAAFMTUuNjQAPBx1bhfU3QjabRVvF9TdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAABgTm9kAgAAAAcxNi4zNjE3ADwcdW4X1N0IOYAWbxfU3QgoQ0lRLkJBVFM6V1RBSS5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAABgTm9kAgAAAAQyMS4xADwcdW4X1N0Ik0QXbxfU3QgnQ0lRLkJBVFM6V1RBSS5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAGBOb2QCAAAABjI1LjAyNQA8HHVuF9TdCOdSHG8X1N0IJkNJUS5CQVRTOldUQUkuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAGBOb2QCAAAABzE1Ljc2MDcAPBx1bhfU3QhrZR1vF9TdCB5DSVEuQkFUUzpXVEFJLklRX1lFQVJISUdIX0RBVEUBAAAAYE5vZAUAAAAJMjAyNS83LzMxADwcdW4X1N0IEtsd</t>
-  </si>
-  <si>
-    <t>bxfU3QgdQ0lRLkJBVFM6V1RBSS5JUV9ZRUFSTE9XX0RBVEUBAAAAYE5vZAUAAAAIMjAyNS80LzcAPBx1bhfU3QgSvyVvF9TdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAABuH2khAgAAAAQ0Mi4zADwcdW4X1N0IEr8lbxfU3QgqQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAG4faSECAAAABTM3LjA3ADwcdW4X1N0IKqMabxfU3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAbh9pIQIAAAAEMjkuOAA8HHVuF9TdCDQZG28X1N0IKkNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAABuH2khAgAAAAUyNi43NgA8HHVuF9TdCDLdG28X1N0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAG4faSECAAAABTI5LjEzADwcdW4X1N0IUawRbxfU3QgoQ0lRLkFSQ0E6QVJUWS5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAABuH2khAgAAAAUzNC4yOQA8HHVuF9TdCKO+E28X1N0IJ0NJUS5BUkNBOkFSVFkuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAABuH2khAgAAAAc0Mi4zNDk5ADwcdW4X1N0Io74TbxfU3QgmQ0lRLkFSQ0E6QVJUWS5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAbh9pIQIAAAAHMjYuMzEyOAA8HHVuF9TdCImC</t>
-  </si>
-  <si>
-    <t>FG8X1N0IHkNJUS5BUkNBOkFSVFkuSVFfWUVBUkhJR0hfREFURQEAAABuH2khBQAAAAkyMDI1LzcvMzEAPBx1bhfU3QjabRVvF9TdCB1DSVEuQVJDQTpBUlRZLklRX1lFQVJMT1dfREFURQEAAABuH2khBQAAAAgyMDI1LzQvNwA8HHVuF9TdCJNEF28X1N0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAjnskFAIAAAAFMTUuNDIAPBx1bhfU3QiAYCJvF9TdCClDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAACOeyQUAgAAAAYxMy44NzUAPBx1bhfU3Qi6cCVvF9TdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAI57JBQCAAAABDEyLjIAPBx1bhfU3QgHVxhvF9TdCClDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAACOeyQUAgAAAAU5LjU3NQA8HHVuF9TdCGuxH28X1N0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAjnskFAIAAAAGMTAuNTQ1ADwcdW4X1N0IB1cYbxfU3QgnQ0lRLkxTRTpSQk9ULklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAI57JBQCAAAABTEzLjQyADwcdW4X1N0IgXUgbxfU3QgmQ0lRLkxTRTpSQk9ULklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAjnskFAIAAAAHMTUuNDQyNgA8HHVuF9TdCALfGW8X1N0IJUNJ</t>
-  </si>
-  <si>
-    <t>US5MU0U6UkJPVC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAjnskFAIAAAAFMTAuNzMAPBx1bhfU3QjiwyBvF9TdCB1DSVEuTFNFOlJCT1QuSVFfWUVBUkhJR0hfREFURQEAAACOeyQUBQAAAAkyMDI1LzcvMjQAPBx1bhfU3QgqoxpvF9TdCBxDSVEuTFNFOlJCT1QuSVFfWUVBUkxPV19EQVRFAQAAAI57JBQFAAAACDIwMjUvNC83ADwcdW4X1N0Ih4ghbxfU3QgkQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAABfbPAECAAAABjcwMS40MQDyEXZuF9TdCDz4FG8X1N0IJENJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAAX2zwBAgAAAAY1MDEuNDgAPBx1bhfU3QiJghRvF9TdCCVDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAABfbPAECAAAABTExOC4xADwcdW4X1N0I2m0VbxfU3QgkQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAABfbPAECAAAABjE5NC4wMgA8HHVuF9TdCDmAFm8X1N0II0NJUS5NRVRBLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAABfbPAECAAAAAzQ3NQA8HHVuF9TdCJNEF28X1N0IIkNJUS5NRVRBLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAF9s8AQIAAAAFNzQ3LjkAPBx1bhfU3QgS2x1vF9TdCCFDSVEuTUVUQS5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAF9s8AQIA</t>
-  </si>
-  <si>
-    <t>AAAGNDQyLjY1ADwcdW4X1N0IEZ8ebxfU3QgZQ0lRLk1FVEEuSVFfWUVBUkhJR0hfREFURQEAAAAX2zwBBQAAAAkyMDI1LzcvMzEAPBx1bhfU3Qgm/SJvF9TdCBhDSVEuTUVUQS5JUV9ZRUFSTE9XX0RBVEUBAAAAF9s8AQUAAAAIMjAyNC84LzUAPBx1bhfU3Qg0GRtvF9TdCCVDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAABfbPAECAAAABjU4NS41MQDyEXZuF9TdCBIXHW8X1N0II0NJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAACXgAQACAAAABjI1OS44OADyEXZuF9TdCCqjGm8X1N0II0NJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAACXgAQACAAAABjI0Ny4yNgA8HHVuF9TdCOdSHG8X1N0IJENJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAAl4AEAAgAAAAYxNjAuMjUAPBx1bhfU3QhrZR1vF9TdCCNDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAAl4AEAAgAAAAYxODIuODkAPBx1bhfU3QhRrBFvF9TdCCJDSVEuQ1JNLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAACXgAQACAAAABjI1Mi4xNAA8HHVuF9TdCIBgIm8X1N0IIUNJUS5DUk0uSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAl4AEAAgAAAAMzNjkAPBx1bhfU3QhRrBFvF9TdCCBDSVEuQ1JNLklRX1lFQVJMT1cuMjAyNS83</t>
-  </si>
-  <si>
-    <t>LzE3LlVTRAEAAAAl4AEAAgAAAAMyMzAAPBx1bhfU3QijvhNvF9TdCBhDSVEuQ1JNLklRX1lFQVJISUdIX0RBVEUBAAAAJeABAAUAAAAJMjAyNC8xMi80ADwcdW4X1N0IiYIUbxfU3QgXQ0lRLkNSTS5JUV9ZRUFSTE9XX0RBVEUBAAAAJeABAAUAAAAIMjAyNS80LzcAPBx1bhfU3Qg5gBZvF9TdCCRDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAJeABAAIAAAAGMzM0LjMzAPIRdm4X1N0IunAlbxfU3QgjQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAv3ReAQIAAAAGOTU5LjE1APIRdm4X1N0IunAlbxfU3QgjQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAv3ReAQIAAAAGNzcyLjE2ADwcdW4X1N0IgXUgbxfU3QgkQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAL90XgECAAAABTQxNi4zADwcdW4X1N0IgXUgbxfU3QgjQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAv3ReAQIAAAAGNDI0LjU0ADwcdW4X1N0IB1cYbxfU3QgiQ0lRLk5PVy5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAAC/dF4BAgAAAAY3MzguMzQAPBx1bhfU3QhF6yBvF9TdCCFDSVEuTk9XLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAv3ReAQIAAAAHMTE5OC4wOQA8HHVuF9TdCKaQGW8X1N0IIENJUS5OT1cuSVFf</t>
-  </si>
-  <si>
-    <t>WUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAL90XgECAAAACDY3OC42NTg4ADwcdW4X1N0Ih4ghbxfU3QgYQ0lRLk5PVy5JUV9ZRUFSSElHSF9EQVRFAQAAAL90XgEFAAAACTIwMjUvMS8yOAA8HHVuF9TdCMdUGm8X1N0IF0NJUS5OT1cuSVFfWUVBUkxPV19EQVRFAQAAAL90XgEFAAAACDIwMjUvNC83ADwcdW4X1N0IEZ8ebxfU3QgkQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAL90XgECAAAABzEwNjAuMTIA8hF2bhfU3Qi7NCZvF9TdCCRDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAsPCHDAIAAAAGMzYxLjk1APIRdm4X1N0IKqMabxfU3QgkQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAALDwhwwCAAAABTMyNi41ADwcdW4X1N0I2m0VbxfU3QglQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAACw8IcMAgAAAAU2OS42NwA8HHVuF9TdCDmAFm8X1N0IJENJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAACw8IcMAgAAAAYxMjMuNzIAPBx1bhfU3QiTRBdvF9TdCCNDSVEuRFVPTC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAACw8IcMAgAAAAYxODIuMTEAPBx1bhfU3QhrsR9vF9TdCCJDSVEuRFVPTC5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAALDwhwwCAAAABjU0NC45MwA8HHVu</t>
-  </si>
-  <si>
-    <t>F9TdCDQZG28X1N0IIUNJUS5EVU9MLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAACw8IcMAgAAAAYxNDUuMDUAPBx1bhfU3QjbjhtvF9TdCBlDSVEuRFVPTC5JUV9ZRUFSSElHSF9EQVRFAQAAALDwhwwFAAAACTIwMjUvNS8xNAA8HHVuF9TdCOdSHG8X1N0IGENJUS5EVU9MLklRX1lFQVJMT1dfREFURQEAAACw8IcMBQAAAAgyMDI0LzgvNQA8HHVuF9TdCERCGW8X1N0IJUNJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAsPCHDAIAAAAGMzI0LjIzABpqdm4X1N0IEr8lbxfU3QgjQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAC+4BAAIAAAAOMzA4LjAzMTA1ODA3NDYA8hF2bhfU3QjHVBpvF9TdCCNDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAAL7gEAAgAAAA0yNTYuOTkzNDA0NTA4ADwcdW4X1N0IEtsdbxfU3QgkQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAAvuAQACAAAADzEwNy43MjQwMzgzMjU0MgA8HHVuF9TdCMdUGm8X1N0II0NJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAAvuAQACAAAADzExNy45NjM1NTgzOTE2NgA8HHVuF9TdCLpwJW8X1N0IIkNJUS5TQVAuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAAC+4BAAIAAAANMjAwLjE1MjcwNTAwNgA8HHVuF9TdCCb9Im8X</t>
-  </si>
-  <si>
-    <t>1N0IIUNJUS5TQVAuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAL7gEAAgAAAA4zMjguNTQzMjg0Mjg5NQA8HHVuF9TdCFGsEW8X1N0IIENJUS5TQVAuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAAvuAQACAAAADzIwNC43OTc3NzQ5NTQ2NAA8HHVuF9TdCFZwE28X1N0IGENJUS5TQVAuSVFfWUVBUkhJR0hfREFURQEAAAAL7gEABQAAAAkyMDI1LzIvMTkAPBx1bhfU3QiJghRvF9TdCBdDSVEuU0FQLklRX1lFQVJMT1dfREFURQEAAAAL7gEABQAAAAgyMDI0LzgvNQA8HHVuF9TdCDmAFm8X1N0IJENJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAAAL7gEAAwAAAAAAGmp2bhfU3QhBCSpvF9TdCCNDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAA0yQZAgAAAAU2MC42NQDyEXZuF9TdCPCvIW8X1N0II0NJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAADTJBkCAAAABTQwLjQ1ADwcdW4X1N0IgGAibxfU3QgkQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAADTJBkDAAAAAAA8HHVuF9TdCAdXGG8X1N0II0NJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAADTJBkDAAAAAAA8HHVuF9TdCERCGW8X1N0IIkNJUS5URU0uSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAAANMkGQIAAAAFNDEuNTYA</t>
-  </si>
-  <si>
-    <t>PBx1bhfU3QimkBlvF9TdCCFDSVEuVEVNLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAANMkGQIAAAAFOTEuNDUAPBx1bhfU3Qi6cCVvF9TdCCBDSVEuVEVNLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAAA0yQZAgAAAAUzMS4zNgA8HHVuF9TdCMdUGm8X1N0IGENJUS5URU0uSVFfWUVBUkhJR0hfREFURQEAAAAA0yQZBQAAAAkyMDI1LzIvMTQAPBx1bhfU3QiBdSBvF9TdCBdDSVEuVEVNLklRX1lFQVJMT1dfREFURQEAAAAA0yQZBQAAAAkyMDI1LzEvMTMAPBx1bhfU3QhRrBFvF9TdCCRDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAANMkGQIAAAAFMzMuNzYAGmp2bhfU3QitzBhvF9TdCCRDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAAV8AAAIAAAAGMzY2LjQ1APIRdm4X1N0IREIZbxfU3QgkQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAAFfAAACAAAABTM0OC44ADwcdW4X1N0IOYAWbxfU3QglQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAABXwAAAgAAAAYzNDQuOTMAPBx1bhfU3QiTRBdvF9TdCCRDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAAV8AAAIAAAAGMzMzLjMzADwcdW4X1N0IOYAWbxfU3QgjQ0lRLkFEQkUuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QB</t>
-  </si>
-  <si>
-    <t>AAAAAV8AAAIAAAAGNTY0LjE4ADwcdW4X1N0Ik0QXbxfU3QgiQ0lRLkFEQkUuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAABXwAAAgAAAAY1ODcuNzUAPBx1bhfU3QgS2x1vF9TdCCFDSVEuQURCRS5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAAV8AAAIAAAAGMzMyLjAxADwcdW4X1N0IEZ8ebxfU3QgZQ0lRLkFEQkUuSVFfWUVBUkhJR0hfREFURQEAAAABXwAABQAAAAkyMDI0LzkvMTIAPBx1bhfU3QgZYx9vF9TdCBhDSVEuQURCRS5JUV9ZRUFSTE9XX0RBVEUBAAAAAV8AAAUAAAAIMjAyNS80LzcAPBx1bhfU3QhEQhlvF9TdCCVDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAAFfAAACAAAABjQ0NC42OAAaanZuF9TdCIF1IG8X1N0II0NJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAALo+/BECAAAABTM4LjE1APIRdm4X1N0Ix1QabxfU3QgjQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAuj78EQIAAAAFMzcuNTIAPBx1bhfU3QjnUhxvF9TdCCRDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAuj78EQIAAAAEOS41MwA8HHVuF9TdCGtlHW8X1N0II0NJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAALo+/BECAAAABTE5LjY5ADwcdW4X1N0IUawRbxfU3QgiQ0lRLklPVC5JUV9PUEVOUFJJ</t>
-  </si>
-  <si>
-    <t>Q0UuMjAyNC83LzE4LlVTRAEAAAC6PvwRAgAAAAUzNy4yMwA8HHVuF9TdCFZwE28X1N0IIUNJUS5JT1QuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAC6PvwRAgAAAAc2MS44OTk5ADwcdW4X1N0IiYIUbxfU3QggQ0lRLklPVC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAuj78EQIAAAAEMzEuNAA8HHVuF9TdCNptFW8X1N0IGENJUS5JT1QuSVFfWUVBUkhJR0hfREFURQEAAAC6PvwRBQAAAAkyMDI1LzIvMTkAPBx1bhfU3Qg5gBZvF9TdCBdDSVEuSU9ULklRX1lFQVJMT1dfREFURQEAAAC6PvwRBQAAAAgyMDI1LzQvNwA8HHVuF9TdCAH7JG8X1N0IJENJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAAC6PvwRAgAAAAU0My42OQAaanZuF9TdCHPoI28X1N0IJENJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAACHY2sBAgAAAAYyMzAuODkA8hF2bhfU3QipCBhvF9TdCCRDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAh2NrAQIAAAAGMjIxLjAyADwcdW4X1N0IREIZbxfU3QglQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAACHY2sBAgAAAAUxNjcuOQA8HHVuF9TdCKaQGW8X1N0IJENJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAACHY2sBAgAAAAYxODMuNDEAPBx1bhfU3QjbjhtvF9TdCCND</t>
-  </si>
-  <si>
-    <t>SVEuV0RBWS5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAACHY2sBAgAAAAYyMzIuNzYAPBx1bhfU3QimkBlvF9TdCCJDSVEuV0RBWS5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAIdjawECAAAAAzI5NAA8HHVuF9TdCPCvIW8X1N0IIUNJUS5XREFZLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAACHY2sBAgAAAAYxOTkuODEAPBx1bhfU3QjHVBpvF9TdCBlDSVEuV0RBWS5JUV9ZRUFSSElHSF9EQVRFAQAAAIdjawEFAAAACTIwMjQvMTIvOQA8HHVuF9TdCIBgIm8X1N0IGENJUS5XREFZLklRX1lFQVJMT1dfREFURQEAAACHY2sBBQAAAAgyMDI0LzgvNQA8HHVuF9TdCFGsEW8X1N0IJUNJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAh2NrAQIAAAAGMjU4LjAzABpqdm4X1N0IJv0ibxfU3QgkQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAGlV9AECAAAABjEyMi4xNwDyEXZuF9TdCPmSF28X1N0IJENJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAABpVfQBAgAAAAU1OS43MQA8HHVuF9TdCNptFW8X1N0IJUNJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAaVX0AQIAAAAFMzEuNzcAPBx1bhfU3Qg5gBZvF9TdCCRDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAaVX0AQIAAAAFNDMu</t>
-  </si>
-  <si>
-    <t>MTkAPBx1bhfU3QiTRBdvF9TdCCNDSVEuUkJMWC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAABpVfQBAgAAAAU0MC4wNwA8HHVuF9TdCIF1IG8X1N0IIkNJUS5SQkxYLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAaVX0AQIAAAAGMTIzLjMzADwcdW4X1N0IResgbxfU3QghQ0lRLlJCTFguSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAGlV9AECAAAABDM1LjMAPBx1bhfU3QiHiCFvF9TdCBlDSVEuUkJMWC5JUV9ZRUFSSElHSF9EQVRFAQAAAGlV9AEFAAAACTIwMjUvNy8zMQA8HHVuF9TdCKkIGG8X1N0IGENJUS5SQkxYLklRX1lFQVJMT1dfREFURQEAAABpVfQBBQAAAAgyMDI0LzgvNQA8HHVuF9TdCKaQGW8X1N0IJUNJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAaVX0AQIAAAAFNTcuODYAGmp2bhfU3QjHVBpvF9TdCCNDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAADauc4NAgAAAAYzNjMuNzgA8hF2bhfU3QgZYx9vF9TdCCNDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADauc4NAgAAAAYyMzguMjIAPBx1bhfU3QiBdSBvF9TdCCRDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAA2rnODQIAAAAFMTQuNDEAPBx1bhfU3QhRrBFvF9TdCCNDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVT</t>
-  </si>
-  <si>
-    <t>RAEAAADauc4NAgAAAAUxMi43NwA8HHVuF9TdCFZwE28X1N0IIkNJUS5BUFAuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAA2rnODQIAAAAFODEuOTkAPBx1bhfU3Qg1NBRvF9TdCCFDSVEuQVBQLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAA2rnODQIAAAAGNTI1LjE1ADwcdW4X1N0INTQUbxfU3QggQ0lRLkFQUC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAA2rnODQIAAAAFNjAuNjcAPBx1bhfU3QjabRVvF9TdCBhDSVEuQVBQLklRX1lFQVJISUdIX0RBVEUBAAAA2rnODQUAAAAJMjAyNS8yLzEzADwcdW4X1N0IOYAWbxfU3QgXQ0lRLkFQUC5JUV9ZRUFSTE9XX0RBVEUBAAAA2rnODQUAAAAIMjAyNC84LzUAPBx1bhfU3QjnUhxvF9TdCCRDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAA2rnODQIAAAAGMzIzLjgzABpqdm4X1N0IEr8lbxfU3QgkQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAAYrBAUCAAAABjEyNi43NQDyEXZuF9TdCKkIGG8X1N0IJENJUS5TSE9QLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAAGKwQFAgAAAAU4My42NQA8HHVuF9TdCERCGW8X1N0IJUNJUS5TSE9QLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAABisEBQIAAAAFNDAuODgAPBx1bhfU3QipCBhvF9TdCCRDSVEuU0hPUC5JUV9DTE9TRVBS</t>
-  </si>
-  <si>
-    <t>SUNFLjIwMjMvMy8xNC5VU0QBAAAABisEBQIAAAAENDMuOAA8HHVuF9TdCERCGW8X1N0II0NJUS5TSE9QLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAAYrBAUCAAAABDY1LjkAPBx1bhfU3QimkBlvF9TdCCJDSVEuU0hPUC5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAAYrBAUCAAAABjEyOS4zOAA8HHVuF9TdCCb9Im8X1N0IIUNJUS5TSE9QLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAAGKwQFAgAAAAU0OC41NgA8HHVuF9TdCMdUGm8X1N0IGUNJUS5TSE9QLklRX1lFQVJISUdIX0RBVEUBAAAABisEBQUAAAAJMjAyNS8yLzE4ADwcdW4X1N0INBkbbxfU3QgYQ0lRLlNIT1AuSVFfWUVBUkxPV19EQVRFAQAAAAYrBAUFAAAACDIwMjQvOC81ADwcdW4X1N0IUawRbxfU3QglQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAAAGKwQFAgAAAAYxMDYuMzMAGmp2bhfU3Qg1NBRvF9TdCCRDSVEuVEVBTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAUhMiDwIAAAAGMTkwLjYyAPIRdm4X1N0I2m0VbxfU3QgkQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAFITIg8CAAAABjIwMi43NQA8HHVuF9TdCDmAFm8X1N0IJUNJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAUhMiDwIAAAAGMTMxLjU1ADwcdW4X1N0Ik0QXbxfU</t>
-  </si>
-  <si>
-    <t>3QgkQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAFITIg8CAAAABjE1OS45OAA8HHVuF9TdCIBgIm8X1N0II0NJUS5URUFNLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAFITIg8CAAAABTE3OS43ADwcdW4X1N0I164ibxfU3QgiQ0lRLlRFQU0uSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAABSEyIPAgAAAAgzMjUuOTk5OQA8HHVuF9TdCAH7JG8X1N0IIUNJUS5URUFNLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAABSEyIPAgAAAAYxMzUuMjkAPBx1bhfU3QhF6yBvF9TdCBlDSVEuVEVBTS5JUV9ZRUFSSElHSF9EQVRFAQAAAFITIg8FAAAACTIwMjUvMi8xMAA8HHVuF9TdCMdUGm8X1N0IGENJUS5URUFNLklRX1lFQVJMT1dfREFURQEAAABSEyIPBQAAAAgyMDI0LzgvNQA8HHVuF9TdCPCvIW8X1N0IJUNJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAUhMiDwIAAAAGMjQzLjM4ABpqdm4X1N0InM8obxfU3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAEtVAAACAAAABTUxMS43APIRdm4X1N0IREIZbxfU3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAEtVAAACAAAABjM2Ny43OAA8HHVuF9TdCBljH28X1N0IJUNJUS5NU0ZULklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAS1UA</t>
-  </si>
-  <si>
-    <t>AAIAAAAGMjU1LjE0ADwcdW4X1N0IgXUgbxfU3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAEtVAAACAAAABjI2MC43OQA8HHVuF9TdCIF1IG8X1N0II0NJUS5NU0ZULklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAEtVAAACAAAABjQ0NC4zNAA8HHVuF9TdCKkIGG8X1N0IIkNJUS5NU0ZULklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAS1UAAAIAAAAGNTEzLjM3ADwcdW4X1N0IREIZbxfU3QghQ0lRLk1TRlQuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAEtVAAACAAAABjM0NC43OQA8HHVuF9TdCKaQGW8X1N0IGUNJUS5NU0ZULklRX1lFQVJISUdIX0RBVEUBAAAAS1UAAAUAAAAJMjAyNS83LzMxADwcdW4X1N0Ia2UdbxfU3QgYQ0lRLk1TRlQuSVFfWUVBUkxPV19EQVRFAQAAAEtVAAAFAAAACDIwMjUvNC83ADwcdW4X1N0IEtsdbxfU3QglQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAABLVQAAAgAAAAU0MjEuNQAaanZuF9TdCFEGGm8X1N0IJENJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAA9SQAAAgAAAAYyMjMuODgA8hF2bhfU3QhRBhpvF9TdCCRDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAPUkAAAIAAAAGMTcyLjYxADwcdW4X1N0INTQUbxfU3QglQ0lRLkFNWk4uSVFfQ0xPU0VQ</t>
-  </si>
-  <si>
-    <t>UklDRS4yMDIyLzExLzMwLlVTRAEAAAA9SQAAAgAAAAU5Ni41NAA8HHVuF9TdCNptFW8X1N0IJENJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAA9SQAAAgAAAAU5NC44OAA8HHVuF9TdCDmAFm8X1N0II0NJUS5BTVpOLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAD1JAAACAAAABjE4OS41OQA8HHVuF9TdCNptFW8X1N0IIkNJUS5BTVpOLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAPUkAAAIAAAAGMjQyLjUyADwcdW4X1N0IOYAWbxfU3QghQ0lRLkFNWk4uSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAD1JAAACAAAABjE1MS42MQA8HHVuF9TdCJNEF28X1N0IGUNJUS5BTVpOLklRX1lFQVJISUdIX0RBVEUBAAAAPUkAAAUAAAAIMjAyNS8yLzQAPBx1bhfU3Qg0GRtvF9TdCBhDSVEuQU1aTi5JUV9ZRUFSTE9XX0RBVEUBAAAAPUkAAAUAAAAIMjAyNC84LzUAPBx1bhfU3QjnUhxvF9TdCCVDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAD1JAAACAAAABjIxOS4zOQAaanZuF9TdCAu9J28X1N0ILkNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAqHEAAAIAAAAGMTgzLjU4APIRdm4X1N0IppAZbxfU3QguQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAACocQAAAgAA</t>
-  </si>
-  <si>
-    <t>AAYxNTEuMTYAPBx1bhfU3QimkBlvF9TdCC9DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAACocQAAAgAAAAYxMDAuOTkAPBx1bhfU3QiTrCRvF9TdCC5DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAKhxAAACAAAABTkzLjk3ADwcdW4X1N0Ix1QabxfU3QgtQ0lRLk5BU0RBUUdTOkdPT0dMLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAKhxAAACAAAABjE4MS45MwA8HHVuF9TdCNeuIm8X1N0ILENJUS5OQVNEQVFHUzpHT09HTC5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAKhxAAACAAAABjIwNy4wNQA8HHVuF9TdCM3KGm8X1N0IK0NJUS5OQVNEQVFHUzpHT09HTC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAqHEAAAIAAAAGMTQwLjUzADwcdW4X1N0IUawRbxfU3QgjQ0lRLk5BU0RBUUdTOkdPT0dMLklRX1lFQVJISUdIX0RBVEUBAAAAqHEAAAUAAAAIMjAyNS8yLzQAPBx1bhfU3QhWcBNvF9TdCCJDSVEuTkFTREFRR1M6R09PR0wuSVFfWUVBUkxPV19EQVRFAQAAAKhxAAAFAAAACDIwMjUvNC83ADwcdW4X1N0I2m0VbxfU3QgvQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAqHEAAAIAAAAFMTg5LjMAGmp2bhfU3QjEsx1vF9TdCCRDSVEuVFNMQS5JUV9DTE9T</t>
-  </si>
-  <si>
-    <t>RVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAEMaiAQIAAAAGMzE5LjQxAPIRdm4X1N0I8K8hbxfU3QgkQ0lRLlRTTEEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAABDGogECAAAABjI0MS4zNwA8HHVuF9TdCIBgIm8X1N0IJUNJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAEMaiAQIAAAAFMTk0LjcAPBx1bhfU3QjXriJvF9TdCCRDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAEMaiAQIAAAAGMTgzLjI2ADwcdW4X1N0IqQgYbxfU3QgjQ0lRLlRTTEEuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAAEMaiAQIAAAAGMjUxLjA5ADwcdW4X1N0IAhsZbxfU3QgiQ0lRLlRTTEEuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAQxqIBAgAAAAg0ODguNTM5OQA8HHVuF9TdCAIbGW8X1N0IIUNJUS5UU0xBLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAAQxqIBAgAAAAMxODIAPBx1bhfU3QimkBlvF9TdCBlDSVEuVFNMQS5JUV9ZRUFSSElHSF9EQVRFAQAAABDGogEFAAAACjIwMjQvMTIvMTgAPBx1bhfU3QhF6yBvF9TdCBhDSVEuVFNMQS5JUV9ZRUFSTE9XX0RBVEUBAAAAEMaiAQUAAAAIMjAyNC84LzUAPBx1bhfU3QiHiCFvF9TdCCVDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAABDGogECAAAABjQwMy44NAAaanZuF9Td</t>
-  </si>
-  <si>
-    <t>CFChHG8X1N0IJENJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAABl+pgCAgAAAAYxNTMuOTkA8hF2bhfU3QipCBhvF9TdCCRDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAZfqYAgIAAAAFOTMuNzgAPBx1bhfU3Qg1NBRvF9TdCCVDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAGX6mAICAAAAAzcuNQA8HHVuF9TdCFZwE28X1N0IJENJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAABl+pgCAgAAAAQ3Ljg5ADwcdW4X1N0INTQUbxfU3QgjQ0lRLlBMVFIuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAAZfqYAgIAAAAFMjguNDIAPBx1bhfU3QjabRVvF9TdCCJDSVEuUExUUi5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAGX6mAICAAAABjE1NS42OAA8HHVuF9TdCN0xFm8X1N0IIUNJUS5QTFRSLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAABl+pgCAgAAAAUyMS4yMwA8HHVuF9TdCJNEF28X1N0IGUNJUS5QTFRSLklRX1lFQVJISUdIX0RBVEUBAAAAZfqYAgUAAAAIMjAyNS84LzQAPBx1bhfU3QgZYx9vF9TdCBhDSVEuUExUUi5JUV9ZRUFSTE9XX0RBVEUBAAAAZfqYAgUAAAAIMjAyNC84LzUAPBx1bhfU3QiBdSBvF9TdCCVDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAGX6mAIC</t>
-  </si>
-  <si>
-    <t>AAAABTc1LjYzABpqdm4X1N0IAhsZbxfU3QgkQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAOdWAAACAAAABjI0OC43NQDyEXZuF9TdCKaQGW8X1N0IJENJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADnVgAAAgAAAAYxMjguNjIAPBx1bhfU3QjEsx1vF9TdCCVDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAOdWAAACAAAABTgzLjAzADwcdW4X1N0Ix1QabxfU3QgkQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAOdWAAACAAAABTg0LjU2ADwcdW4X1N0IEZ8ebxfU3QgjQ0lRLk9SQ0wuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAA51YAAAIAAAAGMTM5LjM2ADwcdW4X1N0IzcoabxfU3QgiQ0lRLk9SQ0wuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAADnVgAAAgAAAAgyNTEuNTk5OQA8HHVuF9TdCFGsEW8X1N0IIUNJUS5PUkNMLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAADnVgAAAgAAAAYxMTguODYAPBx1bhfU3QhWcBNvF9TdCBlDSVEuT1JDTC5JUV9ZRUFSSElHSF9EQVRFAQAAAOdWAAAFAAAACTIwMjUvNy8zMQA8HHVuF9TdCDU0FG8X1N0IGENJUS5PUkNMLklRX1lFQVJMT1dfREFURQEAAADnVgAABQAAAAgyMDI1LzQvNwA8HHVuF9TdCN0xFm8X1N0IJUNJUS5PUkNMLklRX0NMT1NFUFJJ</t>
-  </si>
-  <si>
-    <t>Q0UuMjAyNC8xMi8zMS5VU0QBAAAA51YAAAIAAAAGMTY2LjY0ABpqdm4X1N0IvkwibxfU3QgkQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAL/7GQMCAAAABTUzLjY5APIRdm4X1N0I51IcbxfU3QgkQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAL/7GQMCAAAABTIxLjUzADwcdW4X1N0Ia2UdbxfU3QglQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAC/+xkDAwAAAAAAPBx1bhfU3QipCBhvF9TdCCRDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAv/sZAwMAAAAAADwcdW4X1N0Ik6wkbxfU3QgjQ0lRLk5CSVMuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAAv/sZAwMAAAAAADwcdW4X1N0IqQgYbxfU3QgiQ0lRLk5CSVMuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAC/+xkDAgAAAAU1Ni4xNgA8HHVuF9TdCAIbGW8X1N0IIUNJUS5OQklTLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAC/+xkDAgAAAAUxNC4wOQA8HHVuF9TdCKaQGW8X1N0IGUNJUS5OQklTLklRX1lFQVJISUdIX0RBVEUBAAAAv/sZAwUAAAAJMjAyNS83LzIxADwcdW4X1N0I164ibxfU3QgYQ0lRLk5CSVMuSVFfWUVBUkxPV19EQVRFAQAAAL/7GQMFAAAACjIwMjQvMTAvMjEAPBx1bhfU3Qg0GRtvF9TdCCVDSVEuTkJJUy5JUV9D</t>
-  </si>
-  <si>
-    <t>TE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAL/7GQMCAAAABDI3LjcAGmp2bhfU3QiTChZvF9TdCCRDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAgIRbDQIAAAAEODYuMwDyEXZuF9TdCERCGW8X1N0IJENJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAACAhFsNAgAAAAU3Ny44NwA8HHVuF9TdCDU0FG8X1N0IJUNJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAgIRbDQIAAAAFNjEuMTkAPBx1bhfU3QjabRVvF9TdCCRDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAgIRbDQIAAAAFNTUuMTIAPBx1bhfU3QjdMRZvF9TdCCNDSVEuRVNUQy5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAACAhFsNAgAAAAYxMTUuNTUAPBx1bhfU3QiTRBdvF9TdCCJDSVEuRVNUQy5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAICEWw0CAAAABjExOC44NAA8HHVuF9TdCIBgIm8X1N0IIUNJUS5FU1RDLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAACAhFsNAgAAAAI2OQA8HHVuF9TdCNeuIm8X1N0IGUNJUS5FU1RDLklRX1lFQVJISUdIX0RBVEUBAAAAgIRbDQUAAAAJMjAyNS8yLzEwADwcdW4X1N0IResgbxfU3QgYQ0lRLkVTVEMuSVFfWUVBUkxPV19EQVRFAQAAAICEWw0FAAAACDIwMjQvOS85ADwcdW4X1N0IAhsZbxfU</t>
-  </si>
-  <si>
-    <t>3QglQ0lRLkVTVEMuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAACAhFsNAgAAAAU5OS4wOAAaanZuF9TdCIeIIW8X1N0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAACwPGQQAgAAAAYyMTEuNTgA8hF2bhfU3QjHVBpvF9TdCCRDSVEuU05PVy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAsDxkEAIAAAAGMTQzLjQzADwcdW4X1N0I8K8hbxfU3QglQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAACwPGQQAgAAAAUxNDIuOQA8HHVuF9TdCM3KGm8X1N0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAACwPGQQAgAAAAYxMzkuODIAPBx1bhfU3QhRrBFvF9TdCCNDSVEuU05PVy5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAACwPGQQAgAAAAYxMzUuMDMAPBx1bhfU3QjNyhpvF9TdCCJDSVEuU05PVy5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAALA8ZBACAAAABTIyNi42ADwcdW4X1N0IUawRbxfU3QghQ0lRLlNOT1cuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAALA8ZBACAAAABjEwNy4xMwA8HHVuF9TdCFZwE28X1N0IGUNJUS5TTk9XLklRX1lFQVJISUdIX0RBVEUBAAAAsDxkEAUAAAAJMjAyNS83LzMxADwcdW4X1N0INTQUbxfU3QgYQ0lRLlNOT1cuSVFfWUVBUkxPV19EQVRFAQAAALA8ZBAFAAAA</t>
-  </si>
-  <si>
-    <t>CDIwMjQvOS82ADwcdW4X1N0I3TEWbxfU3QglQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAACwPGQQAgAAAAYxNTQuNDEAGmp2bhfU3QiBdSBvF9TdCCRDSVEuRERPRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAu6EECAIAAAAGMTQzLjE1APIRdm4X1N0IgXUgbxfU3QgkQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAALuhBAgCAAAABTkxLjE4ADwcdW4X1N0Ia2UdbxfU3QglQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAC7oQQIAgAAAAU3NS43OAA8HHVuF9TdCMSzHW8X1N0IJENJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAC7oQQIAgAAAAU2NS45NgA8HHVuF9TdCKkIGG8X1N0II0NJUS5ERE9HLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAALuhBAgCAAAABTEyMS43ADwcdW4X1N0IAhsZbxfU3QgiQ0lRLkRET0cuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAC7oQQIAgAAAAYxNzAuMDgAPBx1bhfU3QimkBlvF9TdCCFDSVEuRERPRy5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAu6EECAIAAAAFODEuNjMAPBx1bhfU3QgRnx5vF9TdCBlDSVEuRERPRy5JUV9ZRUFSSElHSF9EQVRFAQAAALuhBAgFAAAACTIwMjQvMTIvNgA8HHVuF9TdCMdUGm8X1N0IGENJUS5ERE9HLklRX1lF</t>
-  </si>
-  <si>
-    <t>QVJMT1dfREFURQEAAAC7oQQIBQAAAAgyMDI1LzQvNwA8HHVuF9TdCM3KGm8X1N0IJUNJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAu6EECAIAAAAGMTQyLjg5ABpqdm4X1N0I51IcbxfU3QgjQ0lRLk5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAANPXgBAIAAAAGMTkxLjI1APIRdm4X1N0I+ZIXbxfU3QgjQ0lRLk5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAANPXgBAIAAAAFMTA3LjkAPBx1bhfU3QjabRVvF9TdCCRDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAANPXgBAIAAAAFNDkuMTQAPBx1bhfU3QjdMRZvF9TdCCNDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAA09eAEAgAAAAQ1NC44ADwcdW4X1N0Ik0QXbxfU3QgiQ0lRLk5FVC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAAA09eAEAgAAAAU4MS4wMQA8HHVuF9TdCOdSHG8X1N0IIUNJUS5ORVQuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAA09eAEAgAAAAYxOTguMDEAPBx1bhfU3QjXriJvF9TdCCBDSVEuTkVULklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAA09eAEAgAAAAU2OS4yNgA8HHVuF9TdCOA2JG8X1N0IGENJUS5ORVQuSVFfWUVBUkhJR0hfREFURQEAAAA09eAEBQAAAAgyMDI1LzgvNAA8HHVuF9TdCNeuIm8X1N0IF0NJ</t>
-  </si>
-  <si>
-    <t>US5ORVQuSVFfWUVBUkxPV19EQVRFAQAAADT14AQFAAAACDIwMjQvOC81ADwcdW4X1N0IAhsZbxfU3QgkQ0lRLk5FVC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAADT14AQCAAAABjEwNy42OAAaanZuF9TdCDQZG28X1N0IJENJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAADNhBcRAgAAAAU0My45MgDyEXZuF9TdCMdUGm8X1N0IJENJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADNhBcRAgAAAAQ0Mi45ADwcdW4X1N0I244bbxfU3QglQ0lRLkdUTEIuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAADNhBcRAgAAAAUzOS41NQA8HHVuF9TdCMdUGm8X1N0IJENJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAADNhBcRAgAAAAUzMy45NgA8HHVuF9TdCIBgIm8X1N0II0NJUS5HVExCLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAM2EFxECAAAABDU0LjUAPBx1bhfU3QjNyhpvF9TdCCJDSVEuR1RMQi5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAM2EFxECAAAABTc0LjE4ADwcdW4X1N0IUawRbxfU3QghQ0lRLkdUTEIuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAM2EFxECAAAABzM3Ljg5NjkAPBx1bhfU3QhWcBNvF9TdCBlDSVEuR1RMQi5JUV9ZRUFSSElHSF9EQVRFAQAAAM2EFxEFAAAACTIwMjUvMS8zMQA8</t>
-  </si>
-  <si>
-    <t>HHVuF9TdCDU0FG8X1N0IGENJUS5HVExCLklRX1lFQVJMT1dfREFURQEAAADNhBcRBQAAAAgyMDI1LzQvNAA8HHVuF9TdCN0xFm8X1N0IJUNJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAzYQXEQIAAAAFNTYuMzUAGmp2bhfU3Qhb/iFvF9TdCCRDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAg32EAQIAAAAGMTk2LjI4APIRdm4X1N0I4sMgbxfU3QgkQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAIN9hAECAAAABjE2Ny42OQA8HHVuF9TdCIeIIW8X1N0IJUNJUS5QQU5XLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAg32EAQIAAAAFODQuOTUAPBx1bhfU3QipCBhvF9TdCCRDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAg32EAQIAAAAFOTIuMjQAPBx1bhfU3QgCGxlvF9TdCCNDSVEuUEFOVy5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAACDfYQBAgAAAAcxNjQuNjM1ADwcdW4X1N0IppAZbxfU3QgiQ0lRLlBBTlcuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAACDfYQBAgAAAAYyMDguMzkAPBx1bhfU3QjwryFvF9TdCCFDSVEuUEFOVy5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAg32EAQIAAAAGMTQyLjAxADwcdW4X1N0Ix1QabxfU3QgZQ0lRLlBBTlcuSVFfWUVBUkhJR0hfREFU</t>
-  </si>
-  <si>
-    <t>RQEAAACDfYQBBQAAAAkyMDI1LzcvMjkAPBx1bhfU3QiBdSBvF9TdCBhDSVEuUEFOVy5JUV9ZRUFSTE9XX0RBVEUBAAAAg32EAQUAAAAIMjAyNC84LzUAPBx1bhfU3QhRrBFvF9TdCCVDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAIN9hAECAAAABjE4MS45NgAaanZuF9TdCFR+GG8X1N0II0NJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAOJuzAICAAAABjIxOC41MwDyEXZuF9TdCNptFW8X1N0II0NJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAOJuzAICAAAABjE1OS4yNgA8HHVuF9TdCN0xFm8X1N0IJENJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAADibswCAgAAAAYxNTIuNjkAPBx1bhfU3QiTRBdvF9TdCCNDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAADibswCAgAAAAYyMDQuNjgAPBx1bhfU3QjdMRZvF9TdCCJDSVEuTURCLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAOJuzAICAAAAAzI2MwA8HHVuF9TdCJNEF28X1N0IIUNJUS5NREIuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAADibswCAgAAAAMzNzAAPBx1bhfU3QjEsx1vF9TdCCBDSVEuTURCLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAADibswCAgAAAAYxNDAuNzgAPBx1bhfU3QhMuhdvF9TdCBhDSVEuTURCLklR</t>
-  </si>
-  <si>
-    <t>X1lFQVJISUdIX0RBVEUBAAAA4m7MAgUAAAAJMjAyNC8xMi85ADwcdW4X1N0IEZ8ebxfU3QgXQ0lRLk1EQi5JUV9ZRUFSTE9XX0RBVEUBAAAA4m7MAgUAAAAIMjAyNS80LzcAPBx1bhfU3QgCGxlvF9TdCCRDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAA4m7MAgIAAAAGMjMyLjgxABpqdm4X1N0IGWMfbxfU3QgkQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAALjKpQYCAAAABTU3LjI1APIRdm4X1N0Ix1QabxfU3QgkQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAALjKpQYCAAAABTQxLjc1ADwcdW4X1N0Ia2UdbxfU3QglQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAC4yqUGAgAAAAUyOS4xOQA8HHVuF9TdCM3KGm8X1N0IJENJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAC4yqUGAgAAAAUyMy40NgA8HHVuF9TdCFGsEW8X1N0II0NJUS5QU1RHLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAALjKpQYCAAAABTYxLjQ5ADwcdW4X1N0IVnATbxfU3QgiQ0lRLlBTVEcuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAC4yqUGAgAAAAU3My42NwA8HHVuF9TdCDU0FG8X1N0IIUNJUS5QU1RHLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAC4yqUGAgAAAAUzNC41MQA8HHVuF9TdCNpt</t>
-  </si>
-  <si>
-    <t>FW8X1N0IGUNJUS5QU1RHLklRX1lFQVJISUdIX0RBVEUBAAAAuMqlBgUAAAAJMjAyNS8xLzIyADwcdW4X1N0I3TEWbxfU3QgYQ0lRLlBTVEcuSVFfWUVBUkxPV19EQVRFAQAAALjKpQYFAAAACDIwMjUvNC83ADwcdW4X1N0INBkbbxfU3QglQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAAC4yqUGAgAAAAU2MS40MwAaanZuF9TdCNuOG28X1N0IIkNJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAA1MyBAwIAAAAGMjg2LjI5APIRdm4X1N0IUQYabxfU3QgiQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADUzIEDAgAAAAYyMDEuMDkAPBx1bhfU3QgCGxlvF9TdCCNDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAADUzIEDAgAAAAYxMzMuNDUAPBx1bhfU3QimkBlvF9TdCCJDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAANTMgQMCAAAABjEwNy45NwA8HHVuF9TdCOdSHG8X1N0IIUNJUS5aUy5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAADUzIEDAgAAAAYxOTQuOTYAPBx1bhfU3QimkBlvF9TdCCBDSVEuWlMuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAADUzIEDAgAAAAgzMTguNDU5OQA8HHVuF9TdCBzBI28X1N0IH0NJUS5aUy5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAA1MyBAwIAAAAGMTUz</t>
-  </si>
-  <si>
-    <t>LjQ1ADwcdW4X1N0Ix1QabxfU3QgXQ0lRLlpTLklRX1lFQVJISUdIX0RBVEUBAAAA1MyBAwUAAAAIMjAyNS83LzgAPBx1bhfU3QjXriJvF9TdCBZDSVEuWlMuSVFfWUVBUkxPV19EQVRFAQAAANTMgQMFAAAACTIwMjQvOS8xMAA8HHVuF9TdCFGsEW8X1N0II0NJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAANTMgQMCAAAABjE4MC40MQAaanZuF9TdCNuOG28X1N0IJENJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAmAXoQAgAAAAUyNS40MwDyEXZuF9TdCCqjGm8X1N0IJENJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAAmAXoQAgAAAAUyMS4xNQA8HHVuF9TdCJRGFW8X1N0IJUNJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAJgF6EAIAAAAFMjMuMDMAPBx1bhfU3QjdMRZvF9TdCCRDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAJgF6EAIAAAAEMjIuNgA8HHVuF9TdCD32Fm8X1N0II0NJUS5DRkxULklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAACYBehACAAAABTI2LjA2ADwcdW4X1N0IgGAibxfU3QgiQ0lRLkNGTFQuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAmAXoQAgAAAAQzNy45ADwcdW4X1N0ITLoXbxfU3QghQ0lRLkNGTFQuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAA</t>
-  </si>
-  <si>
-    <t>ACYBehACAAAABTE3Ljc5ADwcdW4X1N0I164ibxfU3QgZQ0lRLkNGTFQuSVFfWUVBUkhJR0hfREFURQEAAAAmAXoQBQAAAAkyMDI1LzIvMTIAPBx1bhfU3QipCBhvF9TdCBhDSVEuQ0ZMVC5JUV9ZRUFSTE9XX0RBVEUBAAAAJgF6EAUAAAAIMjAyNS84LzEAPBx1bhfU3QhRrBFvF9TdCCVDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAACYBehACAAAABTI3Ljk2ABpqdm4X1N0IVH4YbxfU3QgkQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAADN+AAACAAAAAzE3MwDyEXZuF9TdCKkIGG8X1N0IJENJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAAzfgAAAgAAAAYxMDEuNDkAPBx1bhfU3QitzBhvF9TdCCVDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAADN+AAACAAAABjE2LjkyMwA8HHVuF9TdCKaQGW8X1N0IJENJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAAzfgAAAgAAAAYyNC4wNjMAPBx1bhfU3QiHiCFvF9TdCCNDSVEuTlZEQS5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAAAzfgAAAgAAAAYxMjEuODUAPBx1bhfU3QjHVBpvF9TdCCJDSVEuTlZEQS5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAADN+AAACAAAABjE3NC4xNgA8HHVuF9TdCPCvIW8X1N0IIUNJUS5OVkRBLklRX1lF</t>
-  </si>
-  <si>
-    <t>QVJMT1cuMjAyNS83LzE3LlVTRAEAAAAzfgAAAgAAAAU4Ni42MgA8HHVuF9TdCM3KGm8X1N0IGUNJUS5OVkRBLklRX1lFQVJISUdIX0RBVEUBAAAAM34AAAUAAAAJMjAyNS83LzMxADwcdW4X1N0IUawRbxfU3QgYQ0lRLk5WREEuSVFfWUVBUkxPV19EQVRFAQAAADN+AAAFAAAACDIwMjUvNC83ADwcdW4X1N0INTQUbxfU3QglQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAAAzfgAAAgAAAAYxMzQuMjkAxq52bhfU3QjwryFvF9TdCCRDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAaWEAAAIAAAAGMjEwLjAyAPIRdm4X1N0ITLoXbxfU3QgkQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAGlhAAACAAAABjE5Ni45OAA8HHVuF9TdCIF1IG8X1N0IJUNJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAaWEAAAIAAAAGMTQ4LjAzADwcdW4X1N0ITLoXbxfU3QgkQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAGlhAAACAAAABjE1Mi41OQA8HHVuF9TdCOLDIG8X1N0II0NJUS5BQVBMLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAGlhAAACAAAABjIzMC4yOAA8HHVuF9TdCEy6F28X1N0IIkNJUS5BQVBMLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAaWEAAAIAAAAFMjYwLjEAPBx1bhfU</t>
-  </si>
-  <si>
-    <t>3QgRnx5vF9TdCCFDSVEuQUFQTC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAaWEAAAIAAAAIMTY5LjIxMDEAPBx1bhfU3QipCBhvF9TdCBlDSVEuQUFQTC5JUV9ZRUFSSElHSF9EQVRFAQAAAGlhAAAFAAAACjIwMjQvMTIvMjYAPBx1bhfU3QitzBhvF9TdCBhDSVEuQUFQTC5JUV9ZRUFSTE9XX0RBVEUBAAAAaWEAAAUAAAAIMjAyNS80LzgAPBx1bhfU3QgZYx9vF9TdCCVDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAGlhAAACAAAABjI1MC40MgDGrnZuF9TdCIF1IG8X1N0IJENJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAADwtn0BAgAAAAYyODYuNDUA8hF2bhfU3QjNyhpvF9TdCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAA8LZ9AQIAAAAGMTcwLjk5ADwcdW4X1N0IzcoabxfU3QglQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAADwtn0BAgAAAAY1NS4xMDMAPBx1bhfU3QhRrBFvF9TdCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAA8LZ9AQIAAAAGNjMuMjQ2ADwcdW4X1N0IVnATbxfU3QgjQ0lRLkFWR08uSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAA8LZ9AQIAAAAGMTU4Ljg5ADwcdW4X1N0INTQUbxfU3QgiQ0lRLkFWR08uSVFfWUVBUkhJR0guMjAyNS83LzE3</t>
-  </si>
-  <si>
-    <t>LlVTRAEAAADwtn0BAgAAAAYyODguMjgAPBx1bhfU3QiURhVvF9TdCCFDSVEuQVZHTy5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAA8LZ9AQIAAAAFMTI4LjUAPBx1bhfU3QjdMRZvF9TdCBlDSVEuQVZHTy5JUV9ZRUFSSElHSF9EQVRFAQAAAPC2fQEFAAAACTIwMjUvNy8zMQA8HHVuF9TdCD32Fm8X1N0IGENJUS5BVkdPLklRX1lFQVJMT1dfREFURQEAAADwtn0BBQAAAAgyMDI0LzgvNQA8HHVuF9TdCEy6F28X1N0IJUNJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAA8LZ9AQIAAAAGMjMxLjg0AMaudm4X1N0Ia7EfbxfU3QgpQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAq8wFAAIAAAALMzguMzkzNTg1MTIA8hF2bhfU3QitzBhvF9TdCClDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAACrzAUAAgAAAAwyNi4wNDYzMTEyOTEAPBx1bhfU3QimkBlvF9TdCCpDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAq8wFAAIAAAALMTUuODUzNTAwNjcAPBx1bhfU3QjnUhxvF9TdCClDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAACrzAUAAgAAAAoxNi42ODU3NTE2ADwcdW4X1N0Ix1QabxfU3QgoQ0lRLlRXU0U6MjMzMC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4</t>
-  </si>
-  <si>
-    <t>LlVTRAEAAACrzAUAAgAAAAwzMC4yMTc3NjM2MjgAPBx1bhfU3QhrZR1vF9TdCCdDSVEuVFdTRToyMzMwLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAq8wFAAIAAAALMzkuNDEyODgzODQAPBx1bhfU3QjXriJvF9TdCCZDSVEuVFdTRToyMzMwLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAACrzAUAAgAAAAsyNi41MDE3NjY3MgA8HHVuF9TdCM3KGm8X1N0IHkNJUS5UV1NFOjIzMzAuSVFfWUVBUkhJR0hfREFURQEAAACrzAUABQAAAAkyMDI1LzcvMzEAPBx1bhfU3QhRrBFvF9TdCB1DSVEuVFdTRToyMzMwLklRX1lFQVJMT1dfREFURQEAAACrzAUABQAAAAgyMDI1LzQvOQA8HHVuF9TdCDU0FG8X1N0IKkNJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAACrzAUAAgAAAAszMi43OTQzODY0NQDGrnZuF9TdCFR+GG8X1N0ILENJUS5LT1NFOkEwMDA2NjAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAJ16DQACAAAACzE5My43MjMzMzc1APIRdm4X1N0IPfYWbxfU3QgsQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAnXoNAAIAAAAIMTIzLjY1NTcAPBx1bhfU3QjNyhpvF9TdCC1DSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAnXoNAAIAAAAJNjQuNTUzMzM1ADDidW4X1N0IPfYWbxfU</t>
-  </si>
-  <si>
-    <t>3QgsQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAnXoNAAIAAAAKNjIuMTQ2MDM3OQAw4nVuF9TdCIBgIm8X1N0IK0NJUS5LT1NFOkEwMDA2NjAuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAAnXoNAAIAAAALMTUzLjcyODIzNzUAMOJ1bhfU3QhMuhdvF9TdCCpDSVEuS09TRTpBMDAwNjYwLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAnXoNAAIAAAALMjIwLjMxOTg2MjUAMOJ1bhfU3QjXriJvF9TdCClDSVEuS09TRTpBMDAwNjYwLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAACdeg0AAgAAAAsxMDQuMDEzOTc3NQAw4nVuF9TdCKkIGG8X1N0IIUNJUS5LT1NFOkEwMDA2NjAuSVFfWUVBUkhJR0hfREFURQEAAACdeg0ABQAAAAkyMDI1LzcvMTEAMOJ1bhfU3QitzBhvF9TdCCBDSVEuS09TRTpBMDAwNjYwLklRX1lFQVJMT1dfREFURQEAAACdeg0ABQAAAAkyMDI0LzkvMTkAMOJ1bhfU3QhpJCNvF9TdCC1DSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAnXoNAAMAAAAAAMaudm4X1N0I8K8hbxfU3QgtQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAACjvBQACAAAABjc0NC45MQDyEXZuF9TdCM3KGm8X1N0ILUNJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS80</t>
-  </si>
-  <si>
-    <t>LzE3LlVTRAEAAAAo7wUAAgAAAAY2NDAuMTYAMOJ1bhfU3QiRmBFvF9TdCC5DSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAACjvBQACAAAABjYwOC4xMgAw4nVuF9TdCFZwE28X1N0ILUNJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAAo7wUAAgAAAAU2MjAuMwAw4nVuF9TdCDU0FG8X1N0ILENJUS5OQVNEQVFHUzpBU01MLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAACjvBQACAAAABTk1My41ADDidW4X1N0IlEYVbxfU3QgrQ0lRLk5BU0RBUUdTOkFTTUwuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAo7wUAAgAAAAY5NTcuMjEAMOJ1bhfU3QjdMRZvF9TdCCpDSVEuTkFTREFRR1M6QVNNTC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAKO8FAAIAAAAGNTc4LjUxADDidW4X1N0IPfYWbxfU3QgiQ0lRLk5BU0RBUUdTOkFTTUwuSVFfWUVBUkhJR0hfREFURQEAAAAo7wUABQAAAAkyMDI0LzgvMjEAMOJ1bhfU3QjiwyBvF9TdCCFDSVEuTkFTREFRR1M6QVNNTC5JUV9ZRUFSTE9XX0RBVEUBAAAAKO8FAAUAAAAIMjAyNS80LzcAMOJ1bhfU3QhMuhdvF9TdCC5DSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAACjvBQACAAAABjY5My4wOADGrnZuF9TdCCqjGm8X1N0IJENJUS5N</t>
-  </si>
-  <si>
-    <t>UlZMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAC2eQAAAgAAAAU3Mi4wMQDyEXZuF9TdCCqjGm8X1N0IJENJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAC2eQAAAgAAAAQ1MS43ADDidW4X1N0IyTkhbxfU3QglQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAC2eQAAAgAAAAU0Ni41MgAw4nVuF9TdCMdUGm8X1N0IJENJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAC2eQAAAgAAAAUzOC42MQAw4nVuF9TdCIF1IG8X1N0II0NJUS5NUlZMLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAALZ5AAACAAAABTY5Ljc0ADDidW4X1N0IUQYabxfU3QgiQ0lRLk1SVkwuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAC2eQAAAgAAAAYxMjcuNDgAMOJ1bhfU3QiBdSBvF9TdCCFDSVEuTVJWTC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAtnkAAAIAAAAGNDcuMDg1ADDidW4X1N0IzcoabxfU3QgZQ0lRLk1SVkwuSVFfWUVBUkhJR0hfREFURQEAAAC2eQAABQAAAAkyMDI1LzEvMjMAMOJ1bhfU3QiRmBFvF9TdCBhDSVEuTVJWTC5JUV9ZRUFSTE9XX0RBVEUBAAAAtnkAAAUAAAAIMjAyNS80LzcAMOJ1bhfU3Qg1NBRvF9TdCCVDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAALZ5AAACAAAABjExMC40NQDG</t>
-  </si>
-  <si>
-    <t>rnZuF9TdCDhFKW8X1N0II0NJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAESbhyICAAAABjEzMS4xMgDyEXZuF9TdCD32Fm8X1N0II0NJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAESbhyICAAAABTczLjIxADDidW4X1N0IGWMfbxfU3QgkQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAESbhyICAAAABTEzLjg1ADDidW4X1N0I+ZIXbxfU3QgjQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAARJuHIgIAAAAFMTMuOTUAMOJ1bhfU3QhMuhdvF9TdCCJDSVEuVlJULklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAESbhyICAAAABTgzLjYzADDidW4X1N0IqQgYbxfU3QghQ0lRLlZSVC5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAESbhyICAAAABjE1NS44NAAw4nVuF9TdCK3MGG8X1N0IIENJUS5WUlQuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAESbhyICAAAABDUzLjYAMOJ1bhfU3QimkBlvF9TdCBhDSVEuVlJULklRX1lFQVJISUdIX0RBVEUBAAAARJuHIgUAAAAJMjAyNS8xLzI0ADDidW4X1N0IxLMdbxfU3QgXQ0lRLlZSVC5JUV9ZRUFSTE9XX0RBVEUBAAAARJuHIgUAAAAIMjAyNS80LzcAMOJ1bhfU3QjHdx5vF9TdCCRDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAARJuHIgIA</t>
-  </si>
-  <si>
-    <t>AAAGMTEzLjYxAMaudm4X1N0IVH4YbxfU3QgkQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAMPb/AECAAAABjExMS45OADyEXZuF9TdCEy6F28X1N0IJENJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADD2/wBAgAAAAQ3MS4yADDidW4X1N0INTQUbxfU3QglQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAADD2/wBAgAAAAYzNC44MjUAMOJ1bhfU3QiURhVvF9TdCCRDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAw9v8AQIAAAAHMzguMjg3NQAw4nVuF9TdCN0xFm8X1N0II0NJUS5BTkVULklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAMPb/AECAAAABjg0LjY2NQAw4nVuF9TdCJRGFW8X1N0IIkNJUS5BTkVULklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAw9v8AQIAAAAHMTMzLjU3NQAw4nVuF9TdCN0xFm8X1N0IIUNJUS5BTkVULklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAADD2/wBAgAAAAU1OS40MwAw4nVuF9TdCD32Fm8X1N0IGUNJUS5BTkVULklRX1lFQVJISUdIX0RBVEUBAAAAw9v8AQUAAAAJMjAyNS8xLzI0ADDidW4X1N0IEhcdbxfU3QgYQ0lRLkFORVQuSVFfWUVBUkxPV19EQVRFAQAAAMPb/AEFAAAACDIwMjUvNC83ADDidW4X1N0ITLoXbxfU3QglQ0lRLkFORVQuSVFfQ0xPU0VQUklD</t>
-  </si>
-  <si>
-    <t>RS4yMDI0LzEyLzMxLlVTRAEAAADD2/wBAgAAAAYxMTAuNTMAu8J2bhfU3QhrsR9vF9TdCClDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAA9N1wAAgAAAAs0Ny4yMjc1MDczNgDyEXZuF9TdCERCGW8X1N0IKUNJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAD03XAACAAAACzQxLjIwNjY3OTAyADDidW4X1N0IREIZbxfU3QgqQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAD03XAACAAAADDIzLjcxNTU0MjgzOQAw4nVuF9TdCNuOG28X1N0IKUNJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAD03XAACAAAACzI0Ljg5Nzc1ODc2ADDidW4X1N0IUQYabxfU3QgoQ0lRLlRXU0U6MjQ1NC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAAA9N1wAAgAAAAszOC44NDI2NzE4NwAw4nVuF9TdCOdSHG8X1N0IJ0NJUS5UV1NFOjI0NTQuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAA9N1wAAgAAAAo1My41MTMxODI4ADDidW4X1N0IKqMabxfU3QgmQ0lRLlRXU0U6MjQ1NC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAPTdcAAIAAAAMMzMuMzMxMDY4MTQ0ADDidW4X1N0IkZgRbxfU3QgeQ0lRLlRXU0U6MjQ1NC5JUV9ZRUFSSElHSF9EQVRFAQAAAD03XAAFAAAACTIwMjUvMi8y</t>
-  </si>
-  <si>
-    <t>NgAw4nVuF9TdCFZwE28X1N0IHUNJUS5UV1NFOjI0NTQuSVFfWUVBUkxPV19EQVRFAQAAAD03XAAFAAAACDIwMjQvOC81ADDidW4X1N0IlEYVbxfU3QgqQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAD03XAACAAAACzQzLjE2NjU2NDQ5ALvCdm4X1N0IUQYabxfU3QgiQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAGaQQAAgAAAAYxMTMuMjYA8hF2bhfU3QjNyhpvF9TdCCJDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAAZpBAACAAAABDY4LjgAMOJ1bhfU3Qj5khdvF9TdCCNDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAAGaQQAAgAAAAU1Ny42NQDyEXZuF9TdCEy6F28X1N0IIkNJUS5NVS5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAABmkEAAIAAAAFNTQuMjcA8hF2bhfU3QipCBhvF9TdCCFDSVEuTVUuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAABmkEAAIAAAAFMTIwLjUA8hF2bhfU3QitzBhvF9TdCCBDSVEuTVUuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAGaQQAAgAAAAYxMjkuODUA8hF2bhfU3QitzBhvF9TdCB9DSVEuTVUuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAAZpBAACAAAABTYxLjU0APIRdm4X1N0IREIZbxfU3QgXQ0lRLk1VLklRX1lFQVJISUdIX0RBVEUB</t>
-  </si>
-  <si>
-    <t>AAAABmkEAAUAAAAJMjAyNS82LzI2APIRdm4X1N0IJv0ibxfU3QgWQ0lRLk1VLklRX1lFQVJMT1dfREFURQEAAAAGaQQABQAAAAgyMDI1LzQvNwDyEXZuF9TdCNeuIm8X1N0II0NJUS5NVS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAAZpBAACAAAABTg0LjE2ALvCdm4X1N0IUKEcbxfU3QgkQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAANWCAAACAAAABjE1Mi42MQDyEXZuF9TdCD32Fm8X1N0IJENJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADVggAAAgAAAAYxMzYuNjYA8hF2bhfU3Qg1NBRvF9TdCCVDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAANWCAAACAAAABjEyNi40OQDyEXZuF9TdCFZwE28X1N0IJENJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAADVggAAAgAAAAYxMTYuNTUA8hF2bhfU3Qg1NBRvF9TdCCNDSVEuUUNPTS5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAADVggAAAgAAAAYxOTMuNzgA8hF2bhfU3QiURhVvF9TdCCJDSVEuUUNPTS5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAANWCAAACAAAABjE5Ni4yNADyEXZuF9TdCN0xFm8X1N0IIUNJUS5RQ09NLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAADVggAAAgAAAAgxMjAuODAxOQDyEXZuF9TdCD32Fm8X1N0IGUNJ</t>
-  </si>
-  <si>
-    <t>US5RQ09NLklRX1lFQVJISUdIX0RBVEUBAAAA1YIAAAUAAAAJMjAyNC8xMS83APIRdm4X1N0I164ibxfU3QgYQ0lRLlFDT00uSVFfWUVBUkxPV19EQVRFAQAAANWCAAAFAAAACDIwMjUvNC83APIRdm4X1N0ITLoXbxfU3QglQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAADVggAAAgAAAAYxNTMuNjIAu8J2bhfU3QitzBhvF9TdCCRDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAA1IgAAAIAAAAGNTg5LjAxAPIRdm4X1N0IREIZbxfU3QgkQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAANSIAAACAAAABjQxMy4zMgDyEXZuF9TdCPCvIW8X1N0IJUNJUS5TTlBTLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAA1IgAAAIAAAAGMzM5LjU0APIRdm4X1N0IUQYabxfU3QgkQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAANSIAAACAAAABjM2OS44NADyEXZuF9TdCIBgIm8X1N0II0NJUS5TTlBTLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAANSIAAACAAAABTU3Ni4zAPIRdm4X1N0IKqMabxfU3QgiQ0lRLlNOUFMuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAADUiAAAAgAAAAY1OTMuOTgA8hF2bhfU3Qiw0hBvF9TdCCFDSVEuU05QUy5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAA1IgAAAIAAAAG</t>
-  </si>
-  <si>
-    <t>MzY1Ljc0APIRdm4X1N0IByITbxfU3QgZQ0lRLlNOUFMuSVFfWUVBUkhJR0hfREFURQEAAADUiAAABQAAAAkyMDI1LzcvMzAA8hF2bhfU3Qjp5RNvF9TdCBhDSVEuU05QUy5JUV9ZRUFSTE9XX0RBVEUBAAAA1IgAAAUAAAAIMjAyNS80LzcA8hF2bhfU3QjdMRZvF9TdCCVDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAANSIAAACAAAABjQ4NS4zNgC7wnZuF9TdCNeuIm8X1N0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAACznxScCAAAABjE1Ny4xOADyEXZuF9TdCPmSF28X1N0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAACznxScCAAAABjEwMC43MwDyEXZuF9TdCEy6F28X1N0IJENJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAAs58UnAwAAAAAA8hF2bhfU3QipCBhvF9TdCCNDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAAs58UnAwAAAAAA8hF2bhfU3QhMuhdvF9TdCCJDSVEuQVJNLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAACznxScCAAAABjE2NS44NQDyEXZuF9TdCKkIGG8X1N0IIUNJUS5BUk0uSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAs58UnAgAAAAYxODIuODgA8hF2bhfU3QitzBhvF9TdCCBDSVEuQVJNLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAAs</t>
-  </si>
-  <si>
-    <t>58UnAgAAAAI4MADyEXZuF9TdCERCGW8X1N0IGENJUS5BUk0uSVFfWUVBUkhJR0hfREFURQEAAAAs58UnBQAAAAkyMDI1LzEvMjIA8hF2bhfU3QhRBhpvF9TdCBdDSVEuQVJNLklRX1lFQVJMT1dfREFURQEAAAAs58UnBQAAAAgyMDI1LzQvNwDyEXZuF9TdCOLDIG8X1N0IJENJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAAAs58UnAgAAAAYxMjMuMzYAu8J2bhfU3Qg2vBVvF9TdCDNDSVEuTkFTREFRR006UVFRLklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzEBAAAADrp7AAIAAAAJMzUzMTYwLjE4ADwcdW4X1N0IaykebxfU3Qg0Q0lRLk5BU0RBUUdNOkFHSVguSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAAAj9wBwAgAAAAUyNi45OQA8HHVuF9TdCDhFKW8X1N0IM0NJUS5OQVNEQVFHTTpTTUguSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAABgwjYAAgAAAAgyNjgwMi43MwA8HHVuF9TdCEEJKm8X1N0IL0NJUS5CQVRTOklHVi5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC8xAQAAAM06hgACAAAACDExOTcwLjAxADwcdW4X1N0IQQkqbxfU3Qg0Q0lRLk5BU0RBUUdNOkJPVFouSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAAD3/QgWAgAAAAcyNzU2LjA1ADwcdW4X1N0IQQkqbxfU3QgzQ0lRLk5BU0RB</t>
-  </si>
-  <si>
-    <t>UUdNOkFJUS5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC8xAQAAAOncYiECAAAABzM3MDcuNjcAPBx1bhfU3QgNWCpvF9TdCDBDSVEuQVJDQTpBUlRZLklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzEBAAAAbh9pIQIAAAAHMTA5MC41MQA8HHVuF9TdCBiDJm8X1N0INENJUS5OQVNEQVFHTTpST0JULklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzEBAAAAXGPZIAIAAAAGNTAwLjQ2ADwcdW4X1N0Id9EmbxfU3QgwQ0lRLkFSQ0E6SUdQVC5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC8xAQAAAMwCXgECAAAABjQ4MS42NQA8HHVuF9TdCMT4Jm8X1N0IMENJUS5CQVRTOldUQUkuSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAABgTm9kAgAAAAYyMTcuMDQAPBx1bhfU3QgxRydvF9TdCDBDSVEuQVJDQTpUSE5RLklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzEBAAAArsN+JAIAAAAGMTk5LjQxADwcdW4X1N0IC70nbxfU3Qg0Q0lRLk5BU0RBUUdNOkZEVFguSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAAC9pZ0mAgAAAAYxNzguODQAPBx1bhfU3QhyCyhvF9TdCDBDSVEuQVJDQTpDSEFULklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzEBAAAAADA1bQIAAAAGMzQ3LjAxADwcdW4X1N0IRoEobxfU</t>
-  </si>
-  <si>
-    <t>3QgwQ0lRLkFSQ0E6TE9VUC5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC8xAQAAAFlcDyICAAAABTk5LjE3ADwcdW4X1N0InM8obxfU3QgwQ0lRLkFSQ0E6TFJOWi5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC8xAQAAALV2wyYCAAAABTMzLjMxADwcdW4X1N0IGWMfbxfU3QgvQ0lRLkFSQ0E6QUlTLklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzEBAAAAmJefcAIAAAAENS42OAA8HHVuF9TdCBljH28X1N0INENJUS5OQVNEQVFHTTpXSVNFLklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzEBAAAA6bBDbgIAAAAFMzAuMTcAPBx1bhfU3QgSJyBvF9TdCC9DSVEuTFNFOlJCT1QuSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAACOeyQUAgAAAAczMjU4LjY2ADwcdW4X1N0IByITbxfU3QgwQ0lRLlhUUkE6WEFJWC5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC8xAQAAADXs4iICAAAABzQ3OTQuNjYAPBx1bhfU3QiTkylvF9TdCC9DSVEuQklUOldUQUkuSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAABNulsjAgAAAAY4NzcuMTUAPBx1bhfU3Qjz4SlvF9TdCC9DSVEuTFNFOkFJQUcuSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAADwnYIkAgAAAAY3OTcuMzQAPBx1bhfU3Qjz4SlvF9TdCC9D</t>
-  </si>
-  <si>
-    <t>SVEuQVNYOlJCVFouSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAAAp7XYiAgAAAAYxOTIuODMAPBx1bhfU3QhBCSpvF9TdCC5DSVEuREI6WEIwVC5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC8xAQAAANMz3ikCAAAABTk0Ljk2ADwcdW4X1N0IEr8lbxfU3Qg0Q0lRQVZHLk5BU0RBUUdNOkFHSVguSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAAAj9wBwAgAAAA8yOC41NTg5MDQxMDk1ODkAPBx1bhfU3QgSJyBvF9TdCDNDSVFBVkcuTkFTREFRR006U01ILklRX1ZXQVAuMjAyNC8xMi8zMS4yMDI1LzgvMS5VU0QBAAAAYMI2AAIAAAAQMjQzLjc2MDU0Nzk0NTIwNQA8HHVuF9TdCEaBKG8X1N0IL0NJUUFWRy5CQVRTOklHVi5JUV9WV0FQLjIwMjQvMTIvMzEuMjAyNS84LzEuVVNEAQAAAM06hgACAAAAEDEwMC42ODEzMDEzNjk4NjMAPBx1bhfU3QhGgShvF9TdCDRDSVFBVkcuTkFTREFRR006Qk9UWi5JUV9WV0FQLjIwMjQvMTIvMzEuMjAyNS84LzEuVVNEAQAAAPf9CBYCAAAAEDMxLjI2MjUzNDI0NjU3NTMAPBx1bhfU3QiczyhvF9TdCDNDSVFBVkcuTkFTREFRR006QUlRLklRX1ZXQVAuMjAyNC8xMi8zMS4yMDI1LzgvMS5VU0QBAAAA6dxiIQIAAAAQMzkuODY5MjQ2NTc1MzQyNQA8HHVuF9TdCAciE28X1N0IMENJUUFWRy5BUkNBOkFSVFkuSVFfVldBUC4yMDI0</t>
-  </si>
-  <si>
-    <t>LzEyLzMxLjIwMjUvOC8xLlVTRAEAAABuH2khAgAAABAzNi45NDA2ODQ5MzE1MDY5ADwcdW4X1N0IOEUpbxfU3Qg0Q0lRQVZHLk5BU0RBUUdNOlJPQlQuSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAABcY9kgAgAAABA0NC45ODMwMTM2OTg2MzAxADwcdW4X1N0IByITbxfU3QgwQ0lRQVZHLkFSQ0E6SUdQVC5JUV9WV0FQLjIwMjQvMTIvMzEuMjAyNS84LzEuVVNEAQAAAMwCXgECAAAAEDQ1LjE4ODU2ODYzNjk4NjMAPBx1bhfU3QgSvyVvF9TdCDBDSVFBVkcuQkFUUzpXVEFJLklRX1ZXQVAuMjAyNC8xMi8zMS4yMDI1LzgvMS5VU0QBAAAAYE5vZAIAAAAQMjIuMDQ5OTMxNTA2ODQ5MwA8HHVuF9TdCLs0Jm8X1N0IMENJUUFWRy5BUkNBOlRITlEuSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAACuw34kAgAAABA1MC4xNTEwMjczOTcyNjAzADwcdW4X1N0IGIMmbxfU3Qg0Q0lRQVZHLk5BU0RBUUdNOkZEVFguSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAAC9pZ0mAgAAABAzNS40NjYzNjk4NjMwMTM3ADwcdW4X1N0Id9EmbxfU3QgwQ0lRQVZHLkFSQ0E6Q0hBVC5JUV9WV0FQLjIwMjQvMTIvMzEuMjAyNS84LzEuVVNEAQAAAAAwNW0CAAAAEDQxLjQ4NTc1MzQyNDY1NzUAPBx1bhfU3QjE+CZvF9TdCDBDSVFBVkcuQVJDQTpMT1VQLklRX1ZXQVAuMjAyNC8xMi8zMS4y</t>
-  </si>
-  <si>
-    <t>MDI1LzgvMS5VU0QBAAAAWVwPIgIAAAAQNTQuNjQxOTE3ODA4MjE5MgA8HHVuF9TdCDFHJ28X1N0IMENJUUFWRy5BUkNBOkxSTlouSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAAC1dsMmAgAAAA80MC4xMzM2OTg2MzAxMzcAPBx1bhfU3QgLvSdvF9TdCC9DSVFBVkcuQVJDQTpBSVMuSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAACYl59wAgAAABAyNC42MDU5NTg5MDQxMDk2ADwcdW4X1N0IEhcdbxfU3Qg0Q0lRQVZHLk5BU0RBUUdNOldJU0UuSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAADpsENuAgAAABAzNC40NjU1NDc5NDUyMDU1ADwcdW4X1N0IEhcdbxfU3QgvQ0lRQVZHLkxTRTpSQk9ULklRX1ZXQVAuMjAyNC8xMi8zMS4yMDI1LzgvMS5VU0QBAAAAjnskFAIAAAAQMTQuMDk1MTMyMTE5MjA1MwA8HHVuF9TdCEEJKm8X1N0IL0NJUUFWRy5YVFJBOlhBSVguSVFfVldBUC4yMDIzLzYvMzAuMjAyNS84LzEuVVNEAQAAADXs4iICAAAAEDk0LjE2MjMzNjI2NDUwMzkAPBx1bhfU3QjHdx5vF9TdCC9DSVFBVkcuQklUOldUQUkuSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAABNulsjAgAAABA2Ni42NTkzMTgyNzM5MTU5ADwcdW4X1N0IGWMfbxfU3QgvQ0lRQVZHLkxTRTpBSUFHLklRX1ZXQVAuMjAyNC8xMi8zMS4yMDI1LzgvMS5VU0QBAAAA8J2C</t>
-  </si>
-  <si>
-    <t>JAIAAAAQMjIuMTY3MDUyNjYwNTMzOQA8HHVuF9TdCBInIG8X1N0IL0NJUUFWRy5BU1g6UkJUWi5JUV9WV0FQLjIwMjQvMTIvMzEuMjAyNS84LzEuVVNEAQAAACntdiICAAAAEDkuMDAxOTY5Mzc3MjE0MDUAPBx1bhfU3QhpJCNvF9TdCC1DSVFBVkcuREI6WEIwVC5JUV9WV0FQLjIwMjMvNi8zMC4yMDI1LzgvMS5VU0QBAAAA0zPeKQIAAAAPMTguNjE1NzIwNTI3OTY0ADwcdW4X1N0Iu3IjbxfU3Qg0Q0lRQVZHLk5BU0RBUUdNOkFHSVguSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAAAj9wBwAgAAABAyNy40ODI5MTE4NzczOTQ2ADwcdW4X1N0IaSQjbxfU3QgzQ0lRQVZHLk5BU0RBUUdNOlNNSC5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAAGDCNgACAAAAEDIzNi4xNTMwMTUwNzUzNzcAPBx1bhfU3Qi7ciNvF9TdCC9DSVFBVkcuQkFUUzpJR1YuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAADNOoYAAgAAAA85Mi41MzY1OTA5NTk3OTkAPBx1bhfU3QjgNiRvF9TdCDRDSVFBVkcuTkFTREFRR006Qk9UWi5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAAPf9CBYCAAAADzMxLjExNTUyNzYzODE5MQA8HHVuF9TdCAciE28X1N0IM0NJUUFWRy5OQVNEQVFHTTpBSVEuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAADp3GIhAgAAABAzNi43</t>
-  </si>
-  <si>
-    <t>NjcyMzYxODA5MDQ1ADwcdW4X1N0IR4UkbxfU3QgwQ0lRQVZHLkFSQ0E6QVJUWS5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAAG4faSECAAAAEDM1LjE1NTg1NDI3MTM1NjgAPBx1bhfU3QjGlSdvF9TdCDRDSVFBVkcuTkFTREFRR006Uk9CVC5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAAFxj2SACAAAAEDQ0LjE5OTMyMTYwODA0MDIAPBx1bhfU3Qg4RSlvF9TdCDBDSVFBVkcuQVJDQTpJR1BULklRX1ZXQVAuMjAyMy8xMi8yOS4yMDI1LzgvMS5VU0QBAAAAzAJeAQIAAAAQNDQuODMxMzQ2MTkzNDY3MwA8HHVuF9TdCJOTKW8X1N0IMENJUUFWRy5CQVRTOldUQUkuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAABgTm9kAgAAABAyMS4wNDI5MTQ1NzI4NjQzADwcdW4X1N0IEr8lbxfU3QgwQ0lRQVZHLkFSQ0E6VEhOUS5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAAK7DfiQCAAAAEDQ2LjY3MzQ0MjIxMTA1NTMAPBx1bhfU3QgSFx1vF9TdCDRDSVFBVkcuTkFTREFRR006RkRUWC5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAAL2lnSYCAAAAEDMzLjUxMjM2MTgwOTA0NTIAPBx1bhfU3Qi7NCZvF9TdCDBDSVFBVkcuQVJDQTpDSEFULklRX1ZXQVAuMjAyMy8xMi8yOS4yMDI1LzgvMS5VU0QBAAAAADA1bQIAAAAQMzguMDU3OTY0ODI0</t>
-  </si>
-  <si>
-    <t>MTIwNgA8HHVuF9TdCMd3Hm8X1N0IMENJUUFWRy5BUkNBOkxPVVAuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAABZXA8iAgAAABA1MC4wNjYxODA5MDQ1MjI2ADwcdW4X1N0IGWMfbxfU3QgwQ0lRQVZHLkFSQ0E6TFJOWi5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAALV2wyYCAAAAEDM5LjEwNjM4MTkwOTU0NzcAPBx1bhfU3QgSJyBvF9TdCC9DSVFBVkcuQVJDQTpBSVMuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAACYl59wAgAAABAyNC42Mjc0NTQ1NDU0NTQ1ADwcdW4X1N0IGIMmbxfU3Qg0Q0lRQVZHLk5BU0RBUUdNOldJU0UuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAADpsENuAgAAAA8zMS4zOTY3ODM5MTk1OTgAPBx1bhfU3QhpJCNvF9TdCC9DSVFBVkcuTFNFOlJCT1QuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAACOeyQUAgAAABAxMy41ODc5NzQwMjIyMjIyADwcdW4X1N0Iu3IjbxfU3QgwQ0lRQVZHLlhUUkE6WEFJWC5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAADXs4iIDAAAAAAA8HHVuF9TdCOA2JG8X1N0IL0NJUUFWRy5CSVQ6V1RBSS5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAAE26WyMCAAAAEDY0LjU4Mzk1MzU2MDI0NDcAPBx1bhfU3QhHhSRvF9TdCC9DSVFBVkcuTFNF</t>
-  </si>
-  <si>
-    <t>OkFJQUcuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAADwnYIkAgAAABAyMC41ODk3NTAwNDc1NDkyADwcdW4X1N0InM8obxfU3QgvQ0lRQVZHLkFTWDpSQlRaLklRX1ZXQVAuMjAyMy8xMi8yOS4yMDI1LzgvMS5VU0QBAAAAKe12IgIAAAAQOS4xMDM5MzM1NDc3MzIxNAA8HHVuF9TdCDhFKW8X1N0ILkNJUUFWRy5EQjpYQjBULklRX1ZXQVAuMjAyMy8xMi8yOS4yMDI1LzgvMS5VU0QBAAAA0zPeKQMAAAAAADwcdW4X1N0IiqYqbxfU3QgsQ0lRQVZHLk5BU0RBUUdNOkFHSVguSVFfVk9MVU1FLi0zMEQuMjAyNS84LzEBAAAAI/cAcAIAAAASMC4wMjE3MjYzMTgxODE4MTgyADwcdW4X1N0Iu/oSbxfU3QgrQ0lRQVZHLk5BU0RBUUdNOlNNSC5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAABgwjYAAgAAABA3LjY0MTM3OTQ1NDU0NTQ1ADwcdW4X1N0I4DYkbxfU3QgnQ0lRQVZHLkJBVFM6SUdWLklRX1ZPTFVNRS4tMzBELjIwMjUvOC8xAQAAAM06hgACAAAAEDQuMjY4MDUyODE4MTgxODIAPBx1bhfU3QgSFx1vF9TdCCxDSVFBVkcuTkFTREFRR006Qk9UWi5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAAD3/QgWAgAAABEwLjY1MTk1NTA0NTQ1NDU0NQA8HHVuF9TdCEeFJG8X1N0IK0NJUUFWRy5OQVNEQVFHTTpBSVEuSVFfVk9MVU1FLi0zMEQuMjAyNS84LzEBAAAA6dxiIQIAAAAQMS4wMzIzNDM2</t>
-  </si>
-  <si>
-    <t>ODE4MTgxOAA8HHVuF9TdCGspHm8X1N0IKENJUUFWRy5BUkNBOkFSVFkuSVFfVk9MVU1FLi0zMEQuMjAyNS84LzEBAAAAbh9pIQIAAAARMC40MzkwMjk0MDkwOTA5MDkAPBx1bhfU3QjJOx9vF9TdCCxDSVFBVkcuTkFTREFRR006Uk9CVC5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAABcY9kgAgAAABIwLjA2NTA4MTEzNjM2MzYzNjQAPBx1bhfU3QjJOx9vF9TdCChDSVFBVkcuQVJDQTpJR1BULklRX1ZPTFVNRS4tMzBELjIwMjUvOC8xAQAAAMwCXgECAAAAEjAuMDM5MTcwODYzNjM2MzYzNgA8HHVuF9TdCBInIG8X1N0IKENJUUFWRy5CQVRTOldUQUkuSVFfVk9MVU1FLi0zMEQuMjAyNS84LzEBAAAAYE5vZAIAAAASMC4wODI4OTg1NDU0NTQ1NDU1ADwcdW4X1N0IxpUnbxfU3QgoQ0lRQVZHLkFSQ0E6VEhOUS5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAACuw34kAgAAABIwLjAyNjYxNTE4MTgxODE4MTgAPBx1bhfU3QgLvSdvF9TdCCxDSVFBVkcuTkFTREFRR006RkRUWC5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAAC9pZ0mAgAAABIwLjAxODE2MjcyNzI3MjcyNzMAPBx1bhfU3QjrWShvF9TdCChDSVFBVkcuQVJDQTpDSEFULklRX1ZPTFVNRS4tMzBELjIwMjUvOC8xAQAAAAAwNW0CAAAAETAuMTU4ODg2ODYzNjM2MzY0ADwcdW4X1N0IRoEobxfU3QgoQ0lRQVZHLkFSQ0E6TE9VUC5JUV9WT0xVTUUu</t>
-  </si>
-  <si>
-    <t>LTMwRC4yMDI1LzgvMQEAAABZXA8iAgAAABMwLjAwNjk1NDcyNzI3MjcyNzI3ADwcdW4X1N0InM8obxfU3QgoQ0lRQVZHLkFSQ0E6TFJOWi5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAAC1dsMmAgAAABMwLjAwNDQ2NzMxODE4MTgxODE4ADwcdW4X1N0I8h0pbxfU3QgnQ0lRQVZHLkFSQ0E6QUlTLklRX1ZPTFVNRS4tMzBELjIwMjUvOC8xAQAAAJiXn3ACAAAACTAuMDI4MTQ5NQA8HHVuF9TdCA1YKm8X1N0ILENJUUFWRy5OQVNEQVFHTTpXSVNFLklRX1ZPTFVNRS4tMzBELjIwMjUvOC8xAQAAAOmwQ24CAAAAEjAuMDExMzY2MDkwOTA5MDkwOQA8HHVuF9TdCOA2JG8X1N0IJ0NJUUFWRy5MU0U6UkJPVC5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAACOeyQUAgAAABEwLjE0NzA1ODYwODY5NTY1MgA8HHVuF9TdCEeFJG8X1N0IKENJUUFWRy5YVFJBOlhBSVguSVFfVk9MVU1FLi0zMEQuMjAyNS84LzEBAAAANeziIgIAAAARMC4wNjE2NjkzNDc4MjYwODcAPBx1bhfU3QiTrCRvF9TdCCdDSVFBVkcuQklUOldUQUkuSVFfVk9MVU1FLi0zMEQuMjAyNS84LzEBAAAATbpbIwIAAAASMC4wMTM2NzU3MzkxMzA0MzQ4ADwcdW4X1N0IGIMmbxfU3QgnQ0lRQVZHLkxTRTpBSUFHLklRX1ZPTFVNRS4tMzBELjIwMjUvOC8xAQAAAPCdgiQCAAAAEjAuMDU5OTc1MTczOTEzMDQzNQA8HHVuF9TdCMT4Jm8X1N0IJ0NJUUFW</t>
-  </si>
-  <si>
-    <t>Ry5BU1g6UkJUWi5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAAAp7XYiAgAAABIwLjA0NTIyNDU2NTIxNzM5MTMAPBx1bhfU3Qi7+hJvF9TdCCZDSVFBVkcuREI6WEIwVC5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAADTM94pAwAAAAAAPBx1bhfU3QgSFx1vF9TdCDNDSVFBVkcuTkFTREFRR006UVFRLklRX1ZXQVAuMjAyNC8xMi8zMS4yMDI1LzgvMS5VU0QBAAAADrp7AAIAAAAQNTExLjQzMTM2OTg2MzAxNAA8HHVuF9TdCGkkI28X1N0IM0NJUUFWRy5OQVNEQVFHTTpRUVEuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAAAOunsAAgAAABA0ODEuNjI5NzA0MDMwMTUxADwcdW4X1N0IRoEobxfU3QgrQ0lRQVZHLk5BU0RBUUdNOlFRUS5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAAAOunsAAgAAABA0Mi41MDk2MDU1NDU0NTQ1ADwcdW4X1N0IQQkqbxfU3QgjQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAI/cAcAIAAAAHMzEuMzkwMQC7wnZuF9TdCHPoI28X1N0IJENJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAj9wBwAgAAAAczMi40NTk1ALvCdm4X1N0IcgsobxfU3QgkQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAACP3AHACAAAABzMyLjQ2ODIA9TaBugjU3QhVLra7CNTdCCNDSVEuQUdJWC5JUV9DTE9TRVBSSUNF</t>
-  </si>
-  <si>
-    <t>LjIwMjUvNy8xLlVTRAEAAAAj9wBwAgAAAAUzMS4wMgC7wnZuF9TdCJzPKG8X1N0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEuVVNEAQAAACP3AHACAAAABTI1Ljk3ADwcdW4X1N0I8h0pbxfU3QgjQ0lRLl5TUFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAm7goAAIAAAAQNjIzOC4wMDY1NzAwNDYwMgA8HHVuF9TdCAciE28X1N0IJENJUS5eU1BYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACbuCgAAgAAAA82MzM5LjM5NDU2NzE2NTgAPBx1bhfU3Qg4RSlvF9TdCCRDSVEuXlNQWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAm7goAAIAAAAQNjM4OC42NDQ1MDAwNDA1NQD1NoG6CNTdCFc4kbsI1N0II0NJUS5eU1BYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAJu4KAACAAAAEDYxOTguMDA2OTQ1OTczMjEAu8J2bhfU3QhBCSpvF9TdCCVDSVEuXlNQWC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAJu4KAACAAAAEDU4ODEuNjI3NjQ4MjE0MDkAu8J2bhfU3Qjz4SlvF9TdCCVDSVEuXlNQWC5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkuVVNEAQAAAJu4KAACAAAAEDQ3NjkuODI5NDEwNzkwNjcAu8J2bhfU3QgZYx9vF9TdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAA66ewACAAAABjU1My44OAA8</t>
-  </si>
-  <si>
-    <t>HHVuF9TdCBInIG8X1N0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAA66ewACAAAABjU2NS4wMQA8HHVuF9TdCLs0Jm8X1N0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAA66ewACAAAABjU2Ni4zNwD1NoG6CNTdCHs3xrsI1N0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAADrp7AAIAAAAGNTQ2Ljk5ADwcdW4X1N0Id9EmbxfU3QgtQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAA66ewACAAAABjUxMS4yMwA8HHVuF9TdCMT4Jm8X1N0ILUNJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5LlVTRAEAAAAOunsAAgAAAAY0MDkuNTIAPBx1bhfU3QgxRydvF9TdCCNDSVEuXkRKSS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAD4tCgAAgAAABA0MzU4OC41NzgzNDAwNjgzADwcdW4X1N0IC70nbxfU3QgkQ0lRLl5ESkkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAPi0KAACAAAAEDQ0MTMwLjk3OTEyMTk4ODMAPBx1bhfU3QhGgShvF9TdCCRDSVEuXkRKSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAA+LQoAAIAAAAQNDQ5MDEuOTIwOTQwNTMzMgD1NoG6CNTdCGYQxrsI1N0II0NJUS5eREpJLklR</t>
-  </si>
-  <si>
-    <t>X0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAPi0KAACAAAAEDQ0NDk0LjkzNTk0NzY2MjQAPBx1bhfU3QjyHSlvF9TdCCVDSVEuXkRKSS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAPi0KAACAAAAEDQyNTQ0LjIyMzI1MzM5MzIAPBx1bhfU3Qg4RSlvF9TdCCVDSVEuXkRKSS5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkuVVNEAQAAAPi0KAACAAAAEDM3Njg5LjUzNTY1OTczMDkAPBx1bhfU3QgNWCpvF9TdCCdDSVEuSFNURUNILklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcik8HHVuF9TdCDhFKW8X1N0IJ0NJUS5IU1RFQ0guSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5LlVTRAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKTwcdW4X1N0Ik5MpbxfU3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADp3GIhAgAAAAU0My40NwA8HHVuF9TdCAciE28X1N0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAOncYiECAAAABTQ0LjU3ADwcdW4X1N0Ik5MpbxfU3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAA6dxiIQIAAAAFNDQuNzQA9TaBugjU3QjnCIm7CNTdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NF</t>
-  </si>
-  <si>
-    <t>UFJJQ0UuMjAyNS83LzEuVVNEAQAAAOncYiECAAAABDQzLjIAPBx1bhfU3Qh30SZvF9TdCC1DSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyMy8xMi8yOS5VU0QBAAAA6dxiIQIAAAAFMzEuMTgAPBx1bhfU3QgSJyBvF9TdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAGDCNgACAAAABjI4My45NQA8HHVuF9TdCMT4Jm8X1N0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAGDCNgACAAAABjI4OC43OAA8HHVuF9TdCDFHJ28X1N0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAGDCNgACAAAABjI4Ny40OQD1NoG6CNTdCPa6w7sI1N0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAAYMI2AAIAAAAGMjc1Ljg0ADwcdW4X1N0IcgsobxfU3QgtQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAGDCNgACAAAABjI0Mi4xNwA8HHVuF9TdCBzBI28X1N0ILUNJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5LlVTRAEAAABgwjYAAgAAAAYxNzQuODcAPBx1bhfU3QgNWCpvF9TdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAD3/QgWAgAAAAUzMy4x</t>
-  </si>
-  <si>
-    <t>MgA8HHVuF9TdCA1YKm8X1N0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAD3/QgWAgAAAAUzMy40NwA8HHVuF9TdCIqmKm8X1N0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAD3/QgWAgAAAAUzNC4zMwD1NoG6CNTdCEsHtrsI1N0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAPf9CBYCAAAABTMyLjE0ADwcdW4X1N0IuzQmbxfU3QgfQ0lRLk5BU0RBUUdNOkFHSVguSVFfTUFSS0VUQ0FQLgEAAAAj9wBwAgAAAAkyOC44MjA0OTQAPBx1bhfU3Qg8HHVuF9TdCCdDSVEuTkFTREFRR006QUdJWC5JUV9NQVJLRVRDQVAuMjAyNS84LzEBAAAAI/cAcAIAAAAJMjguMjUxMTUzADwcdW4X1N0IEicgbxfU3QgmQ0lRLk5BU0RBUUdNOlNNSC5JUV9NQVJLRVRDQVAuMjAyNS84LzEBAAAAYMI2AAIAAAAMMjY4MzAuOTY3NjIyADwcdW4X1N0IcgsobxfU3QgiQ0lRLkJBVFM6SUdWLklRX01BUktFVENBUC4yMDI1LzgvMQEAAADNOoYAAgAAAAgxMTczMi4wNAEGAAAABQAAAAExAQAAAAstMTkzODcwNzMyNgMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI1PBx1bhfU3QhGgShvF9TdCCdDSVEuTkFTREFRR006Qk9UWi5JUV9NQVJLRVRDQVAuMjAyNS84LzEBAAAA9/0IFgIAAAAJ</t>
-  </si>
-  <si>
-    <t>Mjc3MC44MTkyADwcdW4X1N0IHMEjbxfU3QgmQ0lRLk5BU0RBUUdNOkFJUS5JUV9NQVJLRVRDQVAuMjAyNS84LzEBAAAA6dxiIQIAAAALMzg3OS42OTc1ODcAPBx1bhfU3QiczyhvF9TdCCNDSVEuQVJDQTpBUlRZLklRX01BUktFVENBUC4yMDI1LzgvMQEAAABuH2khAgAAAAgxMTg5LjYxOQA8HHVuF9TdCJzPKG8X1N0IJ0NJUS5OQVNEQVFHTTpST0JULklRX01BUktFVENBUC4yMDI1LzgvMQEAAABcY9kgAgAAAAo1MDQuOTM5MDU4ADwcdW4X1N0IOEUpbxfU3QgjQ0lRLkFSQ0E6SUdQVC5JUV9NQVJLRVRDQVAuMjAyNS84LzEBAAAAzAJeAQIAAAAINDkwLjgyMjIBBgAAAAUAAAABMQEAAAALLTE5MzY1MTExOTUDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNTwcdW4X1N0IDVgqbxfU3QgjQ0lRLkJBVFM6V1RBSS5JUV9NQVJLRVRDQVAuMjAyNS84LzEBAAAAYE5vZAIAAAAHMjEyLjA3NgA8HHVuF9TdCBK/JW8X1N0II0NJUS5BUkNBOlRITlEuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xAQAAAK7DfiQCAAAACTIwMi43NTE3NQA8HHVuF9TdCLs0Jm8X1N0IJ0NJUS5OQVNEQVFHTTpGRFRYLklRX01BUktFVENBUC4yMDI1LzgvMQEAAAC9pZ0mAgAAAAkxODAuMzE3NTgAPBx1bhfU3QgYgyZvF9TdCCNDSVEuQVJDQTpDSEFULklRX01BUktFVENBUC4yMDI1LzgvMQEAAAAAMDVtAgAAAAkzNzUuNTcy</t>
-  </si>
-  <si>
-    <t>NzUAPBx1bhfU3Qh30SZvF9TdCCNDSVEuQVJDQTpMT1VQLklRX01BUktFVENBUC4yMDI1LzgvMQEAAABZXA8iAgAAAAk5OS4zMTIwNjIAPBx1bhfU3QjE+CZvF9TdCCNDSVEuQVJDQTpMUk5aLklRX01BUktFVENBUC4yMDI1LzgvMQEAAAC1dsMmAgAAAAkzNC4wNTQyNTQAPBx1bhfU3QgxRydvF9TdCCJDSVEuQVJDQTpBSVMuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xAQAAAJiXn3ACAAAACDIzLjE4NjY0ADwcdW4X1N0IC70nbxfU3QgnQ0lRLk5BU0RBUUdNOldJU0UuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xAQAAAOmwQ24CAAAACTMxLjcyNjE3NAA8HHVuF9TdCAciE28X1N0II0NJUS5YVFJBOlhBSVguSVFfTUFSS0VUQ0FQLjIwMjUvOC8xAQAAADXs4iICAAAACzQ4MDcuMTA3OTU2ADwcdW4X1N0IGWMfbxfU3QgiQ0lRLkJJVDpXVEFJLklRX01BUktFVENBUC4yMDI1LzgvMQEAAABNulsjAgAAAAo3NjkuMzY4MzI5ADwcdW4X1N0IByITbxfU3QgiQ0lRLkxTRTpBSUFHLklRX01BUktFVENBUC4yMDI1LzgvMQEAAADwnYIkAgAAAAo3NDguMTczNzk4ADwcdW4X1N0IEicgbxfU3QgiQ0lRLkFTWDpSQlRaLklRX01BUktFVENBUC4yMDI1LzgvMQEAAAAp7XYiAgAAAAozMDQuMjg1OTA4ADwcdW4X1N0IHMEjbxfU3QghQ0lRLkRCOlhCMFQuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xAQAAANMz3ikCAAAACDc3LjQ2NDY2ADwc</t>
-  </si>
-  <si>
-    <t>dW4X1N0InM8obxfU3QgpQ0lRLk5BU0RBUUdNOkFHSVguSVFfTUFSS0VUQ0FQLjIwMjQvMTIvMzEBAAAAI/cAcAIAAAAJMTEuMzcyMDU3ADwcdW4X1N0IuzQmbxfU3QgoQ0lRLk5BU0RBUUdNOlNNSC5JUV9NQVJLRVRDQVAuMjAyNC8xMi8zMQEAAABgwjYAAgAAAAwyMzMwNi44OTQ2MjcAPBx1bhfU3QgxRydvF9TdCCRDSVEuQkFUUzpJR1YuSVFfTUFSS0VUQ0FQLjIwMjQvMTIvMzEBAAAAzTqGAAIAAAAIOTMyMS4xNzIBBgAAAAUAAAABMQEAAAALLTE5NjQ4OTEzMTIDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAoxMi8zMS8yMDI0PBx1bhfU3QgLvSdvF9TdCClDSVEuTkFTREFRR006Qk9UWi5JUV9NQVJLRVRDQVAuMjAyNC8xMi8zMQEAAAD3/QgWAgAAAAgyNTgyLjgzOAA8HHVuF9TdCHILKG8X1N0IKENJUS5OQVNEQVFHTTpBSVEuSVFfTUFSS0VUQ0FQLjIwMjQvMTIvMzEBAAAA6dxiIQIAAAALMjYxMC45MDQ4NzcAPBx1bhfU3QhGgShvF9TdCCVDSVEuQVJDQTpBUlRZLklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAAG4faSECAAAABzcxOS4xNTgAPBx1bhfU3QiczyhvF9TdCClDSVEuTkFTREFRR006Uk9CVC5JUV9NQVJLRVRDQVAuMjAyNC8xMi8zMQEAAABcY9kgAgAAAAk0NDMuNjQ0MDkAPBx1bhfU3QiczyhvF9TdCCVDSVEuQVJDQTpJR1BULklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAAMwC</t>
-  </si>
-  <si>
-    <t>XgECAAAABjQwNy4wNwEGAAAABQAAAAExAQAAAAstMTk4Nzg1Nzk1MwMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACjEyLzMxLzIwMjQ8HHVuF9TdCBzBI28X1N0IJUNJUS5CQVRTOldUQUkuSVFfTUFSS0VUQ0FQLjIwMjQvMTIvMzEBAAAAYE5vZAIAAAAFMjAyLjQAPBx1bhfU3Qg4RSlvF9TdCCVDSVEuQVJDQTpUSE5RLklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAAK7DfiQCAAAABjE0OS40NQA8HHVuF9TdCMd3Hm8X1N0IKUNJUS5OQVNEQVFHTTpGRFRYLklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAAL2lnSYCAAAACjE2Mi4yMDIzNzkAPBx1bhfU3QjHdx5vF9TdCCVDSVEuQVJDQTpDSEFULklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAAAAwNW0CAAAACDIyNS41NjQ1ADwcdW4X1N0IGWMfbxfU3QglQ0lRLkFSQ0E6TE9VUC5JUV9NQVJLRVRDQVAuMjAyNC8xMi8zMQEAAABZXA8iAgAAAAk2Ni42Nzg1NTMAPBx1bhfU3QgSJyBvF9TdCCVDSVEuQVJDQTpMUk5aLklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAALV2wyYCAAAACTMzLjkxMTIwOAA8HHVuF9TdCBK/JW8X1N0IJENJUS5BUkNBOkFJUy5JUV9NQVJLRVRDQVAuMjAyNC8xMi8zMQEAAACYl59wAgAAAAgwLjU5NjMxOAA8HHVuF9TdCAciE28X1N0IKUNJUS5OQVNEQVFHTTpXSVNFLklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAAOmwQ24C</t>
-  </si>
-  <si>
-    <t>AAAABzIwLjcxOTgAPBx1bhfU3Qi7NCZvF9TdCCVDSVEuWFRSQTpYQUlYLklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAADXs4iICAAAACzQxMDguNTE3MDU2ADwcdW4X1N0IGIMmbxfU3QgkQ0lRLkJJVDpXVEFJLklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAAE26WyMCAAAACjc2OS4zNzE3MjYAPBx1bhfU3Qh30SZvF9TdCCRDSVEuTFNFOkFJQUcuSVFfTUFSS0VUQ0FQLjIwMjQvMTIvMzEBAAAA8J2CJAIAAAAKNTk4LjA4MTkwMwA8HHVuF9TdCMT4Jm8X1N0IJENJUS5BU1g6UkJUWi5JUV9NQVJLRVRDQVAuMjAyNC8xMi8zMQEAAAAp7XYiAgAAAAoyODcuODQwMDAxADwcdW4X1N0IRoEobxfU3QgjQ0lRLkRCOlhCMFQuSVFfTUFSS0VUQ0FQLjIwMjQvMTIvMzEBAAAA0zPeKQIAAAAFNjEuMjkAPBx1bhfU3QhGgShvF9TdCCRDSVEuTkFTREFRR006QUdJWC5JUV9WT0xVTUUuMjAyNS84LzEBAAAAI/cAcAIAAAAIMC4wMzI1NTkAPBx1bhfU3QiczyhvF9TdCCNDSVEuTkFTREFRR006U01ILklRX1ZPTFVNRS4yMDI1LzgvMQEAAABgwjYAAgAAAAkxNC4wMzIxOTYAPBx1bhfU3Qg4RSlvF9TdCB9DSVEuQkFUUzpJR1YuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAM06hgACAAAABzYuODgyNzUAPBx1bhfU3Qi7ciNvF9TdCCRDSVEuTkFTREFRR006Qk9UWi5JUV9WT0xVTUUuMjAyNS84LzEBAAAA9/0IFgIAAAAIMC44</t>
-  </si>
-  <si>
-    <t>NDY3MzEAPBx1bhfU3QiKpipvF9TdCCNDSVEuTkFTREFRR006QUlRLklRX1ZPTFVNRS4yMDI1LzgvMQEAAADp3GIhAgAAAAgxLjI4OTU0NAA8HHVuF9TdCA1YKm8X1N0IIENJUS5BUkNBOkFSVFkuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAG4faSECAAAACDAuNjU5OTk2ADwcdW4X1N0IOEUpbxfU3QgkQ0lRLk5BU0RBUUdNOlJPQlQuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAFxj2SACAAAABzAuMDYzNjIAPBx1bhfU3QiTkylvF9TdCCBDSVEuQVJDQTpJR1BULklRX1ZPTFVNRS4yMDI1LzgvMQEAAADMAl4BAgAAAAgwLjA4MTgzNAA8HHVuF9TdCHfRJm8X1N0IIENJUS5CQVRTOldUQUkuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAGBOb2QCAAAACDAuMjIyMzE1ADwcdW4X1N0Ix3cebxfU3QggQ0lRLkFSQ0E6VEhOUS5JUV9WT0xVTUUuMjAyNS84LzEBAAAArsN+JAIAAAAIMC4wMzU5NTMAPBx1bhfU3QgZYx9vF9TdCCRDSVEuTkFTREFRR006RkRUWC5JUV9WT0xVTUUuMjAyNS84LzEBAAAAvaWdJgIAAAAIMC4wNTE3NDEAPBx1bhfU3QgSJyBvF9TdCCBDSVEuQVJDQTpDSEFULklRX1ZPTFVNRS4yMDI1LzgvMQEAAAAAMDVtAgAAAAgwLjI0MDkzMgA8HHVuF9TdCMT4Jm8X1N0IIENJUS5BUkNBOkxPVVAuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAFlcDyICAAAACDAuMDE0OTY5ADwcdW4X1N0IMUcnbxfU3QggQ0lRLkFSQ0E6</t>
-  </si>
-  <si>
-    <t>TFJOWi5JUV9WT0xVTUUuMjAyNS84LzEBAAAAtXbDJgIAAAAIMC4wMDQwNTcAPBx1bhfU3QgHIhNvF9TdCB9DSVEuQVJDQTpBSVMuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAJiXn3ACAAAACDAuMDMyMDEzADwcdW4X1N0IC70nbxfU3QgkQ0lRLk5BU0RBUUdNOldJU0UuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAOmwQ24CAAAACDAuMDE3MDY2ADwcdW4X1N0IcgsobxfU3QgfQ0lRLkxTRTpSQk9ULklRX1ZPTFVNRS4yMDI1LzgvMQEAAACOeyQUAgAAAAgwLjIxMjYzNQA8HHVuF9TdCA1YKm8X1N0IIENJUS5YVFJBOlhBSVguSVFfVk9MVU1FLjIwMjUvOC8xAQAAADXs4iICAAAABzAuMTg1NjMAPBx1bhfU3Qi7ciNvF9TdCB9DSVEuQklUOldUQUkuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAE26WyMCAAAACDAuMDM1NDA3ADwcdW4X1N0IDVgqbxfU3QgfQ0lRLkxTRTpBSUFHLklRX1ZPTFVNRS4yMDI1LzgvMQEAAADwnYIkAgAAAAgwLjEzODAzOAAw4nVuF9TdCA1YKm8X1N0IH0NJUS5BU1g6UkJUWi5JUV9WT0xVTUUuMjAyNS84LzEBAAAAKe12IgIAAAAIMC4wMzI2NjkAMOJ1bhfU3QiKpipvF9TdCB5DSVEuREI6WEIwVC5JUV9WT0xVTUUuMjAyNS84LzEBAAAA0zPeKQMAAAAAADDidW4X1N0IEr8lbxfU3QgoQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMQEAAAAj9wBwAgAAAAczMS4zOTAxADDi</t>
-  </si>
-  <si>
-    <t>dW4X1N0IuzQmbxfU3QggQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4BAAAAI/cAcAIAAAAHMzIuMDIyNwAw4nVuF9TdCDDidW4X1N0IKUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAACP3AHACAAAABzMyLjQ1OTUAMOJ1bhfU3QgYgyZvF9TdCCJDSVEuTkFTREFRR006QUdJWC5JUV9WV0FQLjIwMjUvOC8xAQAAACP3AHACAAAABTMxLjQ5ADDidW4X1N0IcgsobxfU3QgvQ0lRLk5BU0RBUUdNOkFHSVguSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS84LzEBAAAAI/cAcAIAAAAIMC45MDAwMDIAMOJ1bhfU3QjHdx5vF9TdCDBDSVEuTkFTREFRR006QUdJWC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAAI/cAcAIAAAAIMC45MDAwMDIAMOJ1bhfU3QgZYx9vF9TdCDFDSVEuTkFTREFRR006QUdJWC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAACP3AHACAAAACDAuNDAwMDAyADDidW4X1N0IDVgqbxfU3QgwQ0lRLk5BU0RBUUdNOlNNSC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAAGDCNgACAAAACTk2LjI0MTg3NAAw4nVuF9TdCEeFJG8X1N0ILENJUS5CQVRTOklHVi5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAAM06hgACAAAABDkzLjEAMOJ1bhfU3QgLvSdvF9TdCDFDSVEuTkFTREFRR006Qk9UWi5J</t>
-  </si>
-  <si>
-    <t>UV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAAPf9CBYCAAAABTgwLjg0ADDidW4X1N0IcgsobxfU3QgwQ0lRLk5BU0RBUUdNOkFJUS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAAOncYiECAAAACTY3LjU3MDAwMgAw4nVuF9TdCAciE28X1N0ILUNJUS5BUkNBOkFSVFkuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAABuH2khAgAAAAQxOS40ADDidW4X1N0I61kobxfU3QgxQ0lRLk5BU0RBUUdNOlJPQlQuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAABcY9kgAgAAAAg5Ljg1MDAwMgAw4nVuF9TdCEaBKG8X1N0ILUNJUS5BUkNBOklHUFQuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAADMAl4BAgAAAAE5ADDidW4X1N0InM8obxfU3QgtQ0lRLkJBVFM6V1RBSS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAAGBOb2QCAAAAAzkuMgAw4nVuF9TdCDhFKW8X1N0ILUNJUS5BUkNBOlRITlEuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAACuw34kAgAAAAQzLjA1ADDidW4X1N0IQQkqbxfU3QgxQ0lRLk5BU0RBUUdNOkZEVFguSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAAC9pZ0mAgAAAAg0LjU4ODQ2OQAw4nVuF9TdCEEJKm8X1N0ILUNJUS5BUkNBOkNIQVQuSVFfU0hBUkVTT1VUU1RBTkRJTkcu</t>
-  </si>
-  <si>
-    <t>MjAyNC8xMi8zMQEAAAAAMDVtAgAAAAU1LjU3NQAw4nVuF9TdCBiDJm8X1N0ILUNJUS5BUkNBOkxPVVAuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAABZXA8iAgAAAAgxLjI1MDAwMQAw4nVuF9TdCBIXHW8X1N0ILUNJUS5BUkNBOkxSTlouSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAAC1dsMmAgAAAAQwLjg3ADDidW4X1N0IR4UkbxfU3QgsQ0lRLkFSQ0E6QUlTLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjQvMTIvMzEBAAAAmJefcAIAAAAFMC4wMjUAMOJ1bhfU3QjHdx5vF9TdCDFDSVEuTkFTREFRR006V0lTRS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAAOmwQ24CAAAABDAuNTQAMOJ1bhfU3QgZYx9vF9TdCC1DSVEuWFRSQTpYQUlYLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjQvMTIvMzEBAAAANeziIgIAAAAJMzAuNDM3OTY5ADDidW4X1N0IEicgbxfU3QgsQ0lRLkJJVDpXVEFJLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjQvMTIvMzEBAAAATbpbIwIAAAAIMTEuNDYyNjMAMOJ1bhfU3Qh30SZvF9TdCCxDSVEuTFNFOkFJQUcuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAADwnYIkAgAAAAkzNC41MTEzNjIAMOJ1bhfU3QjE+CZvF9TdCCxDSVEuQVNYOlJCVFouSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAAAp7XYiAgAA</t>
-  </si>
-  <si>
-    <t>AAkxOS4yNjYzOTkAMOJ1bhfU3QgxRydvF9TdCCtDSVEuREI6WEIwVC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAANMz3ikCAAAAATMAMOJ1bhfU3QiTkylvF9TdCC5DSVEuTkFTREFRR006U01ILklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvOC8xAQAAAGDCNgACAAAACTk0LjQ5MTg3NAAw4nVuF9TdCPPhKW8X1N0IKkNJUS5CQVRTOklHVi5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEAAADNOoYAAgAAAAMxMDgAMOJ1bhfU3Qjz4SlvF9TdCC9DSVEuTkFTREFRR006Qk9UWi5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEAAAD3/QgWAgAAAAU4My42NgAw4nVuF9TdCEEJKm8X1N0ILkNJUS5OQVNEQVFHTTpBSVEuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS84LzEBAAAA6dxiIQIAAAAJODkuMjUwMDAyADDidW4X1N0IByITbxfU3QgrQ0lRLkFSQ0E6QVJUWS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEAAABuH2khAgAAAAUyOC4xNQAw4nVuF9TdCBK/JW8X1N0IL0NJUS5OQVNEQVFHTTpST0JULklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvOC8xAQAAAFxj2SACAAAACTEwLjMwMDAwMgAw4nVuF9TdCLs0Jm8X1N0IK0NJUS5BUkNBOklHUFQuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS84LzEBAAAAzAJeAQIAAAADOS45ADDidW4X1N0IaSQjbxfU3QgrQ0lR</t>
-  </si>
-  <si>
-    <t>LkJBVFM6V1RBSS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEAAABgTm9kAgAAAAM4LjYAMOJ1bhfU3Qi7ciNvF9TdCCtDSVEuQVJDQTpUSE5RLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvOC8xAQAAAK7DfiQCAAAABTMuNzI1ADDidW4X1N0IcgsobxfU3QgvQ0lRLk5BU0RBUUdNOkZEVFguSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS84LzEBAAAAvaWdJgIAAAAINC42ODg0NjkAMOJ1bhfU3QjrWShvF9TdCCtDSVEuQVJDQTpDSEFULklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvOC8xAQAAAAAwNW0CAAAABTcuNTI1ADDidW4X1N0IEhcdbxfU3QgrQ0lRLkFSQ0E6TE9VUC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEAAABZXA8iAgAAAAgxLjYwMDAwMQAw4nVuF9TdCEaBKG8X1N0IK0NJUS5BUkNBOkxSTlouSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS84LzEBAAAAtXbDJgIAAAAEMC43OAAw4nVuF9TdCMd3Hm8X1N0IKkNJUS5BUkNBOkFJUy5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEAAACYl59wAgAAAAMwLjgAMOJ1bhfU3QgZYx9vF9TdCC9DSVEuTkFTREFRR006V0lTRS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEAAADpsENuAgAAAAQwLjg2ADDidW4X1N0IEicgbxfU3QgrQ0lRLlhUUkE6WEFJWC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEA</t>
-  </si>
-  <si>
-    <t>AAA17OIiAgAAAAkzNC44OTk4NjkAMOJ1bhfU3QiczyhvF9TdCCpDSVEuQklUOldUQUkuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS84LzEBAAAATbpbIwIAAAAIMTIuMDY2NjMAMOJ1bhfU3Qg4RSlvF9TdCCpDSVEuTFNFOkFJQUcuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS84LzEBAAAA8J2CJAIAAAAJNDEuNDEzMzYyADDidW4X1N0Id9EmbxfU3QgqQ0lRLkFTWDpSQlRaLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvOC8xAQAAACntdiICAAAACTIwLjY3MTU5NwAw4nVuF9TdCMT4Jm8X1N0IKUNJUS5EQjpYQjBULklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvOC8xAQAAANMz3ikCAAAABDQuMDMAMOJ1bhfU3QgxRydvF9TdCDFDSVEuTkFTREFRR006QUdJWC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDIzLzEyLzI5AQAAACP3AHADAAAAAAAw4nVuF9TdCA1YKm8X1N0IMENJUS5OQVNEQVFHTTpTTUguSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAABgwjYAAgAAAAk2OC40NDE4NzQAMOJ1bhfU3QgHIhNvF9TdCCxDSVEuQkFUUzpJR1YuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAADNOoYAAgAAAAU5Mi4yNQAw4nVuF9TdCMaVJ28X1N0IMUNJUS5OQVNEQVFHTTpCT1RaLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjMvMTIvMjkBAAAA9/0IFgIAAAAFODcuMDYAMOJ1bhfU</t>
-  </si>
-  <si>
-    <t>3Qi7+hJvF9TdCDBDSVEuTkFTREFRR006QUlRLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjMvMTIvMjkBAAAA6dxiIQIAAAAJMjguODYwMDAyADDidW4X1N0IC70nbxfU3QgtQ0lRLkFSQ0E6QVJUWS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDIzLzEyLzI5AQAAAG4faSECAAAABDE3LjQAMOJ1bhfU3QjrWShvF9TdCDFDSVEuTkFTREFRR006Uk9CVC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDIzLzEyLzI5AQAAAFxj2SACAAAACTEwLjgwMDAwMgAw4nVuF9TdCBIXHW8X1N0ILUNJUS5BUkNBOklHUFQuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAADMAl4BAgAAAAQ0Ljc2ADDidW4X1N0IRoEobxfU3QgtQ0lRLkJBVFM6V1RBSS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDIzLzEyLzI5AQAAAGBOb2QCAAAABDkuNTUAMOJ1bhfU3QjHdx5vF9TdCC1DSVEuQVJDQTpUSE5RLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjMvMTIvMjkBAAAArsN+JAIAAAADMy4xADDidW4X1N0IGWMfbxfU3QgxQ0lRLk5BU0RBUUdNOkZEVFguSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAAC9pZ0mAgAAAAgzLjc4ODQ2OQAw4nVuF9TdCBInIG8X1N0ILUNJUS5BUkNBOkNIQVQuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAAAAMDVtAgAAAAUyLjA3NQAw4nVuF9TdCBInIG8X1N0ILUNJUS5B</t>
-  </si>
-  <si>
-    <t>UkNBOkxPVVAuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAABZXA8iAgAAAAgxLjA1MDAwMQAw4nVuF9TdCA1YKm8X1N0ILUNJUS5BUkNBOkxSTlouSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAAC1dsMmAgAAAAQwLjk2ADDidW4X1N0IiqYqbxfU3QgsQ0lRLkFSQ0E6QUlTLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjMvMTIvMjkBAAAAmJefcAMAAAAAADDidW4X1N0IEr8lbxfU3QgxQ0lRLk5BU0RBUUdNOldJU0UuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAADpsENuAgAAAAQwLjA2ADDidW4X1N0IuzQmbxfU3QgtQ0lRLlhUUkE6WEFJWC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDIzLzEyLzI5AQAAADXs4iICAAAACTE1LjgwNTk2OQAw4nVuF9TdCBiDJm8X1N0ILENJUS5CSVQ6V1RBSS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDIzLzEyLzI5AQAAAE26WyMCAAAACDExLjc5ODYzADDidW4X1N0IGIMmbxfU3QgsQ0lRLkxTRTpBSUFHLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjMvMTIvMjkBAAAA8J2CJAIAAAAJMjkuODY2NTMzADDidW4X1N0IxPgmbxfU3QgsQ0lRLkFTWDpSQlRaLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjMvMTIvMjkBAAAAKe12IgIAAAAJMTYuNzQxNjY1ADDidW4X1N0IMUcnbxfU3QgrQ0lRLkRCOlhCMFQuSVFfU0hBUkVTT1VUU1RB</t>
-  </si>
-  <si>
-    <t>TkRJTkcuMjAyMy8xMi8yOQEAAADTM94pAgAAAAQxLjg3ADDidW4X1N0IDVgqbxfU3QgnQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAGDCNgACAAAABjI4My45NQAw4nVuF9TdCGkkI28X1N0IKUNJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5AQAAAGDCNgACAAAABjE3NC44NwAw4nVuF9TdCLtyI28X1N0IJkNJUS5OQVNEQVFHTTpRUVEuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xAQAAAA66ewACAAAACjM1NDAxMi40MDIBBgAAAAUAAAABMQEAAAALLTE5NjM3MTQ2MzYDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNTDidW4X1N0IMUcnbxfU3QgoQ0lRLk5BU0RBUUdNOlFRUS5JUV9NQVJLRVRDQVAuMjAyNC8xMi8zMQEAAAAOunsAAgAAAAszMTU1MDUuNTk0NQEGAAAABQAAAAExAQAAAAstMTk2MzcxNDYzNgMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACjEyLzMxLzIwMjQw4nVuF9TdCGspHm8X1N0II0NJUS5OQVNEQVFHTTpRUVEuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAA66ewACAAAACTY5LjQwMDc4OQAw4nVuF9TdCMk7H28X1N0IKENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEBAAAADrp7AAIAAAAGNTY1LjAxADDidW4X1N0IEicgbxfU3QgnQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIw</t>
-  </si>
-  <si>
-    <t>MjUvOC8xAQAAAA66ewACAAAABjU1My44OAAw4nVuF9TdCA1YKm8X1N0IIUNJUS5OQVNEQVFHTTpRUVEuSVFfVldBUC4yMDI1LzgvMQEAAAAOunsAAgAAAAY1NTUuMjcAMOJ1bhfU3QgSvyVvF9TdCC9DSVEuTkFTREFRR006UVFRLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvNy8zMQEAAAAOunsAAgAAAAY2MzkuMTUAMOJ1bhfU3QhuDSZvF9TdCC5DSVEuTkFTREFRR006UVFRLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvOC8xAQAAAA66ewACAAAABjYzOS4xNQAw4nVuF9TdCLs0Jm8X1N0IMENJUS5OQVNEQVFHTTpRUVEuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAAAOunsAAgAAAAY2MTcuMTUAMOJ1bhfU3Qi7ciNvF9TdCDBDSVEuTkFTREFRR006UVFRLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjMvMTIvMjkBAAAADrp7AAIAAAAGNTYwLjM1ADDidW4X1N0InM8obxfU3QgpQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAADrp7AAIAAAAGNDA5LjUyADDidW4X1N0I8h0pbxfU3QgpQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAADrp7AAIAAAAGNTExLjIzADDidW4X1N0IQQkqbxfU3QgoQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAABgwjYAAgAAAAYyODguNzgAMOJ1bhfU3QgSFx1vF9Td</t>
-  </si>
-  <si>
-    <t>CCFDSVEuTkFTREFRR006U01ILklRX1ZXQVAuMjAyNS84LzEBAAAAYMI2AAIAAAAGMjgzLjI1ADDidW4X1N0IQQkqbxfU3QgvQ0lRLk5BU0RBUUdNOlNNSC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAAYMI2AAIAAAAJOTQuNDkxODc0ADDidW4X1N0Iu/oSbxfU3QgpQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAAYMI2AAIAAAAGMjQyLjE3ADDidW4X1N0IaykebxfU3QgkQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAAM06hgACAAAABjExMS42NgAw4nVuF9TdCMk7H28X1N0II0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAM06hgACAAAABjEwOC42MwAw4nVuF9TdCJOsJG8X1N0IK0NJUS5CQVRTOklHVi5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAAzTqGAAIAAAADMTA4ADDidW4X1N0Iu3IjbxfU3QglQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyMy8xMi8yOQEAAADNOoYAAgAAAAY4MS4xMjgAMOJ1bhfU3QjgNiRvF9TdCCVDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxAQAAAM06hgACAAAABjEwMC4xMgAw4nVuF9TdCEeFJG8X1N0IKUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAAPf9CBYCAAAABTMzLjQ3ADDidW4X1N0I61kobxfU</t>
-  </si>
-  <si>
-    <t>3QgoQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzgvMQEAAAD3/QgWAgAAAAUzMy4xMgAw4nVuF9TdCLs0Jm8X1N0IIkNJUS5OQVNEQVFHTTpCT1RaLklRX1ZXQVAuMjAyNS84LzEBAAAA9/0IFgIAAAAFMzMuMDIAMOJ1bhfU3QgYgyZvF9TdCDBDSVEuTkFTREFRR006Qk9UWi5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAA9/0IFgIAAAAFODMuNjYAMOJ1bhfU3QjE+CZvF9TdCCpDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAA9/0IFgIAAAAEMjguNQAw4nVuF9TdCDFHJ28X1N0IKkNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMQEAAAD3/QgWAgAAAAUzMS45NQAw4nVuF9TdCMaVJ28X1N0IKENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEBAAAA6dxiIQIAAAAFNDQuNTcAMOJ1bhfU3QgLvSdvF9TdCCdDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEBAAAA6dxiIQIAAAAFNDMuNDcAMOJ1bhfU3QjJOx9vF9TdCCFDSVEuTkFTREFRR006QUlRLklRX1ZXQVAuMjAyNS84LzEBAAAA6dxiIQIAAAAENDMuNQAw4nVuF9TdCGkkI28X1N0IL0NJUS5OQVNEQVFHTTpBSVEuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS83LzMxAQAAAOncYiECAAAACTg5LjI1MDAwMgAw4nVu</t>
-  </si>
-  <si>
-    <t>F9TdCJOTKW8X1N0IKUNJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5AQAAAOncYiECAAAABTMxLjE4ADDidW4X1N0IaykebxfU3QgpQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAA6dxiIQIAAAAFMzguNjQAMOJ1bhfU3Qi7+hJvF9TdCCVDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAAG4faSECAAAABTQzLjQ1ADDidW4X1N0IEicgbxfU3QgkQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAG4faSECAAAABTQyLjI2ADDidW4X1N0I8+EpbxfU3QgeQ0lRLkFSQ0E6QVJUWS5JUV9WV0FQLjIwMjUvOC8xAQAAAG4faSECAAAABTQyLjIzADDidW4X1N0IQQkqbxfU3QgsQ0lRLkFSQ0E6QVJUWS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAAbh9pIQIAAAAFMjguMTUAMOJ1bhfU3QgSvyVvF9TdCCZDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyMy8xMi8yOQEAAABuH2khAgAAAAQzNC41ADDidW4X1N0Ibg0mbxfU3QgmQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAAbh9pIQIAAAAFMzcuMDcAMOJ1bhfU3QiTkylvF9TdCClDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAABcY9kgAgAAAAc0OS45NjU1ADDidW4X1N0IaSQjbxfU</t>
-  </si>
-  <si>
-    <t>3QgoQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMQEAAABcY9kgAgAAAAc0OS4wMjMyADDidW4X1N0Iu3IjbxfU3QgiQ0lRLk5BU0RBUUdNOlJPQlQuSVFfVldBUC4yMDI1LzgvMQEAAABcY9kgAgAAAAU0OC45OQAw4nVuF9TdCOA2JG8X1N0IMENJUS5OQVNEQVFHTTpST0JULklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvNy8zMQEAAABcY9kgAgAAAAkxMC4zMDAwMDIAMOJ1bhfU3QhHhSRvF9TdCCpDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAAXGPZIAIAAAAFNDUuNTMAMOJ1bhfU3QjbjhtvF9TdCCpDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAAXGPZIAIAAAAFNDUuMDQAMOJ1bhfU3QiTrCRvF9TdCCVDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAAMwCXgECAAAABTUwLjY3ADDidW4X1N0IEhcdbxfU3QgkQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAMwCXgECAAAABjQ5LjU3OAAw4nVuF9TdCEaBKG8X1N0IHkNJUS5BUkNBOklHUFQuSVFfVldBUC4yMDI1LzgvMQEAAADMAl4BAgAAAAU0OS41MwAw4nVuF9TdCGspHm8X1N0ILENJUS5BUkNBOklHUFQuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS83LzMxAQAAAMwCXgECAAAAAzkuOQAw4nVuF9TdCMk7H28X</t>
-  </si>
-  <si>
-    <t>1N0IJkNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5AQAAAMwCXgECAAAABTM4LjYxADDidW4X1N0Iu/oSbxfU3QgmQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAAzAJeAQIAAAAFNDUuMjMAMOJ1bhfU3QgSJyBvF9TdCCVDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAAGBOb2QCAAAABTI1LjQ2ADDidW4X1N0InM8obxfU3QgkQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAGBOb2QCAAAABTI0LjY2APIRdm4X1N0I8h0pbxfU3QgeQ0lRLkJBVFM6V1RBSS5JUV9WV0FQLjIwMjUvOC8xAQAAAGBOb2QCAAAABTI0LjY2APIRdm4X1N0Ik6wkbxfU3QgsQ0lRLkJBVFM6V1RBSS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAAYE5vZAIAAAADOC42APIRdm4X1N0IuzQmbxfU3QgmQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAAYE5vZAIAAAAFMjAuNjkA8hF2bhfU3QiAYCJvF9TdCCZDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMQEAAABgTm9kAgAAAAIyMgDyEXZuF9TdCBiDJm8X1N0IJUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEBAAAArsN+JAIAAAAFNTYuMTIA8hF2bhfU3QgxRydvF9TdCCRDSVEuQVJDQTpUSE5RLklRX0NMT1NF</t>
-  </si>
-  <si>
-    <t>UFJJQ0UuMjAyNS84LzEBAAAArsN+JAIAAAAFNTQuNDMA8hF2bhfU3QjGlSdvF9TdCB5DSVEuQVJDQTpUSE5RLklRX1ZXQVAuMjAyNS84LzEBAAAArsN+JAIAAAAFNTQuNTIA8hF2bhfU3QjbjhtvF9TdCCxDSVEuQVJDQTpUSE5RLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvNy8zMQEAAACuw34kAgAAAAUzLjcyNQDyEXZuF9TdCAu9J28X1N0IJkNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5AQAAAK7DfiQCAAAABzQxLjI0MDUA8hF2bhfU3QhpJCNvF9TdCCZDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMQEAAACuw34kAgAAAAI0OQDyEXZuF9TdCBIXHW8X1N0IKUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAAL2lnSYCAAAABzM5LjY0NjUA8hF2bhfU3QhrKR5vF9TdCChDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAL2lnSYCAAAABzM4LjQ1OTgA8hF2bhfU3QjyHSlvF9TdCCJDSVEuTkFTREFRR006RkRUWC5JUV9WV0FQLjIwMjUvOC8xAQAAAL2lnSYCAAAABTM4LjU4APIRdm4X1N0IEicgbxfU3QgwQ0lRLk5BU0RBUUdNOkZEVFguSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS83LzMxAQAAAL2lnSYCAAAACDQuNjg4NDY5APIRdm4X1N0IWqwSbxfU3QgpQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xP</t>
-  </si>
-  <si>
-    <t>U0VQUklDRS4yMDIzLzYvMTIBAAAAvaWdJgIAAAAHMjUuNTE3MQDyEXZuF9TdCHPoI28X1N0IKkNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMQEAAAC9pZ0mAgAAAAUzNS4zNQDyEXZuF9TdCEeFJG8X1N0IJUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEBAAAAADA1bQIAAAAFNTEuNTQA8hF2bhfU3QgNWCpvF9TdCCRDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEBAAAAADA1bQIAAAAFNDkuOTEA8hF2bhfU3QgNWCpvF9TdCB5DSVEuQVJDQTpDSEFULklRX1ZXQVAuMjAyNS84LzEBAAAAADA1bQIAAAAFNDkuOTkA8hF2bhfU3QiAYCJvF9TdCCxDSVEuQVJDQTpDSEFULklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvNy8zMQEAAAAAMDVtAgAAAAU3LjUyNQDyEXZuF9TdCDhFKW8X1N0IJUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDIzLzUvMTgBAAAAADA1bQIAAAAHMjUuOTA3OADyEXZuF9TdCJOTKW8X1N0IJkNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxAQAAAAAwNW0CAAAABTQwLjQ2APIRdm4X1N0IEr8lbxfU3QglQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAABZXA8iAgAAAAU2NC4yNQDyEXZuF9TdCNuOG28X1N0IJENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1Lzgv</t>
-  </si>
-  <si>
-    <t>MQEAAABZXA8iAgAAAAU2Mi4wNwDyEXZuF9TdCMk7H28X1N0IHkNJUS5BUkNBOkxPVVAuSVFfVldBUC4yMDI1LzgvMQEAAABZXA8iAgAAAAU2Mi4wNQDyEXZuF9TdCOtZKG8X1N0ILENJUS5BUkNBOkxPVVAuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS83LzMxAQAAAFlcDyICAAAACDEuNjAwMDAxAPIRdm4X1N0IEhcdbxfU3QgmQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAAWVwPIgIAAAAHNDMuNzk2OQDyEXZuF9TdCEaBKG8X1N0IJkNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxAQAAAFlcDyICAAAABzUzLjM0MjgA8hF2bhfU3QhrKR5vF9TdCCVDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAALV2wyYCAAAABzQ0LjQyMzIA8hF2bhfU3QgSJyBvF9TdCCRDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEBAAAAtXbDJgIAAAAHNDMuNjU5MwDyEXZuF9TdCJzPKG8X1N0IHkNJUS5BUkNBOkxSTlouSVFfVldBUC4yMDI1LzgvMQEAAAC1dsMmAgAAAAU0My4yOADyEXZuF9TdCFqsEm8X1N0ILENJUS5BUkNBOkxSTlouSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS83LzMxAQAAALV2wyYCAAAABDAuNzgA8hF2bhfU3QjGlSdvF9TdCCZDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyMy8xMi8yOQEAAAC1dsMmAgAA</t>
-  </si>
-  <si>
-    <t>AAczOC4yMTA2APIRdm4X1N0IWqwSbxfU3QgmQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAAtXbDJgIAAAAHMzguOTc4NADyEXZuF9TdCGkkI28X1N0IJENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAACYl59wAgAAAAUyOS42NwDyEXZuF9TdCIBgIm8X1N0II0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAJiXn3ACAAAABzI4Ljk4MzMA8hF2bhfU3Qhz6CNvF9TdCB1DSVEuQVJDQTpBSVMuSVFfVldBUC4yMDI1LzgvMQEAAACYl59wAgAAAAUyOC44NwDyEXZuF9TdCEeFJG8X1N0IK0NJUS5BUkNBOkFJUy5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAAmJefcAIAAAADMC44APIRdm4X1N0Ik6wkbxfU3QglQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyMy8xMi8yOQEAAACYl59wAwAAAAAA8hF2bhfU3QgLvSdvF9TdCCVDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxAQAAAJiXn3ACAAAABzIzLjg1MjcA8hF2bhfU3Qi7NCZvF9TdCClDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAADpsENuAgAAAAczNy44MzYzAPIRdm4X1N0IGIMmbxfU3QgoQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMQEAAADpsENuAgAAAAczNi44OTA5APIRdm4X1N0I</t>
-  </si>
-  <si>
-    <t>MUcnbxfU3QgiQ0lRLk5BU0RBUUdNOldJU0UuSVFfVldBUC4yMDI1LzgvMQEAAADpsENuAgAAAAUzNi44OQDyEXZuF9TdCMT4Jm8X1N0IMENJUS5OQVNEQVFHTTpXSVNFLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvNy8zMQEAAADpsENuAgAAAAQwLjg2APIRdm4X1N0IaykebxfU3QgpQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzgBAAAA6bBDbgIAAAAHMjUuNDAyOQDyEXZuF9TdCMk7H28X1N0IKkNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMQEAAADpsENuAgAAAAUzOC4zNwDyEXZuF9TdCBInIG8X1N0IJENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAACOeyQUAgAAAAUxNS4zMgDyEXZuF9TdCJOsJG8X1N0II0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAI57JBQCAAAABTE0Ljg4APIRdm4X1N0IDVgqbxfU3QgdQ0lRLkxTRTpSQk9ULklRX1ZXQVAuMjAyNS84LzEBAAAAjnskFAIAAAAJMTQuOTkyMzczAPIRdm4X1N0IDVgqbxfU3QglQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyMy8xMi8yOQEAAACOeyQUAgAAAAUxMy4xNQDyEXZuF9TdCFqsEm8X1N0IJUNJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAAjnskFAIAAAAGMTMuODc1APIRdm4X1N0IDVgqbxfU3QglQ0lR</t>
-  </si>
-  <si>
-    <t>LlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAAA17OIiAgAAAAYxNDMuNzYA8hF2bhfU3QgNWCpvF9TdCCRDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEBAAAANeziIgIAAAAGMTM3Ljc0APIRdm4X1N0Ibg0mbxfU3QgsQ0lRLlhUUkE6WEFJWC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAANeziIgIAAAAJMzQuODk5ODY5APIRdm4X1N0Iu3IjbxfU3QgmQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAANeziIgIAAAAGMTAwLjI2APIRdm4X1N0I244bbxfU3QgmQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzABAAAANeziIgIAAAAGMTM0Ljk4APIRdm4X1N0Ic+gjbxfU3QgkQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAAE26WyMCAAAABDY2LjkA8hF2bhfU3QjgNiRvF9TdCCNDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMQEAAABNulsjAgAAAAU2My43NgDyEXZuF9TdCAu9J28X1N0IHUNJUS5CSVQ6V1RBSS5JUV9WV0FQLjIwMjUvOC8xAQAAAE26WyMCAAAACTY0LjI5MTczNADyEXZuF9TdCGspHm8X1N0IK0NJUS5CSVQ6V1RBSS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAATbpbIwIAAAAIMTIuMDY2NjMA8hF2bhfU3QjJOx9vF9TdCCVDSVEuQklUOldU</t>
-  </si>
-  <si>
-    <t>QUkuSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5AQAAAE26WyMCAAAABTU1Ljk0APIRdm4X1N0Ixf8fbxfU3QglQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMAEAAABNulsjAgAAAAU2Ny4xMgDyEXZuF9TdCMaVJ28X1N0IJENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAADwnYIkAgAAAAYxOC44NzMA8hF2bhfU3QjrWShvF9TdCCNDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMQEAAADwnYIkAgAAAAYxOC4wNjYA8hF2bhfU3QhGgShvF9TdCB1DSVEuTFNFOkFJQUcuSVFfVldBUC4yMDI1LzgvMQEAAADwnYIkAgAAAAkxOC4zMTIzODcA8hF2bhfU3QiAYCJvF9TdCCtDSVEuTFNFOkFJQUcuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS83LzMxAQAAAPCdgiQCAAAACTQxLjQxMzM2MgDyEXZuF9TdCFqsEm8X1N0IJUNJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAA8J2CJAIAAAAGMTQuMzczAPIRdm4X1N0InM8obxfU3QglQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMQEAAADwnYIkAgAAAAUxNy4zMwDyEXZuF9TdCPIdKW8X1N0IJENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAAAp7XYiAgAAAAUxNC45MwDyEXZuF9TdCMT4Jm8X1N0II0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIw</t>
-  </si>
-  <si>
-    <t>MjUvOC8xAQAAACntdiICAAAABTE0LjcyAPIRdm4X1N0IyTsfbxfU3QgdQ0lRLkFTWDpSQlRaLklRX1ZXQVAuMjAyNS84LzEBAAAAKe12IgIAAAAIMTQuNzg4MTIA8hF2bhfU3QjnUhxvF9TdCCtDSVEuQVNYOlJCVFouSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS83LzMxAQAAACntdiICAAAACTIwLjY3MTU5NwDyEXZuF9TdCBIXHW8X1N0IJUNJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAAKe12IgIAAAAFMTIuNjUA8hF2bhfU3QgxRydvF9TdCCVDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxAQAAACntdiICAAAABTE0Ljk0APIRdm4X1N0IaykebxfU3QgjQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEBAAAA0zPeKQIAAAAGMTkuNTE4APIRdm4X1N0IrcwYbxfU3QgiQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMQEAAADTM94pAgAAAAYxOS4yMjIA8hF2bhfU3QgYgyZvF9TdCCpDSVEuREI6WEIwVC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAA0zPeKQIAAAAENC4wMQDyEXZuF9TdCG4NJm8X1N0IJENJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyMy8xMi8yOQEAAADTM94pAgAAAAUxNy4wMgDyEXZuF9TdCLs0Jm8X1N0IJENJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMAEAAADTM94pAgAAAAUy</t>
-  </si>
-  <si>
-    <t>MC40MwDyEXZuF9TdCFqsEm8X1N0II0NJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAABfbPAECAAAABjc1MC4wMQC7wnZuF9TdCGRJJW8X1N0IJENJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAX2zwBAgAAAAY3NzMuNDQAu8J2bhfU3QhkSSVvF9TdCCJDSVEuTUVUQS5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAABfbPAECAAAADjE4ODQxMzEuMjI3NjY1AQYAAAAFAAAAATEBAAAACy0xOTM0MDY1NDM3AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXyEXZuF9TdCJOsJG8X1N0IJENJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAAX2zwBAgAAAAY3MTIuNjgAaEyBugjU3QjZ9bS7CNTdCCFDSVEuQ1JNLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAJeABAAIAAAAJMjM5NzA3LjQ0AQYAAAAFAAAAATEBAAAACy0xOTQwMzYwMzIwAwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXyEXZuF9TdCJMKFm8X1N0IIUNJUS5OT1cuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAAC/dF4BAgAAAAwxODk3NDkuMTQ4MDMBBgAAAAUAAAABMQEAAAALLTE5MzQ5MzI3MzEDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNfIRdm4X1N0IaSQjbxfU3QgiQ0lRLkRVT0wuSVFfTUFSS0VUQ0FQ</t>
-  </si>
-  <si>
-    <t>LjIwMjUvOC8xLlVTRAEAAACw8IcMAgAAAAwxNTQwOC41MzQ1MTMBBgAAAAUAAAABMQEAAAALLTE5NDY4MjY3NDADAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNfIRdm4X1N0IaykebxfU3QghQ0lRLlNBUC5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAAvuAQACAAAAEDMyODk2OC4yMzY4MzE1MzgBBgAAAAUAAAABMQEAAAALLTE5MzUwNTc1NjUDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNfIRdm4X1N0IcO0ebxfU3QghQ0lRLlRFTS5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAADTJBkCAAAACzk1MDIuMzUwNjg4AQYAAAAFAAAAATEBAAAACy0xOTQ1ODY3ODg3AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXyEXZuF9TdCMX/H28X1N0IIkNJUS5BREJFLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAAV8AAAIAAAAJMTQ3NTM2Ljc2AQYAAAAFAAAAATEBAAAACy0xOTM3MjM4MzkzAwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXyEXZuF9TdCLtyI28X1N0IIUNJUS5JT1QuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAAC6PvwRAgAAAAsyMDUwMS43ODc1NgEGAAAABQAAAAExAQAAAAstMTkzODczODMwNAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QitzBhvF9TdCCJD</t>
-  </si>
-  <si>
-    <t>SVEuV0RBWS5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAIdjawECAAAADDU5Mjk4LjcyNDc4NQEGAAAABQAAAAExAQAAAAstMTk0MTM2NTQxMwMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QiAYCJvF9TdCCJDSVEuUkJMWC5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAGlV9AECAAAADDg2Njc2LjYyODUyNAEGAAAABQAAAAExAQAAAAstMTkzNDEyNTQ1NQMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QhBCSpvF9TdCCFDSVEuQVBQLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAA2rnODQIAAAANMTI4MzA2LjE0NTcwNgEGAAAABQAAAAExAQAAAAstMTk0NTQ1MDU2MQMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QhBCSpvF9TdCCJDSVEuU0hPUC5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAAYrBAUCAAAADTE1Mzg2OS4zNzEzMDEBBgAAAAUAAAABMQEAAAALLTE5NDU0MTkyNjgDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNfIRdm4X1N0IQQkqbxfU3QgiQ0lRLlRFQU0uSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAABSEyIPAgAAAAw0ODAyOC4wNjc5MzgBBgAAAAUAAAABMQEAAAALLTE5NDY2NTQ0MzIDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4</t>
-  </si>
-  <si>
-    <t>LzEvMjAyNfIRdm4X1N0IEr8lbxfU3QgiQ0lRLk1TRlQuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAABLVQAAAgAAAA4zODk1Nzk2LjgzMDg5OAEGAAAABQAAAAExAQAAAAstMTkzNDI0Nzc5MwMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QjbjhtvF9TdCCJDSVEuQU1aTi5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAD1JAAACAAAADjIyOTAyODkuODcyODMxAQYAAAAFAAAAATEBAAAACy0xOTMzNzAzMjgwAwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXyEXZuF9TdCFqsEm8X1N0ILENJUS5OQVNEQVFHUzpHT09HTC5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAKhxAAACAAAACjIyOTE3OTAuODIBBgAAAAUAAAABMQEAAAALLTE5MzQ5Mjg1NTEDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNfIRdm4X1N0I51IcbxfU3QgiQ0lRLlRTTEEuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAAAQxqIBAgAAAA05NzYxMTcuNTk3Mjc4AQYAAAAFAAAAATEBAAAACy0xOTM0ODQxOTc4AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXyEXZuF9TdCHDtHm8X1N0IIkNJUS5QTFRSLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAZfqYAgIAAAANMzY0MDYzLjY4NTQ4NQEGAAAABQAAAAExAQAAAAstMTk0</t>
-  </si>
-  <si>
-    <t>NTk1NzU1NQMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QiTChZvF9TdCCJDSVEuT1JDTC5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAOdWAAACAAAADDY4NjUzNC45NjE4NgEGAAAABQAAAAExAQAAAAstMTkzNzg4ODc0MAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QjF/x9vF9TdCCJDSVEuTkJJUy5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAL/7GQMCAAAADDEyNDEyLjg0NDEzMgEGAAAABQAAAAExAQAAAAstMTk0MjI5OTY4NAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3Qi6cCVvF9TdCCJDSVEuRVNUQy5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAICEWw0CAAAACzg0MDMuMTExNTUxAQYAAAAFAAAAATEBAAAACy0xOTM4ODAwODM0AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXyEXZuF9TdCJzPKG8X1N0IIkNJUS5TTk9XLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAsDxkEAIAAAAMNjg0MDYuNTYxNzI1AQYAAAAFAAAAATEBAAAACy0xOTM5MjA3ODEwAwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXyEXZuF9TdCPIdKW8X1N0IIkNJUS5ERE9HLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAu6EECAIAAAAMNDY4MjkuODk4</t>
-  </si>
-  <si>
-    <t>MTI0AQYAAAAFAAAAATEBAAAACy0xOTQ1MjQ3ODcyAwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXyEXZuF9TdCEEJKm8X1N0IIUNJUS5ORVQuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAAA09eAEAgAAAAw2OTczNC42NTAzNzUBBgAAAAUAAAABMQEAAAALLTE5MzQwMTg1NzADAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNfIRdm4X1N0IrcwYbxfU3QgiQ0lRLkdUTEIuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAADNhBcRAgAAAAg2OTA4LjY2NAEGAAAABQAAAAExAQAAAAstMTkzODY3MzgxOAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QgLvSdvF9TdCCJDSVEuUEFOVy5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAIN9hAECAAAADTExNTQ3Mi43MzEwNzcBBgAAAAUAAAABMQEAAAALLTE5NDIxMDI4NDMDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNfIRdm4X1N0IcgsobxfU3QghQ0lRLk1EQi5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAOJuzAICAAAADDE4MDU2LjQxMTc0NAEGAAAABQAAAAExAQAAAAstMTkzOTM3MDIxNgMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QjbjhtvF9TdCCJDSVEuUFNURy5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAA</t>
-  </si>
-  <si>
-    <t>ALjKpQYCAAAADDE3ODE1LjU5NDc2OAEGAAAABQAAAAExAQAAAAstMTkzODYxNDkwMgMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QjnUhxvF9TdCCBDSVEuWlMuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAADUzIEDAgAAAAw0MzYzNi44MjU5OTEBBgAAAAUAAAABMQEAAAALLTE5Mzk1MzgzOTIDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNfIRdm4X1N0Ive8cbxfU3QgiQ0lRLkNGTFQuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAAAmAXoQAgAAAAs1OTI5LjU5ODg5OAEGAAAABQAAAAExAQAAAAstMTkzNDE3MDU1NQMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QhGgShvF9TdCCJDSVEuTlZEQS5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAADN+AAACAAAABzQyMzg3NjgBBgAAAAUAAAABMQEAAAALLTE5NDA1NzIyNDkDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNfIRdm4X1N0IWqwSbxfU3QgiQ0lRLkFBUEwuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAABpYQAAAgAAAAwzMDAzMzk4LjEyODIBBgAAAAUAAAABMQEAAAALLTE5MzM3MDMzMDMDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNfIRdm4X1N0IaykebxfU3QgiQ0lRLkFWR08uSVFfTUFSS0VUQ0FQ</t>
-  </si>
-  <si>
-    <t>LjIwMjUvOC8xLlVTRAEAAADwtn0BAgAAAA4xMzU3NjA5Ljg2MzM3OQEGAAAABQAAAAExAQAAAAstMTkzODU1NzI2MAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QhpJCNvF9TdCCdDSVEuVFdTRToyMzMwLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAq8wFAAIAAAAQOTk0MTU0LjgxMjg0OTI1MQEGAAAABQAAAAExAQAAAAstMTkzNTQ5NzM0MQMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QiTChZvF9TdCCpDSVEuS09TRTpBMDAwNjYwLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAnXoNAAIAAAAQMTI4MTgxLjkzOTM3NTA2OQEGAAAABQAAAAExAQAAAAstMTkzNDc1NTMzMAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3Qi7ciNvF9TdCCtDSVEuTkFTREFRR1M6QVNNTC5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAACjvBQACAAAAEDI2NjA3NS45NjkwMzk1MjEBBgAAAAUAAAABMQEAAAALLTE5MzUzMDc0NDADAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNfIRdm4X1N0Ic+gjbxfU3QgiQ0lRLk1SVkwuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAAC2eQAAAgAAAAg2NDE5MC43OQEGAAAABQAAAAExAQAAAAstMTk0MDAwMjkzMQMAAAADMTYwAgAAAAYxMDAwNTQE</t>
-  </si>
-  <si>
-    <t>AAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QiAYCJvF9TdCCFDSVEuVlJULklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAARJuHIgIAAAAMNTQwNjguNTAwOTU2AQYAAAAFAAAAATEBAAAACy0xOTM0MTk1NDM1AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXyEXZuF9TdCOA2JG8X1N0IIkNJUS5BTkVULklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAw9v8AQIAAAANMTQ3NjU4LjY4MjY0MwEGAAAABQAAAAExAQAAAAstMTk0NTc1ODg5MAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QiTrCRvF9TdCCdDSVEuVFdTRToyNDU0LklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAPTdcAAIAAAAQNzIzNTguMjE2NTcxNDYyOQEGAAAABQAAAAExAQAAAAstMTkzNDM1NTQ5MQMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QitzBhvF9TdCCBDSVEuTVUuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAAAGaQQAAgAAAA0xMTczNzMuODQwNTkzAQYAAAAFAAAAATEBAAAACy0xOTM3MTc2MDgyAwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXyEXZuF9TdCDFHJ28X1N0IIkNJUS5RQ09NLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAA1YIAAAIAAAANMTU5ODI2LjQ5NDM4MQEGAAAABQAAAAExAQAA</t>
-  </si>
-  <si>
-    <t>AAstMTkzNDI1NDI1MQMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QhrKR5vF9TdCCJDSVEuU05QUy5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAANSIAAACAAAADTExNDQ3Ny4yNDQ3OTMBBgAAAAUAAAABMQEAAAALLTE5NDA1NzIyNDcDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNfIRdm4X1N0IcO0ebxfU3QghQ0lRLkFSTS5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAACznxScCAAAACTE0NTY5Ny4yMgEGAAAABQAAAAExAQAAAAstMTkzNDI1NDQwNwMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI18hF2bhfU3QjF/x9vF9TdCCJDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAACXgAQACAAAABjI1MC43NAC7wnZuF9TdCAu9J28X1N0II0NJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACXgAQACAAAABjI1OC4zMwC7wnZuF9TdCAu9J28X1N0II0NJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAACXgAQACAAAABjI2OS4xMQBHdYG6CNTdCD7pxbsI1N0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAv3ReAQIAAAAGOTE0LjM3ALvCdm4X1N0IResgbxfU3QgjQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAv3ReAQIAAAAG</t>
-  </si>
-  <si>
-    <t>OTQzLjEyALvCdm4X1N0Ive8cbxfU3QgjQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAv3ReAQIAAAAGOTY4Ljc5AEd1gboI1N0I3NmYuwjU3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAsPCHDAIAAAAGMzM4Ljk5ALvCdm4X1N0IGIMmbxfU3QgkQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAALDwhwwCAAAABjM0Ni41NQC7wnZuF9TdCMT4Jm8X1N0IJENJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAACw8IcMAgAAAAYzNjQuMDkAR3WBugjU3QhuHoi7CNTdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAvuAQACAAAADzI4Mi40NzMxNTU0NDUyNQC7wnZuF9TdCLpwJW8X1N0II0NJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAAvuAQACAAAADjI4Ni44OTA4NzE2NDc2ALvCdm4X1N0I984WbxfU3QgjQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAC+4BAAIAAAALMjg3LjU1ODY4NTQAR3WBugjU3QjPpbG7CNTdCCJDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAADTJBkCAAAABTU0Ljg5ALvCdm4X1N0IAfskbxfU3QgjQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAANMkGQIAAAAFNTYuNTkAu8J2bhfU</t>
-  </si>
-  <si>
-    <t>3Qi6cCVvF9TdCCNDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAAA0yQZAgAAAAU2NC40OQBHdYG6CNTdCP9/w7sI1N0II0NJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAFfAAACAAAABTM0Ny44ALvCdm4X1N0IEZ8ebxfU3QgkQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAAFfAAACAAAABjM1Ny42OQC7wnZuF9TdCHDtHm8X1N0IJENJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAABXwAAAgAAAAYzNzAuNzQAR3WBugjU3Qjc2Zi7CNTdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALo+/BECAAAABTM2LjAxALvCdm4X1N0IW/4hbxfU3QgjQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAuj78EQIAAAAFMzguMDMAu8J2bhfU3Qi97xxvF9TdCCNDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAC6PvwRAgAAAAUzOC45OQBHdYG6CNTdCGX3h7sI1N0II0NJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAIdjawECAAAABjIyMi4yMgC7wnZuF9TdCLs0Jm8X1N0IJENJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACHY2sBAgAAAAYyMjkuMzgAu8J2bhfU3Qi7NCZvF9TdCCRDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIw</t>
-  </si>
-  <si>
-    <t>MjUvNy8yNS5VU0QBAAAAh2NrAQIAAAAGMjQxLjc0AEd1gboI1N0IvX6xuwjU3QgjQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAaVX0AQIAAAAGMTI1LjAzALvCdm4X1N0IvkwibxfU3QgkQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAGlV9AECAAAABjEzNy43OQC7wnZuF9TdCLtyI28X1N0IJENJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAABpVfQBAgAAAAYxMTguODIAR3WBugjU3QitlcK7CNTdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAANq5zg0CAAAABjM3OS4xNwC7wnZuF9TdCJOTKW8X1N0II0NJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAANq5zg0CAAAABTM5MC43ALvCdm4X1N0Ik5MpbxfU3QgjQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAA2rnODQIAAAAGMzY0LjE0AEd1gboI1N0IHLKYuwjU3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAABisEBQIAAAAFMTE4LjYAu8J2bhfU3QjwryFvF9TdCCRDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAABisEBQIAAAAGMTIyLjIxALvCdm4X1N0IResgbxfU3QgkQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAAYrBAUCAAAABjEyNC40MwBH</t>
-  </si>
-  <si>
-    <t>dYG6CNTdCCrQh7sI1N0II0NJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAFITIg8CAAAABjE4Mi45NgC7wnZuF9TdCBLbHW8X1N0IJENJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAABSEyIPAgAAAAYxOTEuNzgAu8J2bhfU3QgS2x1vF9TdCCRDSVEuVEVBTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAUhMiDwIAAAADMjAzAEd1gboI1N0IvX6xuwjU3QgjQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAS1UAAAIAAAAGNTI0LjExALvCdm4X1N0I8h0pbxfU3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAEtVAAACAAAABTUzMy41ALvCdm4X1N0I4sMgbxfU3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAEtVAAACAAAABjUxMy43MQBHdYG6CNTdCFcPwbsI1N0II0NJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAD1JAAACAAAABjIxNC43NQC7wnZuF9TdCL5MIm8X1N0IJENJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAA9SQAAAgAAAAYyMzQuMTEAu8J2bhfU3QhyCyhvF9TdCCRDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAPUkAAAIAAAAGMjMxLjQ0AEd1gboI1N0IHLKYuwjU3QgtQ0lRLk5BU0RBUUdTOkdP</t>
-  </si>
-  <si>
-    <t>T0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAKhxAAACAAAABjE4OS4xMwC7wnZuF9TdCAH7JG8X1N0ILkNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAqHEAAAIAAAAFMTkxLjkAu8J2bhfU3QjJOSFvF9TdCC5DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAKhxAAACAAAABjE5My4xOABHdYG6CNTdCCrQh7sI1N0II0NJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAABDGogECAAAABjMwMi42MwC7wnZuF9TdCHDtHm8X1N0IJENJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAQxqIBAgAAAAYzMDguMjcAu8J2bhfU3Qg2vBVvF9TdCCRDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAEMaiAQIAAAAGMzE2LjA2AEd1gboI1N0IvX6xuwjU3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAZfqYAgIAAAAGMTU0LjI3ALvCdm4X1N0Ia7EfbxfU3QgkQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAGX6mAICAAAABjE1OC4zNQC7wnZuF9TdCGuxH28X1N0IJENJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAABl+pgCAgAAAAUxNTguOABHdYG6CNTdCGavv7sI1N0II0NJUS5PUkNMLklRX0NM</t>
-  </si>
-  <si>
-    <t>T1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAOdWAAACAAAABjI0NC40MgC7wnZuF9TdCMaVJ28X1N0IJENJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADnVgAAAgAAAAYyNTMuNzcAu8J2bhfU3Qhz6CNvF9TdCCRDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAA51YAAAIAAAAGMjQ1LjEyABjFhboI1N0ICouYuwjU3QgjQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAv/sZAwIAAAACNTIAu8J2bhfU3Qhz6CNvF9TdCCRDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAv/sZAwIAAAAFNTQuNDMAu8J2bhfU3QjgNiRvF9TdCCRDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAv/sZAwIAAAAFNTEuMzcAI+yFugjU3Qgq0Ie7CNTdCCNDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACAhFsNAgAAAAU3OS41OAC7wnZuF9TdCMk5IW8X1N0IJENJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACAhFsNAgAAAAQ4My43ALvCdm4X1N0INrwVbxfU3QgkQ0lRLkVTVEMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAICEWw0CAAAABTg5Ljg2ACPshboI1N0IvX6xuwjU3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAsDxkEAIAAAAGMjA1</t>
-  </si>
-  <si>
-    <t>LjAyALvCdm4X1N0IMUcnbxfU3QgkQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAALA8ZBACAAAABTIyMy41ALvCdm4X1N0IJv0ibxfU3QgkQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAALA8ZBACAAAABjIxOS41MQAj7IW6CNTdCHw7xLsI1N0II0NJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALuhBAgCAAAABTEzNS42ALvCdm4X1N0IaykebxfU3QgkQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAALuhBAgCAAAABjEzOS45OAC7wnZuF9TdCDLdG28X1N0IJENJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAC7oQQIAgAAAAYxNDkuODQAI+yFugjU3QgKi5i7CNTdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAADT14AQCAAAABjIwMC4xMQC7wnZuF9TdCBLbHW8X1N0II0NJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAADT14AQCAAAABjIwNy42OAC7wnZuF9TdCFChHG8X1N0II0NJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAADT14AQCAAAABjE5OC40MgAj7IW6CNTdCBaph7sI1N0II0NJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAM2EFxECAAAABTQxLjgyALvCdm4X1N0IEr8lbxfU3QgkQ0lRLkdUTEIuSVFf</t>
-  </si>
-  <si>
-    <t>Q0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAM2EFxECAAAABTQzLjgxALvCdm4X1N0IEtsdbxfU3QgkQ0lRLkdUTEIuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAM2EFxECAAAABTQ3Ljg5ACEThroI1N0IzFexuwjU3QgjQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAg32EAQIAAAAGMTcyLjg4ALvCdm4X1N0IuzQmbxfU3QgkQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAIN9hAECAAAABTE3My42ALvCdm4X1N0IGIMmbxfU3QgkQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAIN9hAECAAAABjIwMy4yNwAhE4a6CNTdCPa6w7sI1N0IIkNJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA4m7MAgIAAAAGMjIwLjk3ALvCdm4X1N0IAfskbxfU3QgjQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA4m7MAgIAAAAGMjM3Ljg5ALvCdm4X1N0IAfskbxfU3QgjQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAA4m7MAgIAAAAGMjQxLjM3ACEThroI1N0I9GOYuwjU3QgjQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAuMqlBgIAAAAFNTQuNTEAu8J2bhfU3QhrsR9vF9TdCCRDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAuMqlBgIA</t>
-  </si>
-  <si>
-    <t>AAAFNTkuNTIAu8J2bhfU3QhkSSVvF9TdCCRDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAuMqlBgIAAAAFNTcuNTkAMDqGugjU3QhAgoe7CNTdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA1MyBAwIAAAAGMjgwLjI3ALvCdm4X1N0IW/4hbxfU3QgiQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADUzIEDAgAAAAYyODUuNTYAu8J2bhfU3QhF6yBvF9TdCCJDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAANTMgQMCAAAABzI4Ni4xODUAMDqGugjU3QjAMLG7CNTdCCNDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAmAXoQAgAAAAQxNy4yALvCdm4X1N0IunAlbxfU3QgkQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACYBehACAAAABjE3LjcyNQC7wnZuF9TdCFChHG8X1N0IJENJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAAmAXoQAgAAAAUyNy4zNQAwOoa6CNTdCM0Kw7sI1N0II0NJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAADN+AAACAAAABjE3My43MgC7wnZuF9TdCAH7JG8X1N0IJENJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAzfgAAAgAAAAYxNzcuODcAu8J2bhfU3Qhb/iFvF9TdCCRDSVEuTlZEQS5J</t>
-  </si>
-  <si>
-    <t>UV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAM34AAAIAAAAFMTczLjUAPWGGugjU3Qj0Y5i7CNTdCCNDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABpYQAAAgAAAAYyMDIuMzgAu8J2bhfU3Qhb/iFvF9TdCCRDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAaWEAAAIAAAAGMjA3LjU3ALvCdm4X1N0Ik6wkbxfU3QgkQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAGlhAAACAAAABjIxMy44OAA9YYa6CNTdCECCh7sI1N0II0NJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAPC2fQECAAAABjI4OC42NAC7wnZuF9TdCHILKG8X1N0IJENJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADwtn0BAgAAAAUyOTMuNwC7wnZuF9TdCGuxH28X1N0IJENJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAADwtn0BAgAAAAYyOTAuMTgAPWGGugjU3QjAMLG7CNTdCChDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAKvMBQACAAAACjM4LjMzNjA3OTYAu8J2bhfU3QiTrCRvF9TdCClDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACrzAUAAgAAAAszOC43NTA2MjU5MgC7wnZuF9TdCOA2JG8X1N0IKUNJUS5UV1NFOjIzMzAuSVFfQ0xP</t>
-  </si>
-  <si>
-    <t>U0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAKvMBQACAAAACzM4LjgwMDQwNjYxAGGIhroI1N0ITKvBuwjU3QgrQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACdeg0AAgAAAAoxODUuNjc4MjE0ALvCdm4X1N0IyTkhbxfU3QgsQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAnXoNAAIAAAALMTk1Ljk2MTkyOTUAu8J2bhfU3QhRBhpvF9TdCCxDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAACdeg0AAgAAAAkxOTIuNDQ5NjcAYYiGugjU3QjiPJi7CNTdCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAo7wUAAgAAAAY2ODkuODIAu8J2bhfU3Qgy3RtvF9TdCC1DSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAKO8FAAIAAAAGNjk0LjcxALvCdm4X1N0IUKEcbxfU3QgtQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAACjvBQACAAAABjcxMS4yNQBhiIa6CNTdCPZah7sI1N0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALZ5AAACAAAABTc0LjQ1ALvCdm4X1N0Ia7EfbxfU3QgkQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAALZ5AAACAAAA</t>
-  </si>
-  <si>
-    <t>BTgwLjM3ALvCdm4X1N0IEZ8ebxfU3QgkQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAALZ5AAACAAAABTc0LjIxAD6mhroI1N0IsAmxuwjU3QgiQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABEm4ciAgAAAAYxNDEuNTkAu8J2bhfU3Qg4RSlvF9TdCCNDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAABEm4ciAgAAAAUxNDUuNgC7wnZuF9TdCLpwJW8X1N0II0NJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAESbhyICAAAABjEzNy40NwA+poa6CNTdCJUkwLsI1N0II0NJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAMPb/AECAAAABjExNy41NwC7wnZuF9TdCPCvIW8X1N0IJENJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADD2/wBAgAAAAYxMjMuMjIAu8J2bhfU3QgC3xlvF9TdCCRDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAw9v8AQIAAAAGMTE0LjI4AD6mhroI1N0I4jyYuwjU3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAA9N1wAAgAAAAk0NS4zOTc5ODkAu8J2bhfU3Qg4RSlvF9TdCClDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAA9N1wAAgAAAAs0NS43NjU4MjU0NAC7wnZuF9Td</t>
-  </si>
-  <si>
-    <t>CLpwJW8X1N0IKUNJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAD03XAACAAAACzQ4LjQ1ODE0OTc0ANa7hroI1N0I9lqHuwjU3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAZpBAACAAAABjEwNC44OAC7wnZuF9TdCDz4FG8X1N0IIkNJUS5NVS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAABmkEAAIAAAAGMTA5LjE0ALvCdm4X1N0INrwVbxfU3QgiQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAAGaQQAAgAAAAYxMTEuMjYA1ruGugjU3QiwCbG7CNTdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADVggAAAgAAAAYxNDguMTkAu8J2bhfU3QhrZR1vF9TdCCRDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA1YIAAAIAAAAGMTQ2Ljc2ALvCdm4X1N0IEtsdbxfU3QgkQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAANWCAAACAAAABTE1OC40AL/RhroI1N0I4Ou+uwjU3QgjQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA1IgAAAIAAAAGNjE4LjY1ALvCdm4X1N0I51IcbxfU3QgkQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAANSIAAACAAAABjYzMy40NwC7wnZuF9TdCDLdG28X1N0IJENJUS5TTlBTLklRX0NM</t>
-  </si>
-  <si>
-    <t>T1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAADUiAAAAgAAAAY2MDEuNTUAOeeGugjU3QjkFZi7CNTdCCJDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAACznxScCAAAABjEzNy41OAC7wnZuF9TdCPIdKW8X1N0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACznxScCAAAABzE0MS4zNzUAu8J2bhfU3Qi6cCVvF9TdCCNDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAAs58UnAgAAAAYxNjMuMTcAOeeGugjU3Qg8x467CNTdCCRDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAAI/cAcAIAAAAHMzEuNzcxMgC7wnZuF9TdCGuxH28X1N0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAACP3AHACAAAABTMxLjY4ALvCdm4X1N0IAt8ZbxfU3QgbQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4uVVNEAQAAACP3AHACAAAABzMyLjAyMjcAu8J2bhfU3Qi7wnZuF9TdCCVDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjQvMTEvMjkuVVNEAQAAACP3AHACAAAABTI4LjIzALvCdm4X1N0IZEklbxfU3QgkQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAACP3AHACAAAABTMxLjc5ALvCdm4X1N0IyTkhbxfU3QgkQ0lRLl5ORFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAA6zKAACAAAACjIy</t>
-  </si>
-  <si>
-    <t>OTA3Ljk2NjcAu8J2bhfU3QgKXhJvF9TdCCNDSVEuXk5EWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAAAOsygAAgAAAAoyMjg2NC45MDY2ALvCdm4X1N0Io74TbxfU3QgbQ0lRLl5ORFguSVFfQ0xPU0VQUklDRS4uVVNEAQAAAA6zKAACAAAACjIzMTg4LjYwODIAu8J2bhfU3Qi7wnZuF9TdCCVDSVEuXk5EWC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAA6zKAACAAAACjIxMDEyLjE3MzcAu8J2bhfU3Qg2vBVvF9TdCCNDSVEuXk5EWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAAAOsygAAgAAAAoyMjQ3OC4xMzUzALvCdm4X1N0IMt0bbxfU3QglQ0lRLl5ORFguSVFfQ0xPU0VQUklDRS4yMDI0LzExLzI5LlVTRAEAAAAOsygAAgAAAAoyMDkzMC4zNjYyALvCdm4X1N0IUKEcbxfU3QglQ0lRLl5ORFguSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5LlVTRAEAAAAOsygAAgAAAAoxNjgyNS45MzA3ALvCdm4X1N0Ia2UdbxfU3QgkQ0lRLl5ORFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAAA6zKAACAAAACjIyODg0LjU4ODQAu8J2bhfU3QgS2x1vF9TdCCRDSVEuXlNQWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAAm7goAAIAAAAPNjI2My42OTUyNDE1MDc3ALvCdm4X1N0IcO0ebxfU3QgjQ0lRLl5TUFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAAm7go</t>
-  </si>
-  <si>
-    <t>AAIAAAAQNjI2My4yNjQzNzg1NzQzNAC7wnZuF9TdCAdXGG8X1N0IJUNJUS5eU1BYLklRX0NMT1NFUFJJQ0UuMjAyNC8xMS8yOS5VU0QBAAAAm7goAAIAAAAQNjAzMi4zODQ0MTIyNzM5MgC7wnZuF9TdCApeEm8X1N0IJENJUS5eU1BYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAACbuCgAAgAAABA2MjQzLjc1NTcwOTA2MTExALvCdm4X1N0IPPgUbxfU3QgjQ0lRLlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAADrp7AAIAAAAFNTYxLjgAu8J2bhfU3QgB+yRvF9TdCCNDSVEuUVFRLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAAOunsAAgAAAAU0NDQuMQC7wnZuF9TdCALfGW8X1N0IJENJUS5RUVEuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAAOunsAAgAAAAYyOTMuMzYAu8J2bhfU3Qg0GRtvF9TdCCNDSVEuUVFRLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAAOunsAAgAAAAYyOTcuMzcAu8J2bhfU3Qgy3RtvF9TdCCJDSVEuUVFRLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAA66ewACAAAABjQ4NS41MwC7wnZuF9TdCOdSHG8X1N0IIUNJUS5RUVEuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAOunsAAgAAAAY1NjIuMzEAu8J2bhfU3QjwryFvF9TdCCBDSVEuUVFRLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAAOunsAAgAAAAY0</t>
-  </si>
-  <si>
-    <t>MDIuMzkAu8J2bhfU3QizNhJvF9TdCBhDSVEuUVFRLklRX1lFQVJISUdIX0RBVEUBAAAADrp7AAUAAAAJMjAyNS83LzMxALvCdm4X1N0Io74TbxfU3QgXQ0lRLlFRUS5JUV9ZRUFSTE9XX0RBVEUBAAAADrp7AAUAAAAIMjAyNS80LzcAu8J2bhfU3QjabRVvF9TdCCRDSVEuXlNQWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAm7goAAIAAAAQNjI5Ny4zNjE5MDk0NDA0NQC7wnZuF9TdCPCvIW8X1N0IJENJUS5eU1BYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAACbuCgAAgAAABA1MjgyLjcwMTAxNzQxMzMyALvCdm4X1N0I164ibxfU3QglQ0lRLl5TUFguSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAACbuCgAAgAAABA0MDgwLjEwNjU1MjE3OTI0ALvCdm4X1N0IAfskbxfU3QgkQ0lRLl5TUFguSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAJu4KAACAAAAEDM5MTkuMjg2OTU4ODMyMjcAu8J2bhfU3QhrZR1vF9TdCC1DSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMC5VU0QBAAAAnXoNAAIAAAALMTE3Ljk3NDI4MTcAwNQfvAjU3QiUZxtvF9TdCCRDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMC5VU0QBAAAAC+4BAAIAAAANMjQ1LjE3NTM0NzY1OADA1B+8CNTdCEEJKm8X1N0IMENJUS5BUkNBOkFSVFkuSVFfSE9MRElOR1NfRVFVSVRZ</t>
-  </si>
-  <si>
     <t>X0FTU0VUUy4yMDI1LzgvNQEAAABuH2khAgAAAAcxMDkwLjUxAAP0r8kW1N0IZlVbyhbU3Qg0Q0lRLk5BU0RBUUdNOkJPVFouSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvNQEAAAD3/QgWAgAAAAcyNzU2LjA1AAP0r8kW1N0IRC1gyhbU3QgwQ0lRLkFSQ0E6SUdQVC5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC81AQAAAMwCXgECAAAABjQ4MS42NQAD9K/JFtTdCLbSYcoW1N0IL0NJUS5MU0U6UkJPVC5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC81AQAAAI57JBQCAAAABzMyNTguNjYAA/SvyRbU3QhELWDKFtTdCDBDSVEuQVJDQTpUSE5RLklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzUBAAAArsN+JAIAAAAGMTk5LjQxAAP0r8kW1N0IoVlXyhbU3Qg0Q0lRLk5BU0RBUUdNOkZEVFguSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvNQEAAAC9pZ0mAgAAAAYxNzguODQAA/SvyRbU3Qh3i13KFtTdCDBDSVEuQVJDQTpDSEFULklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzUBAAAAADA1bQIAAAAGMzQ3LjAxAAP0r8kW1N0IiuxYyhbU3QgvQ0lRLkFSQ0E6QUlTLklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzUBAAAAmJefcAIAAAAENS42OAAD9K/JFtTdCEQtYMoW1N0IMENJUS5BUkNBOkxPVVAuSVFfSE9MRElOR1Nf</t>
   </si>
   <si>
@@ -2727,22 +2337,416 @@
     <t>MDI1LzcvMS5VU0QBAAAAv3ReAQIAAAAHMTAxMS44OQAgLS7VFtTdCBCHSdUW1N0II0NJUS5NU0ZULklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAEtVAAACAAAABjQ5Mi4wNQAgLS7VFtTdCBCHSdUW1N0II0NJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAACYBehACAAAABTI0Ljk1ACAtLtUW1N0IEIdJ1RbU3QghQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAANTMgQMCAAAABjMwNy4zMgAgLS7VFtTdCDZCSdUW1N0IIkNJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAA2rnODQIAAAAGMzM2LjY5ACAtLtUW1N0INkJJ1RbU3QgjQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAAg32EAQIAAAAGMTk3LjU4ACAtLtUW1N0INkJJ1RbU3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAAh2NrAQIAAAAGMjM5LjIzACAtLtUW1N0INkJJ1RbU3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAAAV8AAAIAAAAFMzkyLjEAIC0u1RbU3QgvvUjVFtTdCCNDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAAAX2zwBAgAAAAY3MTkuMjIAIC0u1RbU3QgvvUjVFtTdCCNDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAAC2eQAAAgAAAAU3Ni4yNAAgLS7VFtTd</t>
   </si>
   <si>
-    <t>CDZCSdUW1N0II0NJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAABDGogECAAAABjMwMC43MQAgLS7VFtTdCDZCSdUW1N0IJENJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAC4yqUGAgAAAAQ1OS40ABpqdm4X1N0ICl4SbxfU3QgkQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAGlhAAACAAAABjIxNC4wNQDGrnZuF9TdCApeEm8X1N0ILUNJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAAo7wUAAgAAAAY3MjkuOTkAxq52bhfU3QgKXhJvF9TdCClDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAA9N1wAAgAAAAo0Ny4xOTg0MzUyALvCdm4X1N0ICl4SbxfU3QgkQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAAYrBAUCAAAABjEyNi44NAAaanZuF9TdCFqsEm8X1N0ILkNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAqHEAAAIAAAAGMTkyLjU4ABpqdm4X1N0IWqwSbxfU3QgkQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAL/7GQMCAAAABTUyLjc1ABpqdm4X1N0ICl4SbxfU3QgjQ0lRLk5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAANPXgBAIAAAAGMTk5LjQxABpqdm4X1N0I</t>
-  </si>
-  <si>
-    <t>Cl4SbxfU3QgkQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAANSIAAACAAAABjU5Mi42MwC7wnZuF9TdCFv+IW8X1N0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAACznxScCAAAABjE2NC4zNwC7wnZuF9TdCDz4FG8X1N0IJENJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAACw8IcMAgAAAAYzNDAuNDkAGmp2bhfU3QharBJvF9TdCCNDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAC6PvwRAgAAAAUzOS42NgAaanZuF9TdCFqsEm8X1N0II0NJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAOJuzAICAAAABjI0NC40MQAaanZuF9TdCBLbHW8X1N0IJENJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAAzfgAAAgAAAAYxNzYuNzUAxq52bhfU3QjJOSFvF9TdCCxDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAACdeg0AAgAAAAoxODguNzc4NTk4AMaudm4X1N0IaSQjbxfU3QgkQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAMPb/AECAAAABjExNy41NQC7wnZuF9TdCHDtHm8X1N0IKUNJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAKvMBQACAAAACzM4LjYwMTU3NzM2AMaudm4X1N0Ia2UdbxfU</t>
-  </si>
-  <si>
-    <t>3QgkQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAD1JAAACAAAABjIzMi43OQAaanZuF9TdCGuxH28X1N0IJENJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAADnVgAAAgAAAAYyNDcuNzEAGmp2bhfU3QhpJCNvF9TdCCRDSVEuRERPRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAu6EECAIAAAAGMTUwLjc3ABpqdm4X1N0IxPgmbxfU3QgkQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAALA8ZBACAAAABjIxOC42NwAaanZuF9TdCMSzHW8X1N0IJENJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAADVggAAAgAAAAYxNjEuMDUAu8J2bhfU3Qi6cCVvF9TdCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAA8LZ9AQIAAAAFMjk0LjMAxq52bhfU3Qhw7R5vF9TdCCRDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAzYQXEQIAAAAFNDguMzgAGmp2bhfU3QhuDSZvF9TdCCRDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAgIRbDQIAAAAFODguODYAGmp2bhfU3Qhw7R5vF9TdCCJDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAAZpBAACAAAABjExMS4yNQC7wnZuF9TdCDLdG28X1N0II0NJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI1</t>
-  </si>
-  <si>
-    <t>LzcvMjguVVNEAQAAAAvuAQACAAAADjI4My41ODEyMjI0MTY3ABpqdm4X1N0Ixf8fbxfU3QgkQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAFITIg8CAAAABjIwMS44NAAaanZuF9TdCEaBKG8X1N0IJENJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAABl+pgCAgAAAAYxNTcuODgAGmp2bhfU3QiTrCRvF9TdCCNDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAAl4AEAAgAAAAYyNzAuMjUA8hF2bhfU3QjbjhtvF9TdCCRDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAaVX0AQIAAAAGMTIwLjk2ABpqdm4X1N0Ixf8fbxfU3QgjQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAARJuHIgIAAAAGMTQyLjU1AMaudm4X1N0IyTkhbxfU3QgkQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAACYBehACAAAAAjI3ABpqdm4X1N0IOEUpbxfU3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAEtVAAACAAAABTUxMi41ABpqdm4X1N0IZEklbxfU3QgjQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAv3ReAQIAAAAGOTg1Ljc1APIRdm4X1N0Ibg0mbxfU3QgjQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAANMkGQIAAAACNjIA</t>
-  </si>
-  <si>
-    <t>Gmp2bhfU3Qjz4SlvF9TdCCRDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAh2NrAQIAAAAGMjM4LjA0ABpqdm4X1N0IyTkhbxfU3QgkQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAIN9hAECAAAABTIwNC41ABpqdm4X1N0IEr8lbxfU3QgjQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAA2rnODQIAAAAGMzcwLjk2ABpqdm4X1N0Ive8cbxfU3QgiQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAADUzIEDAgAAAAYyODkuMDQAGmp2bhfU3QgB+yRvF9TdCCRDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAEMaiAQIAAAAGMzI1LjU5ABpqdm4X1N0ImSscbxfU3QgkQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAALZ5AAACAAAABTc1LjkxAMaudm4X1N0IW/4hbxfU3QgkQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAABfbPAECAAAABjcxNy42MwDyEXZuF9TdCIBgIm8X1N0IJENJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAABXwAAAgAAAAYzNjkuNDcAGmp2bhfU3QiTrCRvF9TdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAABgwjYAAgAAAAYyOTEuNDEAPBx1bhfU3QgLvSdvF9TdCCxDSVEu</t>
-  </si>
-  <si>
-    <t>TkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAAOunsAAgAAAAY1NjguMTQAPBx1bhfU3QgYgyZvF9TdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAADp3GIhAgAAAAU0NC45MwA8HHVuF9TdCAciE28X1N0IJENJUS5eREpJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAD4tCgAAgAAABA0NDgzNy41NjMwOTYxNjg5ADwcdW4X1N0InM8obxfU3QgkQ0lRLl5TUFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAJu4KAACAAAAEDYzODkuNzY2NDgzODM4MjUAPBx1bhfU3Qjz4SlvF9TdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAA9/0IFgIAAAAFMzQuMjYAPBx1bhfU3QiKpipvF9TdCCRDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAI/cAcAIAAAAHMzIuNzM0NgA8HHVuF9TdCEaBKG8X1N0I</t>
+    <t>DowJones Index</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAABTAVMT0NBTAFI/////wFQbAcAACNDSVEuXlNQWC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAACbuCgAAgAAAAc1NjA4LjU2AN7/odQd1N0IpR861R3U3QgiQ0lRLl5TUFguSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAACbuCgAAgAAABA2Mjk3LjM2MTkwOTQ0MDQ1AN7/odQd1N0IRL071R3U3QghQ0lRLl5TUFguSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAJu4KAACAAAAEDQ5ODIuNzcwMzEzMjY5NDIA3v+h1B3U3QgQQD3VHdTdCBlDSVEuXlNQWC5JUV9ZRUFSSElHSF9EQVRFAQAAAJu4KAAFAAAACTIwMjUvNy8yOADe/6HUHdTdCOUOPtUd1N0IGENJUS5eU1BYLklRX1lFQVJMT1dfREFURQEAAACbuCgABQAAAAgyMDI1LzQvOADe/6HUHdTdCLAqQdUd1N0IJENJUS5eREpJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAD4tCgAAgAAABA0NDQ4NC40ODYyNDk5MTQ2AN7/odQd1N0ISDtE1R3U3QgkQ0lRLl5ESkkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAPi0KAACAAAAEDM5MTQyLjIzMTk0ODM4ODQA3v+h1B3U3QhIO0TVHdTdCCVDSVEuXkRKSS5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAPi0KAACAAAAEDM0NTg5Ljc2ODUxNDM2MDgA3v+h1B3U3Qj8w0XVHdTdCCRDSVEuXkRKSS5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAA+LQoAAIA</t>
+  </si>
+  <si>
+    <t>AAAQMzIxNTUuNDA0NjkyMjUyNwDe/6HUHdTdCAMhMNUd1N0II0NJUS5eREpJLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAPi0KAACAAAACDQxMTU2LjU2AN7/odQd1N0II+Mx1R3U3QgiQ0lRLl5ESkkuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAD4tCgAAgAAABA0NTAxNC4wNDAwNTA0ODU4AN7/odQd1N0ItbxH1R3U3QghQ0lRLl5ESkkuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAPi0KAACAAAAEDM3NjQ1LjU4OTM1NTY2NTQA3v+h1B3U3QhSOjTVHdTdCBlDSVEuXkRKSS5JUV9ZRUFSSElHSF9EQVRFAQAAAPi0KAAFAAAACTIwMjQvMTIvNADe/6HUHdTdCPNPNdUd1N0IGENJUS5eREpJLklRX1lFQVJMT1dfREFURQEAAAD4tCgABQAAAAgyMDI1LzQvOADe/6HUHdTdCLAqQdUd1N0IJENJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAj9wBwAgAAAAYzMS45NTUA3v+h1B3U3Qj8w0XVHdTdCCVDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAACP3AHACAAAABTI4LjQzACQVotQd1N0I/MNF1R3U3QgkQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAACP3AHACAAAABzIzLjIxMjMAJBWi1B3U3QhmeTjVHdTdCCNDSVEuQUdJWC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAAAj9wBwAgAAAAUyNS4zNgAkFaLUHdTd</t>
+  </si>
+  <si>
+    <t>CKUfOtUd1N0IIkNJUS5BR0lYLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAI/cAcAIAAAAFMzEuOTkAJBWi1B3U3QitG0jVHdTdCCFDSVEuQUdJWC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAI/cAcAIAAAAGMjAuODE1ACQVotQd1N0IEEA91R3U3QgZQ0lRLkFHSVguSVFfWUVBUkhJR0hfREFURQEAAAAj9wBwBQAAAAkyMDI1LzcvMzEAJBWi1B3U3QjlDj7VHdTdCBhDSVEuQUdJWC5JUV9ZRUFSTE9XX0RBVEUBAAAAI/cAcAUAAAAIMjAyNS80LzcAJBWi1B3U3QiwKkHVHdTdCCVDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAACP3AHADAAAAAAAkFaLUHdTdCEg7RNUd1N0IJENJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAAj9wBwAwAAAAAAJBWi1B3U3QitG0jVHdTdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAAMDVtAgAAAAU0OS44NQAkFaLUHdTdCAMhMNUd1N0IKkNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAAAAMDVtAgAAAAU0MC40NgAkFaLUHdTdCCPjMdUd1N0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAAAwNW0CAAAABTMyLjYzACQVotQd1N0IGlBH1R3U3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4</t>
+  </si>
+  <si>
+    <t>LlVTRAEAAAAAMDVtAgAAAAUzNi45OAAkFaLUHdTdCFI6NNUd1N0IJ0NJUS5BUkNBOkNIQVQuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAAMDVtAgAAAAc0OS45Mzk1ACQVotQd1N0IUjo01R3U3QgmQ0lRLkFSQ0E6Q0hBVC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAADA1bQIAAAAHMjguOTYwOQAkFaLUHdTdCPNPNdUd1N0IHkNJUS5BUkNBOkNIQVQuSVFfWUVBUkhJR0hfREFURQEAAAAAMDVtBQAAAAkyMDI1LzcvMzEAJBWi1B3U3QiU7jbVHdTdCB1DSVEuQVJDQTpDSEFULklRX1lFQVJMT1dfREFURQEAAAAAMDVtBQAAAAgyMDI1LzQvNwAkFaLUHdTdCKUfOtUd1N0IKkNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAAAMDVtAwAAAAAAJBWi1B3U3QgQQD3VHdTdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAAAMDVtAwAAAAAAJBWi1B3U3QjlDj7VHdTdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAADp3GIhAgAAAAU0NC40MwAkFaLUHdTdCNAVQNUd1N0ILUNJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAADp3GIhAgAAAAUzOC42NAAkFaLUHdTdCBpQR9Ud1N0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNE</t>
+  </si>
+  <si>
+    <t>AQAAAOncYiECAAAABDMzLjkAJBWi1B3U3QhUo0LVHdTdCC1DSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAA6dxiIQIAAAAFMjEuNzQAJBWi1B3U3QhIO0TVHdTdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAADp3GIhAgAAAAUyMi4zOAAkFaLUHdTdCPzDRdUd1N0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAA6dxiIQIAAAAFMzUuOTMAJBWi1B3U3QgDITDVHdTdCCpDSVEuTkFTREFRR006QUlRLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAA6dxiIQIAAAAENDQuNQAkFaLUHdTdCCPjMdUd1N0IKUNJUS5OQVNEQVFHTTpBSVEuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAOncYiECAAAABDMwLjYAJBWi1B3U3QgaUEfVHdTdCCFDSVEuTkFTREFRR006QUlRLklRX1lFQVJISUdIX0RBVEUBAAAA6dxiIQUAAAAJMjAyNS83LzI5ACQVotQd1N0IUjo01R3U3QggQ0lRLk5BU0RBUUdNOkFJUS5JUV9ZRUFSTE9XX0RBVEUBAAAA6dxiIQUAAAAIMjAyNS80LzcAJBWi1B3U3QiU7jbVHdTdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAA9/0IFgIAAAAFMzMuMjIAJBWi1B3U3QilHzrVHdTdCC5DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBS</t>
+  </si>
+  <si>
+    <t>SUNFLjIwMjQvMTIvMzEuVVNEAQAAAPf9CBYCAAAABTMxLjk1ACQVotQd1N0IGlBH1R3U3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAPf9CBYCAAAABTI2LjYyACQVotQd1N0IEEA91R3U3QguQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAD3/QgWAgAAAAUyMS40MwAkFaLUHdTdCOUOPtUd1N0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAD3/QgWAgAAAAUyMy43MQAkFaLUHdTdCNAVQNUd1N0ILENJUS5OQVNEQVFHTTpCT1RaLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAPf9CBYCAAAABDMxLjQAJBWi1B3U3QjlDj7VHdTdCCtDSVEuTkFTREFRR006Qk9UWi5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAPf9CBYCAAAACTM0Ljg1NTkwMgAkFaLUHdTdCNAVQNUd1N0IKkNJUS5OQVNEQVFHTTpCT1RaLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAD3/QgWAgAAAAYyMy44MTUAJBWi1B3U3QiwKkHVHdTdCCJDSVEuTkFTREFRR006Qk9UWi5JUV9ZRUFSSElHSF9EQVRFAQAAAPf9CBYFAAAACTIwMjUvMS8yNAAkFaLUHdTdCFSjQtUd1N0IIUNJUS5OQVNEQVFHTTpCT1RaLklRX1lFQVJMT1dfREFURQEAAAD3/QgWBQAAAAgyMDI1LzQvNwAkFaLUHdTdCPzDRdUd</t>
+  </si>
+  <si>
+    <t>1N0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAGBOb2QCAAAABTI0Ljk5ACQVotQd1N0II+Mx1R3U3QgqQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAGBOb2QCAAAAAjIyACQVotQd1N0IGlBH1R3U3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAYE5vZAIAAAAFMTcuOTQAJBWi1B3U3QgjKEfVHdTdCCpDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAYE5vZAIAAAAFMTUuNjQAJBWi1B3U3QhSOjTVHdTdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAABgTm9kAgAAAAcxNi4zNjE3ACQVotQd1N0I80811R3U3QgoQ0lRLkJBVFM6V1RBSS5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAABgTm9kAgAAAAQyMS4xACQVotQd1N0IlO421R3U3QgnQ0lRLkJBVFM6V1RBSS5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAGBOb2QCAAAABjI1LjAyNQAkFaLUHdTdCGZ5ONUd1N0IJkNJUS5CQVRTOldUQUkuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAGBOb2QCAAAABzE1Ljc2MDcAJBWi1B3U3QilHzrVHdTdCB5DSVEuQkFUUzpXVEFJLklRX1lFQVJISUdIX0RBVEUBAAAAYE5vZAUAAAAJMjAyNS83LzMxACQVotQd1N0IRL07</t>
+  </si>
+  <si>
+    <t>1R3U3QgdQ0lRLkJBVFM6V1RBSS5JUV9ZRUFSTE9XX0RBVEUBAAAAYE5vZAUAAAAIMjAyNS80LzcAJBWi1B3U3QjlDj7VHdTdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAABuH2khAgAAAAQ0Mi4zACQVotQd1N0IsCpB1R3U3QgqQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAG4faSECAAAABTM3LjA3ACQVotQd1N0IVKNC1R3U3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAbh9pIQIAAAAEMjkuOAAkFaLUHdTdCEg7RNUd1N0IKkNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAABuH2khAgAAAAUyNi43NgAkFaLUHdTdCPzDRdUd1N0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAG4faSECAAAABTI5LjEzACQVotQd1N0IAyEw1R3U3QgoQ0lRLkFSQ0E6QVJUWS5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAABuH2khAgAAAAUzNC4yOQAkFaLUHdTdCCPjMdUd1N0IJ0NJUS5BUkNBOkFSVFkuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAABuH2khAgAAAAc0Mi4zNDk5ACQVotQd1N0II+Mx1R3U3QgmQ0lRLkFSQ0E6QVJUWS5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAbh9pIQIAAAAHMjYuMzEyOAAkFaLUHdTdCM3Z</t>
+  </si>
+  <si>
+    <t>RtUd1N0IHkNJUS5BUkNBOkFSVFkuSVFfWUVBUkhJR0hfREFURQEAAABuH2khBQAAAAkyMDI1LzcvMzEAJBWi1B3U3QhSOjTVHdTdCB1DSVEuQVJDQTpBUlRZLklRX1lFQVJMT1dfREFURQEAAABuH2khBQAAAAgyMDI1LzQvNwAkFaLUHdTdCJTuNtUd1N0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAjnskFAIAAAAFMTUuNDIAJBWi1B3U3QilHzrVHdTdCClDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAACOeyQUAgAAAAYxMy44NzUAJBWi1B3U3QhEvTvVHdTdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAI57JBQCAAAABDEyLjIAJBWi1B3U3QgQQD3VHdTdCClDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAACOeyQUAgAAAAU5LjU3NQAkFaLUHdTdCES9O9Ud1N0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAjnskFAIAAAAGMTAuNTQ1ACQVotQd1N0IEEA91R3U3QgnQ0lRLkxTRTpSQk9ULklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAI57JBQCAAAABTEzLjQyACQVotQd1N0I5Q4+1R3U3QgmQ0lRLkxTRTpSQk9ULklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAjnskFAIAAAAHMTUuNDQyNgAkFaLUHdTdCNAVQNUd1N0IJUNJ</t>
+  </si>
+  <si>
+    <t>US5MU0U6UkJPVC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAjnskFAIAAAAFMTAuNzMAJBWi1B3U3QiwKkHVHdTdCB1DSVEuTFNFOlJCT1QuSVFfWUVBUkhJR0hfREFURQEAAACOeyQUBQAAAAkyMDI1LzcvMjQAJBWi1B3U3QhUo0LVHdTdCBxDSVEuTFNFOlJCT1QuSVFfWUVBUkxPV19EQVRFAQAAAI57JBQFAAAACDIwMjUvNC83ACQVotQd1N0I/MNF1R3U3QgkQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAABfbPAECAAAABjcwMS40MQCFaaLUHdTdCGjDM9Ud1N0IJENJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAAX2zwBAgAAAAY1MDEuNDgAJBWi1B3U3Qjf/jLVHdTdCCVDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAABfbPAECAAAABTExOC4xACQVotQd1N0IUjo01R3U3QgkQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAABfbPAECAAAABjE5NC4wMgAkFaLUHdTdCPNPNdUd1N0II0NJUS5NRVRBLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAABfbPAECAAAAAzQ3NQAkFaLUHdTdCJTuNtUd1N0IIkNJUS5NRVRBLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAF9s8AQIAAAAFNzQ3LjkAJBWi1B3U3QhmeTjVHdTdCCFDSVEuTUVUQS5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAF9s8AQIA</t>
+  </si>
+  <si>
+    <t>AAAGNDQyLjY1ACQVotQd1N0IpR861R3U3QgZQ0lRLk1FVEEuSVFfWUVBUkhJR0hfREFURQEAAAAX2zwBBQAAAAkyMDI1LzcvMzEAJBWi1B3U3QhEvTvVHdTdCBhDSVEuTUVUQS5JUV9ZRUFSTE9XX0RBVEUBAAAAF9s8AQUAAAAIMjAyNC84LzUAJBWi1B3U3QjlDj7VHdTdCCVDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAABfbPAECAAAABjU4NS41MQCFaaLUHdTdCBpQR9Ud1N0II0NJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAACXgAQACAAAABjI1OS44OACFaaLUHdTdCFSjQtUd1N0II0NJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAACXgAQACAAAABjI0Ny4yNgAkFaLUHdTdCEg7RNUd1N0IJENJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAAl4AEAAgAAAAYxNjAuMjUAJBWi1B3U3Qj8w0XVHdTdCCNDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAAl4AEAAgAAAAYxODIuODkAJBWi1B3U3QgDITDVHdTdCCJDSVEuQ1JNLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAACXgAQACAAAABjI1Mi4xNAAkFaLUHdTdCPzDRdUd1N0IIUNJUS5DUk0uSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAl4AEAAgAAAAMzNjkAJBWi1B3U3QgDITDVHdTdCCBDSVEuQ1JNLklRX1lFQVJMT1cuMjAyNS83</t>
+  </si>
+  <si>
+    <t>LzE3LlVTRAEAAAAl4AEAAgAAAAMyMzAAJBWi1B3U3Qgj4zHVHdTdCBhDSVEuQ1JNLklRX1lFQVJISUdIX0RBVEUBAAAAJeABAAUAAAAJMjAyNC8xMi80ACQVotQd1N0I3/4y1R3U3QgXQ0lRLkNSTS5JUV9ZRUFSTE9XX0RBVEUBAAAAJeABAAUAAAAIMjAyNS80LzcAJBWi1B3U3QjzTzXVHdTdCCRDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAJeABAAIAAAAGMzM0LjMzAIVpotQd1N0IrRtI1R3U3QgjQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAv3ReAQIAAAAGOTU5LjE1AIVpotQd1N0IpR861R3U3QgjQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAv3ReAQIAAAAGNzcyLjE2ACQVotQd1N0IpR861R3U3QgkQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAL90XgECAAAABTQxNi4zACQVotQd1N0IRL071R3U3QgjQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAv3ReAQIAAAAGNDI0LjU0ACQVotQd1N0IEEA91R3U3QgiQ0lRLk5PVy5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAAC/dF4BAgAAAAY3MzguMzQAJBWi1B3U3QjlDj7VHdTdCCFDSVEuTk9XLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAv3ReAQIAAAAHMTE5OC4wOQAkFaLUHdTdCB0AQNUd1N0IIENJUS5OT1cuSVFf</t>
+  </si>
+  <si>
+    <t>WUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAL90XgECAAAACDY3OC42NTg4ACQVotQd1N0IsCpB1R3U3QgYQ0lRLk5PVy5JUV9ZRUFSSElHSF9EQVRFAQAAAL90XgEFAAAACTIwMjUvMS8yOAAkFaLUHdTdCFSjQtUd1N0IF0NJUS5OT1cuSVFfWUVBUkxPV19EQVRFAQAAAL90XgEFAAAACDIwMjUvNC83ACQVotQd1N0I/MNF1R3U3QgkQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAL90XgECAAAABzEwNjAuMTIAhWmi1B3U3QiB0EPVHdTdCCRDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAsPCHDAIAAAAGMzYxLjk1AIVpotQd1N0IFQBF1R3U3QgkQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAALDwhwwCAAAABTMyNi41ACQVotQd1N0IUjo01R3U3QglQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAACw8IcMAgAAAAU2OS42NwAkFaLUHdTdCPNPNdUd1N0IJENJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAACw8IcMAgAAAAYxMjMuNzIAJBWi1B3U3QiU7jbVHdTdCCNDSVEuRFVPTC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAACw8IcMAgAAAAYxODIuMTEAJBWi1B3U3QhmeTjVHdTdCCJDSVEuRFVPTC5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAALDwhwwCAAAABjU0NC45MwAkFaLU</t>
+  </si>
+  <si>
+    <t>HdTdCGZ5ONUd1N0IIUNJUS5EVU9MLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAACw8IcMAgAAAAYxNDUuMDUAJBWi1B3U3QilHzrVHdTdCBlDSVEuRFVPTC5JUV9ZRUFSSElHSF9EQVRFAQAAALDwhwwFAAAACTIwMjUvNS8xNAAkFaLUHdTdCES9O9Ud1N0IGENJUS5EVU9MLklRX1lFQVJMT1dfREFURQEAAACw8IcMBQAAAAgyMDI0LzgvNQAkFaLUHdTdCOUOPtUd1N0IJUNJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAsPCHDAIAAAAGMzI0LjIzAIVpotQd1N0IsCpB1R3U3QgjQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAC+4BAAIAAAAOMzA4LjAzMTA1ODA3NDYAhWmi1B3U3QhUo0LVHdTdCCNDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAAL7gEAAgAAAA0yNTYuOTkzNDA0NTA4ACQVotQd1N0ISDtE1R3U3QgkQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAAvuAQACAAAADzEwNy43MjQwMzgzMjU0MgAkFaLUHdTdCFSjQtUd1N0II0NJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAAvuAQACAAAADzExNy45NjM1NTgzOTE2NgAkFaLUHdTdCEg7RNUd1N0IIkNJUS5TQVAuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAAC+4BAAIAAAANMjAwLjE1MjcwNTAwNgAkFaLUHdTdCPzDRdUd</t>
+  </si>
+  <si>
+    <t>1N0IIUNJUS5TQVAuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAL7gEAAgAAAA4zMjguNTQzMjg0Mjg5NQAkFaLUHdTdCAMhMNUd1N0IIENJUS5TQVAuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAAvuAQACAAAADzIwNC43OTc3NzQ5NTQ2NAAkFaLUHdTdCCPjMdUd1N0IGENJUS5TQVAuSVFfWUVBUkhJR0hfREFURQEAAAAL7gEABQAAAAkyMDI1LzIvMTkAJBWi1B3U3Qjf/jLVHdTdCBdDSVEuU0FQLklRX1lFQVJMT1dfREFURQEAAAAL7gEABQAAAAgyMDI0LzgvNQAkFaLUHdTdCPNPNdUd1N0IJENJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAAAL7gEAAwAAAAAAhWmi1B3U3Qi88ULVHdTdCCNDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAA0yQZAgAAAAU2MC42NQCFaaLUHdTdCCGQPNUd1N0II0NJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAADTJBkCAAAABTQwLjQ1ACQVotQd1N0IRL071R3U3QgkQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAADTJBkDAAAAAAAkFaLUHdTdCBBAPdUd1N0II0NJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAADTJBkDAAAAAAAkFaLUHdTdCOUOPtUd1N0IIkNJUS5URU0uSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAAANMkGQIAAAAFNDEuNTYA</t>
+  </si>
+  <si>
+    <t>JBWi1B3U3QgdAEDVHdTdCCFDSVEuVEVNLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAANMkGQIAAAAFOTEuNDUAJBWi1B3U3QiwKkHVHdTdCCBDSVEuVEVNLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAAA0yQZAgAAAAUzMS4zNgAkFaLUHdTdCFSjQtUd1N0IGENJUS5URU0uSVFfWUVBUkhJR0hfREFURQEAAAAA0yQZBQAAAAkyMDI1LzIvMTQAJyqi1B3U3QhIO0TVHdTdCBdDSVEuVEVNLklRX1lFQVJMT1dfREFURQEAAAAA0yQZBQAAAAkyMDI1LzEvMTMAJyqi1B3U3QgDITDVHdTdCCRDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAANMkGQIAAAAFMzMuNzYAhWmi1B3U3Qi1vEfVHdTdCCRDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAAV8AAAIAAAAGMzY2LjQ1AIVpotQd1N0Ioag/1R3U3QgkQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAAFfAAACAAAABTM0OC44ACcqotQd1N0I80811R3U3QglQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAABXwAAAgAAAAYzNDQuOTMAJyqi1B3U3QiU7jbVHdTdCCRDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAAV8AAAIAAAAGMzMzLjMzACcqotQd1N0I80811R3U3QgjQ0lRLkFEQkUuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QB</t>
+  </si>
+  <si>
+    <t>AAAAAV8AAAIAAAAGNTY0LjE4ACcqotQd1N0IlO421R3U3QgiQ0lRLkFEQkUuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAABXwAAAgAAAAY1ODcuNzUAJyqi1B3U3Qg/szfVHdTdCCFDSVEuQURCRS5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAAV8AAAIAAAAGMzMyLjAxACcqotQd1N0IpR861R3U3QgZQ0lRLkFEQkUuSVFfWUVBUkhJR0hfREFURQEAAAABXwAABQAAAAkyMDI0LzkvMTIAJyqi1B3U3QhEvTvVHdTdCBhDSVEuQURCRS5JUV9ZRUFSTE9XX0RBVEUBAAAAAV8AAAUAAAAIMjAyNS80LzcAJyqi1B3U3QjlDj7VHdTdCCVDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAAFfAAACAAAABjQ0NC42OACFaaLUHdTdCLAqQdUd1N0II0NJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAALo+/BECAAAABTM4LjE1AIVpotQd1N0IVKNC1R3U3QgjQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAuj78EQIAAAAFMzcuNTIAJyqi1B3U3QhIO0TVHdTdCCRDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAuj78EQIAAAAEOS41MwAnKqLUHdTdCPzDRdUd1N0II0NJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAALo+/BECAAAABTE5LjY5ACcqotQd1N0IAyEw1R3U3QgiQ0lRLklPVC5JUV9PUEVOUFJJ</t>
+  </si>
+  <si>
+    <t>Q0UuMjAyNC83LzE4LlVTRAEAAAC6PvwRAgAAAAUzNy4yMwAnKqLUHdTdCCPjMdUd1N0IIUNJUS5JT1QuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAC6PvwRAgAAAAc2MS44OTk5ACcqotQd1N0I3/4y1R3U3QggQ0lRLklPVC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAuj78EQIAAAAEMzEuNAAnKqLUHdTdCGjDM9Ud1N0IGENJUS5JT1QuSVFfWUVBUkhJR0hfREFURQEAAAC6PvwRBQAAAAkyMDI1LzIvMTkAJyqi1B3U3QjzTzXVHdTdCBdDSVEuSU9ULklRX1lFQVJMT1dfREFURQEAAAC6PvwRBQAAAAgyMDI1LzQvNwAnKqLUHdTdCD+zN9Ud1N0IJENJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAAC6PvwRAgAAAAU0My42OQCFaaLUHdTdCES9O9Ud1N0IJENJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAACHY2sBAgAAAAYyMzAuODkAhWmi1B3U3QgQQD3VHdTdCCRDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAh2NrAQIAAAAGMjIxLjAyACcqotQd1N0I5Q4+1R3U3QglQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAACHY2sBAgAAAAUxNjcuOQAnKqLUHdTdCB0AQNUd1N0IJENJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAACHY2sBAgAAAAYxODMuNDEAJyqi1B3U3QiwKkHVHdTdCCND</t>
+  </si>
+  <si>
+    <t>SVEuV0RBWS5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAACHY2sBAgAAAAYyMzIuNzYAJyqi1B3U3QgdAEDVHdTdCCJDSVEuV0RBWS5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAIdjawECAAAAAzI5NAAnKqLUHdTdCLAqQdUd1N0IIUNJUS5XREFZLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAACHY2sBAgAAAAYxOTkuODEAJyqi1B3U3QhUo0LVHdTdCBlDSVEuV0RBWS5JUV9ZRUFSSElHSF9EQVRFAQAAAIdjawEFAAAACTIwMjQvMTIvOQAnKqLUHdTdCEg7RNUd1N0IGENJUS5XREFZLklRX1lFQVJMT1dfREFURQEAAACHY2sBBQAAAAgyMDI0LzgvNQAnKqLUHdTdCAMhMNUd1N0IJUNJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAh2NrAQIAAAAGMjU4LjAzAIVpotQd1N0IvPFC1R3U3QgkQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAGlV9AECAAAABjEyMi4xNwCFaaLUHdTdCPlOOdUd1N0IJENJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAABpVfQBAgAAAAU1OS43MQAnKqLUHdTdCGjDM9Ud1N0IJUNJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAaVX0AQIAAAAFMzEuNzcAJyqi1B3U3QjzTzXVHdTdCCRDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAaVX0AQIAAAAFNDMu</t>
+  </si>
+  <si>
+    <t>MTkAJyqi1B3U3QiU7jbVHdTdCCNDSVEuUkJMWC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAABpVfQBAgAAAAU0MC4wNwAnKqLUHdTdCD+zN9Ud1N0IIkNJUS5SQkxYLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAaVX0AQIAAAAGMTIzLjMzACcqotQd1N0IpR861R3U3QghQ0lRLlJCTFguSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAGlV9AECAAAABDM1LjMAJyqi1B3U3QhEvTvVHdTdCBlDSVEuUkJMWC5JUV9ZRUFSSElHSF9EQVRFAQAAAGlV9AEFAAAACTIwMjUvNy8zMQAnKqLUHdTdCBBAPdUd1N0IGENJUS5SQkxYLklRX1lFQVJMT1dfREFURQEAAABpVfQBBQAAAAgyMDI0LzgvNQAnKqLUHdTdCB0AQNUd1N0IJUNJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAaVX0AQIAAAAFNTcuODYAhWmi1B3U3QjKuknVHdTdCCNDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAADauc4NAgAAAAYzNjMuNzgAhWmi1B3U3QgVAEXVHdTdCCNDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADauc4NAgAAAAYyMzguMjIAJyqi1B3U3Qj8w0XVHdTdCCRDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAA2rnODQIAAAAFMTQuNDEAJyqi1B3U3QiG0i/VHdTdCCNDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVT</t>
+  </si>
+  <si>
+    <t>RAEAAADauc4NAgAAAAUxMi43NwAnKqLUHdTdCCPjMdUd1N0IIkNJUS5BUFAuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAA2rnODQIAAAAFODEuOTkAJyqi1B3U3Qjf/jLVHdTdCCFDSVEuQVBQLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAA2rnODQIAAAAGNTI1LjE1ACcqotQd1N0I3/4y1R3U3QggQ0lRLkFQUC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAA2rnODQIAAAAFNjAuNjcAJyqi1B3U3QhowzPVHdTdCBhDSVEuQVBQLklRX1lFQVJISUdIX0RBVEUBAAAA2rnODQUAAAAJMjAyNS8yLzEzACcqotQd1N0I80811R3U3QgXQ0lRLkFQUC5JUV9ZRUFSTE9XX0RBVEUBAAAA2rnODQUAAAAIMjAyNC84LzUAJyqi1B3U3Qg/szfVHdTdCCRDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAA2rnODQIAAAAGMzIzLjgzAIVpotQd1N0IipU71R3U3QgkQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAAYrBAUCAAAABjEyNi43NQCFaaLUHdTdCBBAPdUd1N0IJENJUS5TSE9QLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAAGKwQFAgAAAAU4My42NQAnKqLUHdTdCOUOPtUd1N0IJUNJUS5TSE9QLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAABisEBQIAAAAFNDAuODgAJyqi1B3U3QgQQD3VHdTdCCRDSVEuU0hPUC5JUV9DTE9TRVBS</t>
+  </si>
+  <si>
+    <t>SUNFLjIwMjMvMy8xNC5VU0QBAAAABisEBQIAAAAENDMuOAAnKqLUHdTdCOUOPtUd1N0II0NJUS5TSE9QLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAAYrBAUCAAAABDY1LjkAJyqi1B3U3QgdAEDVHdTdCCJDSVEuU0hPUC5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAAYrBAUCAAAABjEyOS4zOAAnKqLUHdTdCLAqQdUd1N0IIUNJUS5TSE9QLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAAGKwQFAgAAAAU0OC41NgAnKqLUHdTdCFSjQtUd1N0IGUNJUS5TSE9QLklRX1lFQVJISUdIX0RBVEUBAAAABisEBQUAAAAJMjAyNS8yLzE4ACcqotQd1N0ITQBE1R3U3QgYQ0lRLlNIT1AuSVFfWUVBUkxPV19EQVRFAQAAAAYrBAUFAAAACDIwMjQvOC81ACcqotQd1N0IhtIv1R3U3QglQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAAAGKwQFAgAAAAYxMDYuMzMAhWmi1B3U3Qjf/jLVHdTdCCRDSVEuVEVBTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAUhMiDwIAAAAGMTkwLjYyAIVpotQd1N0IaMMz1R3U3QgkQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAFITIg8CAAAABjIwMi43NQAnKqLUHdTdCPNPNdUd1N0IJUNJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAUhMiDwIAAAAGMTMxLjU1ACcqotQd1N0IlO421R3U</t>
+  </si>
+  <si>
+    <t>3QgkQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAFITIg8CAAAABjE1OS45OAAnKqLUHdTdCD+zN9Ud1N0II0NJUS5URUFNLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAFITIg8CAAAABTE3OS43ACcqotQd1N0IpR861R3U3QgiQ0lRLlRFQU0uSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAABSEyIPAgAAAAgzMjUuOTk5OQAnKqLUHdTdCIqVO9Ud1N0IIUNJUS5URUFNLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAABSEyIPAgAAAAYxMzUuMjkAJyqi1B3U3QiwKkHVHdTdCBlDSVEuVEVBTS5JUV9ZRUFSSElHSF9EQVRFAQAAAFITIg8FAAAACTIwMjUvMi8xMAAnKqLUHdTdCFSjQtUd1N0IGENJUS5URUFNLklRX1lFQVJMT1dfREFURQEAAABSEyIPBQAAAAgyMDI0LzgvNQAnKqLUHdTdCPzDRdUd1N0IJUNJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAUhMiDwIAAAAGMjQzLjM4AIVpotQd1N0IvPFC1R3U3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAEtVAAACAAAABTUxMS43AIVpotQd1N0Ioag/1R3U3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAEtVAAACAAAABjM2Ny43OAAnKqLUHdTdCD+zN9Ud1N0IJUNJUS5NU0ZULklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAS1UA</t>
+  </si>
+  <si>
+    <t>AAIAAAAGMjU1LjE0ACcqotQd1N0IpR861R3U3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAEtVAAACAAAABjI2MC43OQAnKqLUHdTdCIqVO9Ud1N0II0NJUS5NU0ZULklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAEtVAAACAAAABjQ0NC4zNAAnKqLUHdTdCBBAPdUd1N0IIkNJUS5NU0ZULklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAS1UAAAIAAAAGNTEzLjM3ACcqotQd1N0I5Q4+1R3U3QghQ0lRLk1TRlQuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAEtVAAACAAAABjM0NC43OQAnKqLUHdTdCPzqP9Ud1N0IGUNJUS5NU0ZULklRX1lFQVJISUdIX0RBVEUBAAAAS1UAAAUAAAAJMjAyNS83LzMxACcqotQd1N0IsCpB1R3U3QgYQ0lRLk1TRlQuSVFfWUVBUkxPV19EQVRFAQAAAEtVAAAFAAAACDIwMjUvNC83ACcqotQd1N0ITQBE1R3U3QglQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAABLVQAAAgAAAAU0MjEuNQCFaaLUHdTdCCMoR9Ud1N0IJENJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAA9SQAAAgAAAAYyMjMuODgAhWmi1B3U3QjdVELVHdTdCCRDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAPUkAAAIAAAAGMTcyLjYxACcqotQd1N0I3/4y1R3U3QglQ0lRLkFNWk4uSVFfQ0xPU0VQ</t>
+  </si>
+  <si>
+    <t>UklDRS4yMDIyLzExLzMwLlVTRAEAAAA9SQAAAgAAAAU5Ni41NAAnKqLUHdTdCGjDM9Ud1N0IJENJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAA9SQAAAgAAAAU5NC44OAAnKqLUHdTdCPNPNdUd1N0II0NJUS5BTVpOLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAD1JAAACAAAABjE4OS41OQAnKqLUHdTdCGjDM9Ud1N0IIkNJUS5BTVpOLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAPUkAAAIAAAAGMjQyLjUyACcqotQd1N0I80811R3U3QghQ0lRLkFNWk4uSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAD1JAAACAAAABjE1MS42MQAnKqLUHdTdCJTuNtUd1N0IGUNJUS5BTVpOLklRX1lFQVJISUdIX0RBVEUBAAAAPUkAAAUAAAAIMjAyNS8yLzQAJyqi1B3U3Qg/szfVHdTdCBhDSVEuQU1aTi5JUV9ZRUFSTE9XX0RBVEUBAAAAPUkAAAUAAAAIMjAyNC84LzUAJyqi1B3U3QiKlTvVHdTdCCVDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAD1JAAACAAAABjIxOS4zOQCFaaLUHdTdCIHQQ9Ud1N0ILkNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAqHEAAAIAAAAGMTgzLjU4AIVpotQd1N0I/Oo/1R3U3QguQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAACocQAAAgAA</t>
+  </si>
+  <si>
+    <t>AAYxNTEuMTYAJyqi1B3U3Qj86j/VHdTdCC9DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAACocQAAAgAAAAYxMDAuOTkAJyqi1B3U3QiwKkHVHdTdCC5DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAKhxAAACAAAABTkzLjk3ACcqotQd1N0IVKNC1R3U3QgtQ0lRLk5BU0RBUUdTOkdPT0dMLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAKhxAAACAAAABjE4MS45MwAnKqLUHdTdCE0ARNUd1N0ILENJUS5OQVNEQVFHUzpHT09HTC5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAKhxAAACAAAABjIwNy4wNQAnKqLUHdTdCPzDRdUd1N0IK0NJUS5OQVNEQVFHUzpHT09HTC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAqHEAAAIAAAAGMTQwLjUzACcqotQd1N0IhtIv1R3U3QgjQ0lRLk5BU0RBUUdTOkdPT0dMLklRX1lFQVJISUdIX0RBVEUBAAAAqHEAAAUAAAAIMjAyNS8yLzQAJyqi1B3U3Qgj4zHVHdTdCCJDSVEuTkFTREFRR1M6R09PR0wuSVFfWUVBUkxPV19EQVRFAQAAAKhxAAAFAAAACDIwMjUvNC83ACcqotQd1N0IaMMz1R3U3QgvQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAqHEAAAIAAAAFMTg5LjMAhWmi1B3U3Qg/szfVHdTdCCRDSVEuVFNMQS5JUV9DTE9T</t>
+  </si>
+  <si>
+    <t>RVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAEMaiAQIAAAAGMzE5LjQxAIVpotQd1N0I+U451R3U3QgkQ0lRLlRTTEEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAABDGogECAAAABjI0MS4zNwAnKqLUHdTdCKUfOtUd1N0IJUNJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAEMaiAQIAAAAFMTk0LjcAJyqi1B3U3QiKlTvVHdTdCCRDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAEMaiAQIAAAAGMTgzLjI2ACcqotQd1N0IEEA91R3U3QgjQ0lRLlRTTEEuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAAEMaiAQIAAAAGMjUxLjA5ACcqotQd1N0IEEA91R3U3QgiQ0lRLlRTTEEuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAQxqIBAgAAAAg0ODguNTM5OQAnKqLUHdTdCBBAPdUd1N0IIUNJUS5UU0xBLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAAQxqIBAgAAAAMxODIAJyqi1B3U3Qj86j/VHdTdCBlDSVEuVFNMQS5JUV9ZRUFSSElHSF9EQVRFAQAAABDGogEFAAAACjIwMjQvMTIvMTgAJyqi1B3U3QiwKkHVHdTdCBhDSVEuVFNMQS5JUV9ZRUFSTE9XX0RBVEUBAAAAEMaiAQUAAAAIMjAyNC84LzUAJyqi1B3U3QhNAETVHdTdCCVDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAABDGogECAAAABjQwMy44NACFaaLUHdTd</t>
+  </si>
+  <si>
+    <t>CLzxQtUd1N0IJENJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAABl+pgCAgAAAAYxNTMuOTkAhWmi1B3U3QghkDzVHdTdCCRDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAZfqYAgIAAAAFOTMuNzgAJyqi1B3U3Qjf/jLVHdTdCCVDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAGX6mAICAAAAAzcuNQAnKqLUHdTdCCPjMdUd1N0IJENJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAABl+pgCAgAAAAQ3Ljg5ACcqotQd1N0I3/4y1R3U3QgjQ0lRLlBMVFIuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAAZfqYAgIAAAAFMjguNDIAJyqi1B3U3QhowzPVHdTdCCJDSVEuUExUUi5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAGX6mAICAAAABjE1NS42OAAnKqLUHdTdCPNPNdUd1N0IIUNJUS5QTFRSLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAABl+pgCAgAAAAUyMS4yMwAnKqLUHdTdCJTuNtUd1N0IGUNJUS5QTFRSLklRX1lFQVJISUdIX0RBVEUBAAAAZfqYAgUAAAAIMjAyNS84LzQAJyqi1B3U3Qg/szfVHdTdCBhDSVEuUExUUi5JUV9ZRUFSTE9XX0RBVEUBAAAAZfqYAgUAAAAIMjAyNC84LzUAJyqi1B3U3QiKlTvVHdTdCCVDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAGX6mAIC</t>
+  </si>
+  <si>
+    <t>AAAABTc1LjYzAIVpotQd1N0IyrpJ1R3U3QgkQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAOdWAAACAAAABjI0OC43NQCFaaLUHdTdCPzqP9Ud1N0IJENJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADnVgAAAgAAAAYxMjguNjIAJyqi1B3U3QiwKkHVHdTdCCVDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAOdWAAACAAAABTgzLjAzACcqotQd1N0IVKNC1R3U3QgkQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAOdWAAACAAAABTg0LjU2ACcqotQd1N0ITQBE1R3U3QgjQ0lRLk9SQ0wuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAA51YAAAIAAAAGMTM5LjM2ACcqotQd1N0I/MNF1R3U3QgiQ0lRLk9SQ0wuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAADnVgAAAgAAAAgyNTEuNTk5OQAnKqLUHdTdCIbSL9Ud1N0IIUNJUS5PUkNMLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAADnVgAAAgAAAAYxMTguODYAJyqi1B3U3QjbbTHVHdTdCBlDSVEuT1JDTC5JUV9ZRUFSSElHSF9EQVRFAQAAAOdWAAAFAAAACTIwMjUvNy8zMQAiP6LUHdTdCN/+MtUd1N0IGENJUS5PUkNMLklRX1lFQVJMT1dfREFURQEAAADnVgAABQAAAAgyMDI1LzQvNwAiP6LUHdTdCPNPNdUd1N0IJUNJUS5PUkNMLklRX0NMT1NFUFJJ</t>
+  </si>
+  <si>
+    <t>Q0UuMjAyNC8xMi8zMS5VU0QBAAAA51YAAAIAAAAGMTY2LjY0AIVpotQd1N0IP7M31R3U3QgkQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAL/7GQMCAAAABTUzLjY5AIVpotQd1N0I+U451R3U3QgkQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAL/7GQMCAAAABTIxLjUzACI/otQd1N0IipU71R3U3QglQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAC/+xkDAwAAAAAAIj+i1B3U3QgQQD3VHdTdCCRDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAv/sZAwMAAAAAACI/otQd1N0IipU71R3U3QgjQ0lRLk5CSVMuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAAv/sZAwMAAAAAACI/otQd1N0IEEA91R3U3QgiQ0lRLk5CSVMuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAC/+xkDAgAAAAU1Ni4xNgAiP6LUHdTdCBBAPdUd1N0IIUNJUS5OQklTLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAC/+xkDAgAAAAUxNC4wOQAiP6LUHdTdCJTUP9Ud1N0IGUNJUS5OQklTLklRX1lFQVJISUdIX0RBVEUBAAAAv/sZAwUAAAAJMjAyNS83LzIxACI/otQd1N0IsCpB1R3U3QgYQ0lRLk5CSVMuSVFfWUVBUkxPV19EQVRFAQAAAL/7GQMFAAAACjIwMjQvMTAvMjEAIj+i1B3U3QhNAETVHdTdCCVDSVEuTkJJUy5JUV9D</t>
+  </si>
+  <si>
+    <t>TE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAL/7GQMCAAAABDI3LjcAhWmi1B3U3QjzTzXVHdTdCCRDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAgIRbDQIAAAAEODYuMwCFaaLUHdTdCEGSP9Ud1N0IJENJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAACAhFsNAgAAAAU3Ny44NwAiP6LUHdTdCN/+MtUd1N0IJUNJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAgIRbDQIAAAAFNjEuMTkAIj+i1B3U3QhowzPVHdTdCCRDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAgIRbDQIAAAAFNTUuMTIAIj+i1B3U3QjzTzXVHdTdCCNDSVEuRVNUQy5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAACAhFsNAgAAAAYxMTUuNTUAIj+i1B3U3QiU7jbVHdTdCCJDSVEuRVNUQy5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAICEWw0CAAAABjExOC44NAAiP6LUHdTdCD+zN9Ud1N0IIUNJUS5FU1RDLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAACAhFsNAgAAAAI2OQAiP6LUHdTdCPlOOdUd1N0IGUNJUS5FU1RDLklRX1lFQVJISUdIX0RBVEUBAAAAgIRbDQUAAAAJMjAyNS8yLzEwACI/otQd1N0IipU71R3U3QgYQ0lRLkVTVEMuSVFfWUVBUkxPV19EQVRFAQAAAICEWw0FAAAACDIwMjQvOS85ACI/otQd1N0IEEA91R3U</t>
+  </si>
+  <si>
+    <t>3QglQ0lRLkVTVEMuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAACAhFsNAgAAAAU5OS4wOACFaaLUHdTdCLzxQtUd1N0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAACwPGQQAgAAAAYyMTEuNTgAhWmi1B3U3QjdVELVHdTdCCRDSVEuU05PVy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAsDxkEAIAAAAGMTQzLjQzACI/otQd1N0ITQBE1R3U3QglQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAACwPGQQAgAAAAUxNDIuOQAiP6LUHdTdCPzDRdUd1N0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAACwPGQQAgAAAAYxMzkuODIAIj+i1B3U3QiG0i/VHdTdCCNDSVEuU05PVy5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAACwPGQQAgAAAAYxMzUuMDMAIj+i1B3U3Qj8w0XVHdTdCCJDSVEuU05PVy5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAALA8ZBACAAAABTIyNi42ACI/otQd1N0IhtIv1R3U3QghQ0lRLlNOT1cuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAALA8ZBACAAAABjEwNy4xMwAiP6LUHdTdCNttMdUd1N0IGUNJUS5TTk9XLklRX1lFQVJISUdIX0RBVEUBAAAAsDxkEAUAAAAJMjAyNS83LzMxACI/otQd1N0I3/4y1R3U3QgYQ0lRLlNOT1cuSVFfWUVBUkxPV19EQVRFAQAAALA8ZBAFAAAA</t>
+  </si>
+  <si>
+    <t>CDIwMjQvOS82ACI/otQd1N0I80811R3U3QglQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAACwPGQQAgAAAAYxNTQuNDEAhWmi1B3U3QgkRUnVHdTdCCRDSVEuRERPRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAu6EECAIAAAAGMTQzLjE1AIVpotQd1N0IFQBF1R3U3QgkQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAALuhBAgCAAAABTkxLjE4ACI/otQd1N0I+U451R3U3QglQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAC7oQQIAgAAAAU3NS43OAAiP6LUHdTdCPM4O9Ud1N0IJENJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAC7oQQIAgAAAAU2NS45NgAiP6LUHdTdCBBAPdUd1N0II0NJUS5ERE9HLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAALuhBAgCAAAABTEyMS43ACI/otQd1N0IEEA91R3U3QgiQ0lRLkRET0cuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAC7oQQIAgAAAAYxNzAuMDgAIj+i1B3U3QiU1D/VHdTdCCFDSVEuRERPRy5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAu6EECAIAAAAFODEuNjMAIj+i1B3U3QiwKkHVHdTdCBlDSVEuRERPRy5JUV9ZRUFSSElHSF9EQVRFAQAAALuhBAgFAAAACTIwMjQvMTIvNgAiP6LUHdTdCN1UQtUd1N0IGENJUS5ERE9HLklRX1lF</t>
+  </si>
+  <si>
+    <t>QVJMT1dfREFURQEAAAC7oQQIBQAAAAgyMDI1LzQvNwAiP6LUHdTdCPzDRdUd1N0IJUNJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAu6EECAIAAAAGMTQyLjg5AIVpotQd1N0IP7M31R3U3QgjQ0lRLk5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAANPXgBAIAAAAGMTkxLjI1AIVpotQd1N0I+U451R3U3QgjQ0lRLk5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAANPXgBAIAAAAFMTA3LjkAIj+i1B3U3QhowzPVHdTdCCRDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAANPXgBAIAAAAFNDkuMTQAIj+i1B3U3QjzTzXVHdTdCCNDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAA09eAEAgAAAAQ1NC44ACI/otQd1N0IlO421R3U3QgiQ0lRLk5FVC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAAA09eAEAgAAAAU4MS4wMQAiP6LUHdTdCD+zN9Ud1N0IIUNJUS5ORVQuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAA09eAEAgAAAAYxOTguMDEAIj+i1B3U3Qg/szfVHdTdCCBDSVEuTkVULklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAA09eAEAgAAAAU2OS4yNgAiP6LUHdTdCPlOOdUd1N0IGENJUS5ORVQuSVFfWUVBUkhJR0hfREFURQEAAAA09eAEBQAAAAgyMDI1LzgvNAAiP6LUHdTdCPM4O9Ud1N0IF0NJ</t>
+  </si>
+  <si>
+    <t>US5ORVQuSVFfWUVBUkxPV19EQVRFAQAAADT14AQFAAAACDIwMjQvOC81ACI/otQd1N0IEEA91R3U3QgkQ0lRLk5FVC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAADT14AQCAAAABjEwNy42OACFaaLUHdTdCLAqQdUd1N0IJENJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAADNhBcRAgAAAAU0My45MgCFaaLUHdTdCN1UQtUd1N0IJENJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADNhBcRAgAAAAQ0Mi45ACI/otQd1N0ITQBE1R3U3QglQ0lRLkdUTEIuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAADNhBcRAgAAAAUzOS41NQAiP6LUHdTdCN1UQtUd1N0IJENJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAADNhBcRAgAAAAUzMy45NgAiP6LUHdTdCE0ARNUd1N0II0NJUS5HVExCLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAM2EFxECAAAABDU0LjUAIj+i1B3U3Qj8w0XVHdTdCCJDSVEuR1RMQi5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAM2EFxECAAAABTc0LjE4ACI/otQd1N0IhtIv1R3U3QghQ0lRLkdUTEIuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAM2EFxECAAAABzM3Ljg5NjkAIj+i1B3U3QjbbTHVHdTdCBlDSVEuR1RMQi5JUV9ZRUFSSElHSF9EQVRFAQAAAM2EFxEFAAAACTIwMjUvMS8zMQAi</t>
+  </si>
+  <si>
+    <t>P6LUHdTdCN/+MtUd1N0IGENJUS5HVExCLklRX1lFQVJMT1dfREFURQEAAADNhBcRBQAAAAgyMDI1LzQvNAAiP6LUHdTdCPNPNdUd1N0IJUNJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAzYQXEQIAAAAFNTYuMzUAhWmi1B3U3Qi88ULVHdTdCCRDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAg32EAQIAAAAGMTk2LjI4AIVpotQd1N0I+U451R3U3QgkQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAIN9hAECAAAABjE2Ny42OQAiP6LUHdTdCPM4O9Ud1N0IJUNJUS5QQU5XLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAg32EAQIAAAAFODQuOTUAIj+i1B3U3QgQQD3VHdTdCCRDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAg32EAQIAAAAFOTIuMjQAIj+i1B3U3QgQQD3VHdTdCCNDSVEuUEFOVy5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAACDfYQBAgAAAAcxNjQuNjM1ACI/otQd1N0IlNQ/1R3U3QgiQ0lRLlBBTlcuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAACDfYQBAgAAAAYyMDguMzkAIj+i1B3U3QiwKkHVHdTdCCFDSVEuUEFOVy5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAg32EAQIAAAAGMTQyLjAxACI/otQd1N0I3VRC1R3U3QgZQ0lRLlBBTlcuSVFfWUVBUkhJR0hfREFU</t>
+  </si>
+  <si>
+    <t>RQEAAACDfYQBBQAAAAkyMDI1LzcvMjkAIj+i1B3U3QhNAETVHdTdCBhDSVEuUEFOVy5JUV9ZRUFSTE9XX0RBVEUBAAAAg32EAQUAAAAIMjAyNC84LzUAIj+i1B3U3QiG0i/VHdTdCCVDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAIN9hAECAAAABjE4MS45NgCFaaLUHdTdCE3mSNUd1N0II0NJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAOJuzAICAAAABjIxOC41MwCFaaLUHdTdCGjDM9Ud1N0II0NJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAOJuzAICAAAABjE1OS4yNgAiP6LUHdTdCPNPNdUd1N0IJENJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAADibswCAgAAAAYxNTIuNjkAIj+i1B3U3QiU7jbVHdTdCCNDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAADibswCAgAAAAYyMDQuNjgAIj+i1B3U3QjzTzXVHdTdCCJDSVEuTURCLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAOJuzAICAAAAAzI2MwAiP6LUHdTdCJTuNtUd1N0IIUNJUS5NREIuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAADibswCAgAAAAMzNzAAIj+i1B3U3Qg/szfVHdTdCCBDSVEuTURCLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAADibswCAgAAAAYxNDAuNzgAIj+i1B3U3Qj5TjnVHdTdCBhDSVEuTURCLklR</t>
+  </si>
+  <si>
+    <t>X1lFQVJISUdIX0RBVEUBAAAA4m7MAgUAAAAJMjAyNC8xMi85ACI/otQd1N0I8zg71R3U3QgXQ0lRLk1EQi5JUV9ZRUFSTE9XX0RBVEUBAAAA4m7MAgUAAAAIMjAyNS80LzcAIj+i1B3U3QgQQD3VHdTdCCRDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAA4m7MAgIAAAAGMjMyLjgxAIVpotQd1N0IsCpB1R3U3QgkQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAALjKpQYCAAAABTU3LjI1AIVpotQd1N0I3VRC1R3U3QgkQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAALjKpQYCAAAABTQxLjc1ACI/otQd1N0ITQBE1R3U3QglQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAC4yqUGAgAAAAUyOS4xOQAiP6LUHdTdCPzDRdUd1N0IJENJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAC4yqUGAgAAAAUyMy40NgAiP6LUHdTdCIbSL9Ud1N0II0NJUS5QU1RHLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAALjKpQYCAAAABTYxLjQ5ACI/otQd1N0I220x1R3U3QgiQ0lRLlBTVEcuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAC4yqUGAgAAAAU3My42NwAiP6LUHdTdCN/+MtUd1N0IIUNJUS5QU1RHLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAC4yqUGAgAAAAUzNC41MQAiP6LUHdTdCGjD</t>
+  </si>
+  <si>
+    <t>M9Ud1N0IGUNJUS5QU1RHLklRX1lFQVJISUdIX0RBVEUBAAAAuMqlBgUAAAAJMjAyNS8xLzIyACI/otQd1N0I80811R3U3QgYQ0lRLlBTVEcuSVFfWUVBUkxPV19EQVRFAQAAALjKpQYFAAAACDIwMjUvNC83ACI/otQd1N0IP7M31R3U3QglQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAAC4yqUGAgAAAAU2MS40MwCFaaLUHdTdCET/QNUd1N0IIkNJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAA1MyBAwIAAAAGMjg2LjI5AIVpotQd1N0I3VRC1R3U3QgiQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADUzIEDAgAAAAYyMDEuMDkAIj+i1B3U3QgQQD3VHdTdCCNDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAADUzIEDAgAAAAYxMzMuNDUAIj+i1B3U3QiU1D/VHdTdCCJDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAANTMgQMCAAAABjEwNy45NwAiP6LUHdTdCLAqQdUd1N0IIUNJUS5aUy5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAADUzIEDAgAAAAYxOTQuOTYAIj+i1B3U3QiU1D/VHdTdCCBDSVEuWlMuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAADUzIEDAgAAAAgzMTguNDU5OQAiP6LUHdTdCLAqQdUd1N0IH0NJUS5aUy5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAA1MyBAwIAAAAGMTUz</t>
+  </si>
+  <si>
+    <t>LjQ1ACI/otQd1N0I3VRC1R3U3QgXQ0lRLlpTLklRX1lFQVJISUdIX0RBVEUBAAAA1MyBAwUAAAAIMjAyNS83LzgAIj+i1B3U3QhNAETVHdTdCBZDSVEuWlMuSVFfWUVBUkxPV19EQVRFAQAAANTMgQMFAAAACTIwMjQvOS8xMAAiP6LUHdTdCIbSL9Ud1N0II0NJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAANTMgQMCAAAABjE4MC40MQCFaaLUHdTdCFRnQ9Ud1N0IJENJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAmAXoQAgAAAAUyNS40MwCFaaLUHdTdCBUARdUd1N0IJENJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAAmAXoQAgAAAAUyMS4xNQAiP6LUHdTdCGjDM9Ud1N0IJUNJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAJgF6EAIAAAAFMjMuMDMAIj+i1B3U3QjzTzXVHdTdCCRDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAJgF6EAIAAAAEMjIuNgAiP6LUHdTdCJTuNtUd1N0II0NJUS5DRkxULklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAACYBehACAAAABTI2LjA2ACI/otQd1N0IP7M31R3U3QgiQ0lRLkNGTFQuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAmAXoQAgAAAAQzNy45ACI/otQd1N0I+U451R3U3QghQ0lRLkNGTFQuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAA</t>
+  </si>
+  <si>
+    <t>ACYBehACAAAABTE3Ljc5ACI/otQd1N0I8zg71R3U3QgZQ0lRLkNGTFQuSVFfWUVBUkhJR0hfREFURQEAAAAmAXoQBQAAAAkyMDI1LzIvMTIAIj+i1B3U3QgQQD3VHdTdCBhDSVEuQ0ZMVC5JUV9ZRUFSTE9XX0RBVEUBAAAAJgF6EAUAAAAIMjAyNS84LzEAIj+i1B3U3QiG0i/VHdTdCCVDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAACYBehACAAAABTI3Ljk2AIVpotQd1N0IrRtI1R3U3QgkQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAADN+AAACAAAAAzE3MwCFaaLUHdTdCBBAPdUd1N0IJENJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAAzfgAAAgAAAAYxMDEuNDkAIj+i1B3U3QgQQD3VHdTdCCVDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAADN+AAACAAAABjE2LjkyMwAiP6LUHdTdCBK+P9Ud1N0IJENJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAAzfgAAAgAAAAYyNC4wNjMAIj+i1B3U3QiwKkHVHdTdCCNDSVEuTlZEQS5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAAAzfgAAAgAAAAYxMjEuODUAIj+i1B3U3QjdVELVHdTdCCJDSVEuTlZEQS5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAADN+AAACAAAABjE3NC4xNgAiP6LUHdTdCE0ARNUd1N0IIUNJUS5OVkRBLklRX1lF</t>
+  </si>
+  <si>
+    <t>QVJMT1cuMjAyNS83LzE3LlVTRAEAAAAzfgAAAgAAAAU4Ni42MgAiP6LUHdTdCBUARdUd1N0IGUNJUS5OVkRBLklRX1lFQVJISUdIX0RBVEUBAAAAM34AAAUAAAAJMjAyNS83LzMxACI/otQd1N0IhtIv1R3U3QgYQ0lRLk5WREEuSVFfWUVBUkxPV19EQVRFAQAAADN+AAAFAAAACDIwMjUvNC83ACI/otQd1N0I3/4y1R3U3QglQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAAAzfgAAAgAAAAYxMzQuMjkAhWmi1B3U3QjzODvVHdTdCCRDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAaWEAAAIAAAAGMjEwLjAyAIVpotQd1N0IIZA81R3U3QgkQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAGlhAAACAAAABjE5Ni45OAAiP6LUHdTdCD+zN9Ud1N0IJUNJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAaWEAAAIAAAAGMTQ4LjAzACI/otQd1N0I+U451R3U3QgkQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAGlhAAACAAAABjE1Mi41OQAoVKLUHdTdCPM4O9Ud1N0II0NJUS5BQVBMLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAGlhAAACAAAABjIzMC4yOAAoVKLUHdTdCPlOOdUd1N0IIkNJUS5BQVBMLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAaWEAAAIAAAAFMjYwLjEAKFSi1B3U</t>
+  </si>
+  <si>
+    <t>3QjzODvVHdTdCCFDSVEuQUFQTC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAaWEAAAIAAAAIMTY5LjIxMDEAKFSi1B3U3QgQQD3VHdTdCBlDSVEuQUFQTC5JUV9ZRUFSSElHSF9EQVRFAQAAAGlhAAAFAAAACjIwMjQvMTIvMjYAKFSi1B3U3QgQQD3VHdTdCBhDSVEuQUFQTC5JUV9ZRUFSTE9XX0RBVEUBAAAAaWEAAAUAAAAIMjAyNS80LzgAKFSi1B3U3QiwKkHVHdTdCCVDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAGlhAAACAAAABjI1MC40MgCFaaLUHdTdCE0ARNUd1N0IJENJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAADwtn0BAgAAAAYyODYuNDUAhWmi1B3U3QgVAEXVHdTdCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAA8LZ9AQIAAAAGMTcwLjk5AChUotQd1N0IFQBF1R3U3QglQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAADwtn0BAgAAAAY1NS4xMDMAKFSi1B3U3QiG0i/VHdTdCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAA8LZ9AQIAAAAGNjMuMjQ2AChUotQd1N0I220x1R3U3QgjQ0lRLkFWR08uSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAA8LZ9AQIAAAAGMTU4Ljg5AChUotQd1N0I3/4y1R3U3QgiQ0lRLkFWR08uSVFfWUVBUkhJR0guMjAyNS83LzE3</t>
+  </si>
+  <si>
+    <t>LlVTRAEAAADwtn0BAgAAAAYyODguMjgAKFSi1B3U3QhowzPVHdTdCCFDSVEuQVZHTy5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAA8LZ9AQIAAAAFMTI4LjUAKFSi1B3U3QjzTzXVHdTdCBlDSVEuQVZHTy5JUV9ZRUFSSElHSF9EQVRFAQAAAPC2fQEFAAAACTIwMjUvNy8zMQAoVKLUHdTdCJTuNtUd1N0IGENJUS5BVkdPLklRX1lFQVJMT1dfREFURQEAAADwtn0BBQAAAAgyMDI0LzgvNQAoVKLUHdTdCPlOOdUd1N0IJUNJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAA8LZ9AQIAAAAGMjMxLjg0AIVpotQd1N0IvPFC1R3U3QgpQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAq8wFAAIAAAALMzguMzkzNTg1MTIAhWmi1B3U3QgQQD3VHdTdCClDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAACrzAUAAgAAAAwyNi4wNDYzMTEyOTEAKFSi1B3U3QgSvj/VHdTdCCpDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAq8wFAAIAAAALMTUuODUzNTAwNjcAKFSi1B3U3QiwKkHVHdTdCClDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAACrzAUAAgAAAAoxNi42ODU3NTE2AChUotQd1N0I3VRC1R3U3QgoQ0lRLlRXU0U6MjMzMC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4</t>
+  </si>
+  <si>
+    <t>LlVTRAEAAACrzAUAAgAAAAwzMC4yMTc3NjM2MjgAKFSi1B3U3Qhd7EPVHdTdCCdDSVEuVFdTRToyMzMwLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAq8wFAAIAAAALMzkuNDEyODgzODQAKFSi1B3U3Qhd7EPVHdTdCCZDSVEuVFdTRToyMzMwLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAACrzAUAAgAAAAsyNi41MDE3NjY3MgAoVKLUHdTdCBUARdUd1N0IHkNJUS5UV1NFOjIzMzAuSVFfWUVBUkhJR0hfREFURQEAAACrzAUABQAAAAkyMDI1LzcvMzEAKFSi1B3U3QiG0i/VHdTdCB1DSVEuVFdTRToyMzMwLklRX1lFQVJMT1dfREFURQEAAACrzAUABQAAAAgyMDI1LzQvOQAoVKLUHdTdCN/+MtUd1N0IKkNJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAACrzAUAAgAAAAszMi43OTQzODY0NQCFaaLUHdTdCK0bSNUd1N0ILENJUS5LT1NFOkEwMDA2NjAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAJ16DQACAAAACzE5My43MjMzMzc1AIVpotQd1N0IlO421R3U3QgsQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAnXoNAAIAAAAIMTIzLjY1NTcAKFSi1B3U3Qg/szfVHdTdCC1DSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAAnXoNAAIAAAAJNjQuNTUzMzM1AChUotQd1N0IlO421R3U</t>
+  </si>
+  <si>
+    <t>3QgsQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAnXoNAAIAAAAKNjIuMTQ2MDM3OQAoVKLUHdTdCD+zN9Ud1N0IK0NJUS5LT1NFOkEwMDA2NjAuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAAnXoNAAIAAAALMTUzLjcyODIzNzUAKFSi1B3U3Qj5TjnVHdTdCCpDSVEuS09TRTpBMDAwNjYwLklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAnXoNAAIAAAALMjIwLjMxOTg2MjUAKFSi1B3U3QjzODvVHdTdCClDSVEuS09TRTpBMDAwNjYwLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAACdeg0AAgAAAAsxMDQuMDEzOTc3NQAoVKLUHdTdCCGQPNUd1N0IIUNJUS5LT1NFOkEwMDA2NjAuSVFfWUVBUkhJR0hfREFURQEAAACdeg0ABQAAAAkyMDI1LzcvMTEAKFSi1B3U3QgQQD3VHdTdCCBDSVEuS09TRTpBMDAwNjYwLklRX1lFQVJMT1dfREFURQEAAACdeg0ABQAAAAkyMDI0LzkvMTkAKFSi1B3U3QiwKkHVHdTdCC1DSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAnXoNAAMAAAAAAIVpotQd1N0IXexD1R3U3QgtQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAACjvBQACAAAABjc0NC45MQCFaaLUHdTdCBUARdUd1N0ILUNJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS80</t>
+  </si>
+  <si>
+    <t>LzE3LlVTRAEAAAAo7wUAAgAAAAY2NDAuMTYAKFSi1B3U3Qg9dy/VHdTdCC5DSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAACjvBQACAAAABjYwOC4xMgAoVKLUHdTdCNttMdUd1N0ILUNJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAAo7wUAAgAAAAU2MjAuMwAoVKLUHdTdCN/+MtUd1N0ILENJUS5OQVNEQVFHUzpBU01MLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAACjvBQACAAAABTk1My41AChUotQd1N0IaMMz1R3U3QgrQ0lRLk5BU0RBUUdTOkFTTUwuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAo7wUAAgAAAAY5NTcuMjEAKFSi1B3U3QjzTzXVHdTdCCpDSVEuTkFTREFRR1M6QVNNTC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAKO8FAAIAAAAGNTc4LjUxAChUotQd1N0IlO421R3U3QgiQ0lRLk5BU0RBUUdTOkFTTUwuSVFfWUVBUkhJR0hfREFURQEAAAAo7wUABQAAAAkyMDI0LzgvMjEAKFSi1B3U3Qg/szfVHdTdCCFDSVEuTkFTREFRR1M6QVNNTC5JUV9ZRUFSTE9XX0RBVEUBAAAAKO8FAAUAAAAIMjAyNS80LzcAKFSi1B3U3QjzODvVHdTdCC5DSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAACjvBQACAAAABjY5My4wOACFaaLUHdTdCFRnQ9Ud1N0IJENJUS5N</t>
+  </si>
+  <si>
+    <t>UlZMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAC2eQAAAgAAAAU3Mi4wMQCFaaLUHdTdCBUARdUd1N0IJENJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAC2eQAAAgAAAAQ1MS43AChUotQd1N0IsCpB1R3U3QglQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAC2eQAAAgAAAAU0Ni41MgAoVKLUHdTdCN1UQtUd1N0IJENJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAC2eQAAAgAAAAUzOC42MQAoVKLUHdTdCLAqQdUd1N0II0NJUS5NUlZMLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAALZ5AAACAAAABTY5Ljc0AChUotQd1N0I3VRC1R3U3QgiQ0lRLk1SVkwuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAC2eQAAAgAAAAYxMjcuNDgAKFSi1B3U3Qhd7EPVHdTdCCFDSVEuTVJWTC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAtnkAAAIAAAAGNDcuMDg1AChUotQd1N0IFQBF1R3U3QgZQ0lRLk1SVkwuSVFfWUVBUkhJR0hfREFURQEAAAC2eQAABQAAAAkyMDI1LzEvMjMAKFSi1B3U3Qg9dy/VHdTdCBhDSVEuTVJWTC5JUV9ZRUFSTE9XX0RBVEUBAAAAtnkAAAUAAAAIMjAyNS80LzcAKFSi1B3U3Qjf/jLVHdTdCCVDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAALZ5AAACAAAABjExMC40NQCF</t>
+  </si>
+  <si>
+    <t>aaLUHdTdCLzxQtUd1N0II0NJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAESbhyICAAAABjEzMS4xMgCFaaLUHdTdCJTuNtUd1N0II0NJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAESbhyICAAAABTczLjIxAChUotQd1N0IP7M31R3U3QgkQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAESbhyICAAAABTEzLjg1AChUotQd1N0I+U451R3U3QgjQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAARJuHIgIAAAAFMTMuOTUAKFSi1B3U3QjzODvVHdTdCCJDSVEuVlJULklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAESbhyICAAAABTgzLjYzAChUotQd1N0IIZA81R3U3QghQ0lRLlZSVC5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAAESbhyICAAAABjE1NS44NAAoVKLUHdTdCBBAPdUd1N0IIENJUS5WUlQuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAESbhyICAAAABDUzLjYAKFSi1B3U3QgSvj/VHdTdCBhDSVEuVlJULklRX1lFQVJISUdIX0RBVEUBAAAARJuHIgUAAAAJMjAyNS8xLzI0AChUotQd1N0IsCpB1R3U3QgXQ0lRLlZSVC5JUV9ZRUFSTE9XX0RBVEUBAAAARJuHIgUAAAAIMjAyNS80LzcAKFSi1B3U3Qhd7EPVHdTdCCRDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAARJuHIgIA</t>
+  </si>
+  <si>
+    <t>AAAGMTEzLjYxAIVpotQd1N0ItbxH1R3U3QgkQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAMPb/AECAAAABjExMS45OACFaaLUHdTdCCGQPNUd1N0IJENJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADD2/wBAgAAAAQ3MS4yAChUotQd1N0I3/4y1R3U3QglQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAADD2/wBAgAAAAYzNC44MjUAKFSi1B3U3QhowzPVHdTdCCRDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAAw9v8AQIAAAAHMzguMjg3NQAoVKLUHdTdCPNPNdUd1N0II0NJUS5BTkVULklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAMPb/AECAAAABjg0LjY2NQAoVKLUHdTdCGjDM9Ud1N0IIkNJUS5BTkVULklRX1lFQVJISUdILjIwMjUvNy8xNy5VU0QBAAAAw9v8AQIAAAAHMTMzLjU3NQAoVKLUHdTdCPNPNdUd1N0IIUNJUS5BTkVULklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAADD2/wBAgAAAAU1OS40MwAoVKLUHdTdCJTuNtUd1N0IGUNJUS5BTkVULklRX1lFQVJISUdIX0RBVEUBAAAAw9v8AQUAAAAJMjAyNS8xLzI0AChUotQd1N0IP7M31R3U3QgYQ0lRLkFORVQuSVFfWUVBUkxPV19EQVRFAQAAAMPb/AEFAAAACDIwMjUvNC83AChUotQd1N0I8zg71R3U3QglQ0lRLkFORVQuSVFfQ0xPU0VQUklD</t>
+  </si>
+  <si>
+    <t>RS4yMDI0LzEyLzMxLlVTRAEAAADD2/wBAgAAAAYxMTAuNTMAhWmi1B3U3QgQQD3VHdTdCClDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAA9N1wAAgAAAAs0Ny4yMjc1MDczNgCFaaLUHdTdCBK+P9Ud1N0IKUNJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAD03XAACAAAACzQxLjIwNjY3OTAyAChUotQd1N0IEr4/1R3U3QgqQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAAD03XAACAAAADDIzLjcxNTU0MjgzOQAoVKLUHdTdCJsUQdUd1N0IKUNJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAD03XAACAAAACzI0Ljg5Nzc1ODc2AChUotQd1N0I3VRC1R3U3QgoQ0lRLlRXU0U6MjQ1NC5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAAA9N1wAAgAAAAszOC44NDI2NzE4NwAoVKLUHdTdCIHQQ9Ud1N0IJ0NJUS5UV1NFOjI0NTQuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAA9N1wAAgAAAAo1My41MTMxODI4AChUotQd1N0IFQBF1R3U3QgmQ0lRLlRXU0U6MjQ1NC5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAAPTdcAAIAAAAMMzMuMzMxMDY4MTQ0AChUotQd1N0IPXcv1R3U3QgeQ0lRLlRXU0U6MjQ1NC5JUV9ZRUFSSElHSF9EQVRFAQAAAD03XAAFAAAACTIwMjUvMi8y</t>
+  </si>
+  <si>
+    <t>NgAoVKLUHdTdCNttMdUd1N0IHUNJUS5UV1NFOjI0NTQuSVFfWUVBUkxPV19EQVRFAQAAAD03XAAFAAAACDIwMjQvOC81AChUotQd1N0IaMMz1R3U3QgqQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAD03XAACAAAACzQzLjE2NjU2NDQ5AIVpotQd1N0IRP9A1R3U3QgiQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAGaQQAAgAAAAYxMTMuMjYAhWmi1B3U3Qg/szfVHdTdCCJDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAAZpBAACAAAABDY4LjgAKFSi1B3U3Qj5TjnVHdTdCCNDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAAGaQQAAgAAAAU1Ny42NQAoVKLUHdTdCPM4O9Ud1N0IIkNJUS5NVS5JUV9DTE9TRVBSSUNFLjIwMjMvMy8xNC5VU0QBAAAABmkEAAIAAAAFNTQuMjcAKFSi1B3U3QghkDzVHdTdCCFDSVEuTVUuSVFfT1BFTlBSSUNFLjIwMjQvNy8xOC5VU0QBAAAABmkEAAIAAAAFMTIwLjUAKFSi1B3U3QgQQD3VHdTdCCBDSVEuTVUuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAGaQQAAgAAAAYxMjkuODUAKFSi1B3U3QgQQD3VHdTdCB9DSVEuTVUuSVFfWUVBUkxPVy4yMDI1LzcvMTcuVVNEAQAAAAZpBAACAAAABTYxLjU0AChUotQd1N0Ioag/1R3U3QgXQ0lRLk1VLklRX1lFQVJISUdIX0RBVEUB</t>
+  </si>
+  <si>
+    <t>AAAABmkEAAUAAAAJMjAyNS82LzI2AChUotQd1N0ImxRB1R3U3QgWQ0lRLk1VLklRX1lFQVJMT1dfREFURQEAAAAGaQQABQAAAAgyMDI1LzQvNwAoVKLUHdTdCIHQQ9Ud1N0II0NJUS5NVS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAAZpBAACAAAABTg0LjE2AIVpotQd1N0IvPFC1R3U3QgkQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAANWCAAACAAAABjE1Mi42MQCFaaLUHdTdCJTuNtUd1N0IJENJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADVggAAAgAAAAYxMzYuNjYAKFSi1B3U3Qjf/jLVHdTdCCVDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjIvMTEvMzAuVVNEAQAAANWCAAACAAAABjEyNi40OQAoVKLUHdTdCNttMdUd1N0IJENJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAADVggAAAgAAAAYxMTYuNTUAKFSi1B3U3Qjf/jLVHdTdCCNDSVEuUUNPTS5JUV9PUEVOUFJJQ0UuMjAyNC83LzE4LlVTRAEAAADVggAAAgAAAAYxOTMuNzgAKFSi1B3U3QhowzPVHdTdCCJDSVEuUUNPTS5JUV9ZRUFSSElHSC4yMDI1LzcvMTcuVVNEAQAAANWCAAACAAAABjE5Ni4yNAAoVKLUHdTdCPNPNdUd1N0IIUNJUS5RQ09NLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAADVggAAAgAAAAgxMjAuODAxOQAoVKLUHdTdCJTuNtUd1N0IGUNJ</t>
+  </si>
+  <si>
+    <t>US5RQ09NLklRX1lFQVJISUdIX0RBVEUBAAAA1YIAAAUAAAAJMjAyNC8xMS83AChUotQd1N0IP7M31R3U3QgYQ0lRLlFDT00uSVFfWUVBUkxPV19EQVRFAQAAANWCAAAFAAAACDIwMjUvNC83AChUotQd1N0I8zg71R3U3QglQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAADVggAAAgAAAAYxNTMuNjIAhWmi1B3U3QgaUEfVHdTdCCRDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAA1IgAAAIAAAAGNTg5LjAxAIVpotQd1N0Ioag/1R3U3QgkQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAANSIAAACAAAABjQxMy4zMgAoVKLUHdTdCJsUQdUd1N0IJUNJUS5TTlBTLklRX0NMT1NFUFJJQ0UuMjAyMi8xMS8zMC5VU0QBAAAA1IgAAAIAAAAGMzM5LjU0AChUotQd1N0I3VRC1R3U3QgkQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAANSIAAACAAAABjM2OS44NAAoVKLUHdTdCIHQQ9Ud1N0II0NJUS5TTlBTLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAANSIAAACAAAABTU3Ni4zAChUotQd1N0IFQBF1R3U3QgiQ0lRLlNOUFMuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAADUiAAAAgAAAAY1OTMuOTgAKFSi1B3U3Qg9dy/VHdTdCCFDSVEuU05QUy5JUV9ZRUFSTE9XLjIwMjUvNy8xNy5VU0QBAAAA1IgAAAIAAAAG</t>
+  </si>
+  <si>
+    <t>MzY1Ljc0AChUotQd1N0I220x1R3U3QgZQ0lRLlNOUFMuSVFfWUVBUkhJR0hfREFURQEAAADUiAAABQAAAAkyMDI1LzcvMzAAKFSi1B3U3Qjf/jLVHdTdCBhDSVEuU05QUy5JUV9ZRUFSTE9XX0RBVEUBAAAA1IgAAAUAAAAIMjAyNS80LzcAKFSi1B3U3QjzTzXVHdTdCCVDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAANSIAAACAAAABjQ4NS4zNgCFaaLUHdTdCD+zN9Ud1N0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAACznxScCAAAABjE1Ny4xOACFaaLUHdTdCPlOOdUd1N0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAACznxScCAAAABjEwMC43MwAoVKLUHdTdCPM4O9Ud1N0IJENJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAAs58UnAwAAAAAAKFSi1B3U3QghkDzVHdTdCCNDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAAs58UnAwAAAAAAKFSi1B3U3QjzODvVHdTdCCJDSVEuQVJNLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAACznxScCAAAABjE2NS44NQAoVKLUHdTdCCGQPNUd1N0IIUNJUS5BUk0uSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAs58UnAgAAAAYxODIuODgAKFSi1B3U3QgQQD3VHdTdCCBDSVEuQVJNLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAAs</t>
+  </si>
+  <si>
+    <t>58UnAgAAAAI4MAAoVKLUHdTdCKGoP9Ud1N0IGENJUS5BUk0uSVFfWUVBUkhJR0hfREFURQEAAAAs58UnBQAAAAkyMDI1LzEvMjIAKFSi1B3U3QibFEHVHdTdCBdDSVEuQVJNLklRX1lFQVJMT1dfREFURQEAAAAs58UnBQAAAAgyMDI1LzQvNwAoVKLUHdTdCIHQQ9Ud1N0IJENJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAAAs58UnAgAAAAYxMjMuMzYAhWmi1B3U3QhSOjTVHdTdCDNDSVEuTkFTREFRR006UVFRLklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzEBAAAADrp7AAIAAAAJMzUzMTYwLjE4AFKDJNQd1N0I0og01R3U3Qg0Q0lRLk5BU0RBUUdNOkFHSVguSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAAAj9wBwAgAAAAUyNi45OQBSgyTUHdTdCK0bSNUd1N0IM0NJUS5OQVNEQVFHTTpTTUguSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAABgwjYAAgAAAAgyNjgwMi43MwBSgyTUHdTdCK0bSNUd1N0IL0NJUS5CQVRTOklHVi5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC8xAQAAAM06hgACAAAACDExOTcwLjAxAFKDJNQd1N0I+U451R3U3Qg0Q0lRLk5BU0RBUUdNOkJPVFouSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAAD3/QgWAgAAAAcyNzU2LjA1AFKDJNQd1N0IvRE71R3U3QgzQ0lRLk5BU0RB</t>
+  </si>
+  <si>
+    <t>UUdNOkFJUS5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC8xAQAAAOncYiECAAAABzM3MDcuNjcAUoMk1B3U3QghkDzVHdTdCDBDSVEuQVJDQTpBUlRZLklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzEBAAAAbh9pIQIAAAAHMTA5MC41MQBSgyTUHdTdCL0RO9Ud1N0INENJUS5OQVNEQVFHTTpST0JULklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzEBAAAAXGPZIAIAAAAGNTAwLjQ2AFKDJNQd1N0IIZA81R3U3QgwQ0lRLkFSQ0E6SUdQVC5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC8xAQAAAMwCXgECAAAABjQ4MS42NQBSgyTUHdTdCLW8R9Ud1N0IMENJUS5CQVRTOldUQUkuSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAABgTm9kAgAAAAYyMTcuMDQAUoMk1B3U3QghfT/VHdTdCDBDSVEuQVJDQTpUSE5RLklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzEBAAAArsN+JAIAAAAGMTk5LjQxAFKDJNQd1N0I8OlA1R3U3Qg0Q0lRLk5BU0RBUUdNOkZEVFguSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAAC9pZ0mAgAAAAYxNzguODQAUoMk1B3U3QjoIkrVHdTdCDBDSVEuQVJDQTpDSEFULklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzEBAAAAADA1bQIAAAAGMzQ3LjAxAFKDJNQd1N0IVGdD1R3U</t>
+  </si>
+  <si>
+    <t>3QgwQ0lRLkFSQ0E6TE9VUC5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC8xAQAAAFlcDyICAAAABTk5LjE3AFKDJNQd1N0IFQBF1R3U3QgwQ0lRLkFSQ0E6TFJOWi5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC8xAQAAALV2wyYCAAAABTMzLjMxAFKDJNQd1N0IzdlG1R3U3QgvQ0lRLkFSQ0E6QUlTLklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzEBAAAAmJefcAIAAAAENS42OABSgyTUHdTdCBUARdUd1N0INENJUS5OQVNEQVFHTTpXSVNFLklRX0hPTERJTkdTX0VRVUlUWV9BU1NFVFMuMjAyNS84LzEBAAAA6bBDbgIAAAAFMzAuMTcAUoMk1B3U3QjN2UbVHdTdCC9DSVEuTFNFOlJCT1QuSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAACOeyQUAgAAAAczMjU4LjY2AFKDJNQd1N0I220x1R3U3QgwQ0lRLlhUUkE6WEFJWC5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC8xAQAAADXs4iICAAAABzQ3OTQuNjYAUoMk1B3U3Qjf/jLVHdTdCC9DSVEuQklUOldUQUkuSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAABNulsjAgAAAAY4NzcuMTUAUoMk1B3U3QgaUEfVHdTdCC9DSVEuTFNFOkFJQUcuSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAADwnYIkAgAAAAY3OTcuMzQAUoMk1B3U3QjSiDTVHdTdCC9D</t>
+  </si>
+  <si>
+    <t>SVEuQVNYOlJCVFouSVFfSE9MRElOR1NfRVFVSVRZX0FTU0VUUy4yMDI1LzgvMQEAAAAp7XYiAgAAAAYxOTIuODMAUoMk1B3U3QgaUEfVHdTdCC5DSVEuREI6WEIwVC5JUV9IT0xESU5HU19FUVVJVFlfQVNTRVRTLjIwMjUvOC8xAQAAANMz3ikCAAAABTk0Ljk2AFKDJNQd1N0IyrpJ1R3U3Qg0Q0lRQVZHLk5BU0RBUUdNOkFHSVguSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAAAj9wBwAgAAAA8yOC41NTg5MDQxMDk1ODkAUoMk1B3U3QgjKEfVHdTdCDNDSVFBVkcuTkFTREFRR006U01ILklRX1ZXQVAuMjAyNC8xMi8zMS4yMDI1LzgvMS5VU0QBAAAAYMI2AAIAAAAQMjQzLjc2MDU0Nzk0NTIwNQBSgyTUHdTdCFRnQ9Ud1N0IL0NJUUFWRy5CQVRTOklHVi5JUV9WV0FQLjIwMjQvMTIvMzEuMjAyNS84LzEuVVNEAQAAAM06hgACAAAAEDEwMC42ODEzMDEzNjk4NjMAUoMk1B3U3QgVAEXVHdTdCDRDSVFBVkcuTkFTREFRR006Qk9UWi5JUV9WV0FQLjIwMjQvMTIvMzEuMjAyNS84LzEuVVNEAQAAAPf9CBYCAAAAEDMxLjI2MjUzNDI0NjU3NTMAUoMk1B3U3QjN2UbVHdTdCDNDSVFBVkcuTkFTREFRR006QUlRLklRX1ZXQVAuMjAyNC8xMi8zMS4yMDI1LzgvMS5VU0QBAAAA6dxiIQIAAAAQMzkuODY5MjQ2NTc1MzQyNQBSgyTUHdTdCEWnMNUd1N0IMENJUUFWRy5BUkNBOkFSVFkuSVFfVldBUC4yMDI0</t>
+  </si>
+  <si>
+    <t>LzEyLzMxLjIwMjUvOC8xLlVTRAEAAABuH2khAgAAABAzNi45NDA2ODQ5MzE1MDY5AFKDJNQd1N0I3/4y1R3U3Qg0Q0lRQVZHLk5BU0RBUUdNOlJPQlQuSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAABcY9kgAgAAABA0NC45ODMwMTM2OTg2MzAxAFKDJNQd1N0IRacw1R3U3QgwQ0lRQVZHLkFSQ0E6SUdQVC5JUV9WV0FQLjIwMjQvMTIvMzEuMjAyNS84LzEuVVNEAQAAAMwCXgECAAAAEDQ1LjE4ODU2ODYzNjk4NjMAUoMk1B3U3Qj/fzLVHdTdCDBDSVFBVkcuQkFUUzpXVEFJLklRX1ZXQVAuMjAyNC8xMi8zMS4yMDI1LzgvMS5VU0QBAAAAYE5vZAIAAAAQMjIuMDQ5OTMxNTA2ODQ5MwBSgyTUHdTdCMq6SdUd1N0IMENJUUFWRy5BUkNBOlRITlEuSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAACuw34kAgAAABA1MC4xNTEwMjczOTcyNjAzAFKDJNQd1N0I0og01R3U3Qg0Q0lRQVZHLk5BU0RBUUdNOkZEVFguSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAAC9pZ0mAgAAABAzNS40NjYzNjk4NjMwMTM3AFKDJNQd1N0IgZNJ1R3U3QgwQ0lRQVZHLkFSQ0E6Q0hBVC5JUV9WV0FQLjIwMjQvMTIvMzEuMjAyNS84LzEuVVNEAQAAAAAwNW0CAAAAEDQxLjQ4NTc1MzQyNDY1NzUAUoMk1B3U3QjKuknVHdTdCDBDSVFBVkcuQVJDQTpMT1VQLklRX1ZXQVAuMjAyNC8xMi8zMS4y</t>
+  </si>
+  <si>
+    <t>MDI1LzgvMS5VU0QBAAAAWVwPIgIAAAAQNTQuNjQxOTE3ODA4MjE5MgBSgyTUHdTdCPlOOdUd1N0IMENJUUFWRy5BUkNBOkxSTlouSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAAC1dsMmAgAAAA80MC4xMzM2OTg2MzAxMzcAUoMk1B3U3Qi9ETvVHdTdCC9DSVFBVkcuQVJDQTpBSVMuSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAACYl59wAgAAABAyNC42MDU5NTg5MDQxMDk2AFKDJNQd1N0IIZA81R3U3Qg0Q0lRQVZHLk5BU0RBUUdNOldJU0UuSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAADpsENuAgAAABAzNC40NjU1NDc5NDUyMDU1AFKDJNQd1N0IvRE71R3U3QgvQ0lRQVZHLkxTRTpSQk9ULklRX1ZXQVAuMjAyNC8xMi8zMS4yMDI1LzgvMS5VU0QBAAAAjnskFAIAAAAQMTQuMDk1MTMyMTE5MjA1MwBSgyTUHdTdCCGQPNUd1N0IL0NJUUFWRy5YVFJBOlhBSVguSVFfVldBUC4yMDIzLzYvMzAuMjAyNS84LzEuVVNEAQAAADXs4iICAAAAEDk0LjE2MjMzNjI2NDUwMzkAUoMk1B3U3QhN5kjVHdTdCC9DSVFBVkcuQklUOldUQUkuSVFfVldBUC4yMDI0LzEyLzMxLjIwMjUvOC8xLlVTRAEAAABNulsjAgAAABA2Ni42NTkzMTgyNzM5MTU5AFKDJNQd1N0Ismc/1R3U3QgvQ0lRQVZHLkxTRTpBSUFHLklRX1ZXQVAuMjAyNC8xMi8zMS4yMDI1LzgvMS5VU0QBAAAA8J2C</t>
+  </si>
+  <si>
+    <t>JAIAAAAQMjIuMTY3MDUyNjYwNTMzOQBSgyTUHdTdCMXUQNUd1N0IL0NJUUFWRy5BU1g6UkJUWi5JUV9WV0FQLjIwMjQvMTIvMzEuMjAyNS84LzEuVVNEAQAAACntdiICAAAAEDkuMDAxOTY5Mzc3MjE0MDUAUoMk1B3U3QgkRUnVHdTdCC1DSVFBVkcuREI6WEIwVC5JUV9WV0FQLjIwMjMvNi8zMC4yMDI1LzgvMS5VU0QBAAAA0zPeKQIAAAAPMTguNjE1NzIwNTI3OTY0AFKDJNQd1N0IVGdD1R3U3Qg0Q0lRQVZHLk5BU0RBUUdNOkFHSVguSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAAAj9wBwAgAAABAyNy40ODI5MTE4NzczOTQ2AFKDJNQd1N0IVGdD1R3U3QgzQ0lRQVZHLk5BU0RBUUdNOlNNSC5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAAGDCNgACAAAAEDIzNi4xNTMwMTUwNzUzNzcAUoMk1B3U3QgVAEXVHdTdCC9DSVFBVkcuQkFUUzpJR1YuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAADNOoYAAgAAAA85Mi41MzY1OTA5NTk3OTkAUoMk1B3U3Qhqi0bVHdTdCDRDSVFBVkcuTkFTREFRR006Qk9UWi5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAAPf9CBYCAAAADzMxLjExNTUyNzYzODE5MQBSgyTUHdTdCEWnMNUd1N0IM0NJUUFWRy5OQVNEQVFHTTpBSVEuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAADp3GIhAgAAABAzNi43</t>
+  </si>
+  <si>
+    <t>NjcyMzYxODA5MDQ1AFKDJNQd1N0I/38y1R3U3QgwQ0lRQVZHLkFSQ0E6QVJUWS5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAAG4faSECAAAAEDM1LjE1NTg1NDI3MTM1NjgAUoMk1B3U3QiBk0nVHdTdCDRDSVFBVkcuTkFTREFRR006Uk9CVC5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAAFxj2SACAAAAEDQ0LjE5OTMyMTYwODA0MDIAUoMk1B3U3Qj/fzLVHdTdCDBDSVFBVkcuQVJDQTpJR1BULklRX1ZXQVAuMjAyMy8xMi8yOS4yMDI1LzgvMS5VU0QBAAAAzAJeAQIAAAAQNDQuODMxMzQ2MTkzNDY3MwBSgyTUHdTdCE3mSNUd1N0IMENJUUFWRy5CQVRTOldUQUkuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAABgTm9kAgAAABAyMS4wNDI5MTQ1NzI4NjQzAFKDJNQd1N0I0og01R3U3QgwQ0lRQVZHLkFSQ0E6VEhOUS5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAAK7DfiQCAAAAEDQ2LjY3MzQ0MjIxMTA1NTMAUoMk1B3U3QiU7jbVHdTdCDRDSVFBVkcuTkFTREFRR006RkRUWC5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAAL2lnSYCAAAAEDMzLjUxMjM2MTgwOTA0NTIAUoMk1B3U3QhN5kjVHdTdCDBDSVFBVkcuQVJDQTpDSEFULklRX1ZXQVAuMjAyMy8xMi8yOS4yMDI1LzgvMS5VU0QBAAAAADA1bQIAAAAQMzguMDU3OTY0ODI0</t>
+  </si>
+  <si>
+    <t>MTIwNgBSgyTUHdTdCPlOOdUd1N0IMENJUUFWRy5BUkNBOkxPVVAuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAABZXA8iAgAAABA1MC4wNjYxODA5MDQ1MjI2AFKDJNQd1N0INfw61R3U3QgwQ0lRQVZHLkFSQ0E6TFJOWi5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAALV2wyYCAAAAEDM5LjEwNjM4MTkwOTU0NzcAUoMk1B3U3QghkDzVHdTdCC9DSVFBVkcuQVJDQTpBSVMuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAACYl59wAgAAABAyNC42Mjc0NTQ1NDU0NTQ1AFKDJNQd1N0IJEVJ1R3U3Qg0Q0lRQVZHLk5BU0RBUUdNOldJU0UuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAADpsENuAgAAAA8zMS4zOTY3ODM5MTk1OTgAUoMk1B3U3QghkDzVHdTdCC9DSVFBVkcuTFNFOlJCT1QuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAACOeyQUAgAAABAxMy41ODc5NzQwMjIyMjIyAFKDJNQd1N0IrRtI1R3U3QgwQ0lRQVZHLlhUUkE6WEFJWC5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAADXs4iIDAAAAAABSgyTUHdTdCCIjP9Ud1N0IL0NJUUFWRy5CSVQ6V1RBSS5JUV9WV0FQLjIwMjMvMTIvMjkuMjAyNS84LzEuVVNEAQAAAE26WyMCAAAAEDY0LjU4Mzk1MzU2MDI0NDcAUoMk1B3U3Qhmv0DVHdTdCC9DSVFBVkcuTFNF</t>
+  </si>
+  <si>
+    <t>OkFJQUcuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAADwnYIkAgAAABAyMC41ODk3NTAwNDc1NDkyAFKDJNQd1N0IrRtI1R3U3QgvQ0lRQVZHLkFTWDpSQlRaLklRX1ZXQVAuMjAyMy8xMi8yOS4yMDI1LzgvMS5VU0QBAAAAKe12IgIAAAAQOS4xMDM5MzM1NDc3MzIxNABSgyTUHdTdCFRnQ9Ud1N0ILkNJUUFWRy5EQjpYQjBULklRX1ZXQVAuMjAyMy8xMi8yOS4yMDI1LzgvMS5VU0QBAAAA0zPeKQMAAAAAAFKDJNQd1N0IFQBF1R3U3QgsQ0lRQVZHLk5BU0RBUUdNOkFHSVguSVFfVk9MVU1FLi0zMEQuMjAyNS84LzEBAAAAI/cAcAIAAAASMC4wMjE3MjYzMTgxODE4MTgyAFKDJNQd1N0IRacw1R3U3QgrQ0lRQVZHLk5BU0RBUUdNOlNNSC5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAABgwjYAAgAAABA3LjY0MTM3OTQ1NDU0NTQ1AFKDJNQd1N0I/38y1R3U3QgnQ0lRQVZHLkJBVFM6SUdWLklRX1ZPTFVNRS4tMzBELjIwMjUvOC8xAQAAAM06hgACAAAAEDQuMjY4MDUyODE4MTgxODIAUoMk1B3U3QgaUEfVHdTdCCxDSVFBVkcuTkFTREFRR006Qk9UWi5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAAD3/QgWAgAAABEwLjY1MTk1NTA0NTQ1NDU0NQBSgyTUHdTdCNKINNUd1N0IK0NJUUFWRy5OQVNEQVFHTTpBSVEuSVFfVk9MVU1FLi0zMEQuMjAyNS84LzEBAAAA6dxiIQIAAAAQMS4wMzIzNDM2</t>
+  </si>
+  <si>
+    <t>ODE4MTgxOABSgyTUHdTdCEDHNtUd1N0IKENJUUFWRy5BUkNBOkFSVFkuSVFfVk9MVU1FLi0zMEQuMjAyNS84LzEBAAAAbh9pIQIAAAARMC40MzkwMjk0MDkwOTA5MDkAUoMk1B3U3QjoIkrVHdTdCCxDSVFBVkcuTkFTREFRR006Uk9CVC5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAABcY9kgAgAAABIwLjA2NTA4MTEzNjM2MzYzNjQAUoMk1B3U3QhAxzbVHdTdCChDSVFBVkcuQVJDQTpJR1BULklRX1ZPTFVNRS4tMzBELjIwMjUvOC8xAQAAAMwCXgECAAAAEjAuMDM5MTcwODYzNjM2MzYzNgBSgyTUHdTdCOgiStUd1N0IKENJUUFWRy5CQVRTOldUQUkuSVFfVk9MVU1FLi0zMEQuMjAyNS84LzEBAAAAYE5vZAIAAAASMC4wODI4OTg1NDU0NTQ1NDU1AFKDJNQd1N0I+U451R3U3QgoQ0lRQVZHLkFSQ0E6VEhOUS5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAACuw34kAgAAABIwLjAyNjYxNTE4MTgxODE4MTgAUoMk1B3U3Qg1/DrVHdTdCCxDSVFBVkcuTkFTREFRR006RkRUWC5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAAC9pZ0mAgAAABIwLjAxODE2MjcyNzI3MjcyNzMAUoMk1B3U3QghkDzVHdTdCChDSVFBVkcuQVJDQTpDSEFULklRX1ZPTFVNRS4tMzBELjIwMjUvOC8xAQAAAAAwNW0CAAAAETAuMTU4ODg2ODYzNjM2MzY0AFKDJNQd1N0IzdlG1R3U3QgoQ0lRQVZHLkFSQ0E6TE9VUC5JUV9WT0xVTUUu</t>
+  </si>
+  <si>
+    <t>LTMwRC4yMDI1LzgvMQEAAABZXA8iAgAAABMwLjAwNjk1NDcyNzI3MjcyNzI3AFKDJNQd1N0IIiM/1R3U3QgoQ0lRQVZHLkFSQ0E6TFJOWi5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAAC1dsMmAgAAABMwLjAwNDQ2NzMxODE4MTgxODE4AFKDJNQd1N0IZr9A1R3U3QgnQ0lRQVZHLkFSQ0E6QUlTLklRX1ZPTFVNRS4tMzBELjIwMjUvOC8xAQAAAJiXn3ACAAAACTAuMDI4MTQ5NQBSgyTUHdTdCCMoR9Ud1N0ILENJUUFWRy5OQVNEQVFHTTpXSVNFLklRX1ZPTFVNRS4tMzBELjIwMjUvOC8xAQAAAOmwQ24CAAAAEjAuMDExMzY2MDkwOTA5MDkwOQBSgyTUHdTdCGa/QNUd1N0IJ0NJUUFWRy5MU0U6UkJPVC5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAACOeyQUAgAAABEwLjE0NzA1ODYwODY5NTY1MgBSgyTUHdTdCOgiStUd1N0IKENJUUFWRy5YVFJBOlhBSVguSVFfVk9MVU1FLi0zMEQuMjAyNS84LzEBAAAANeziIgIAAAARMC4wNjE2NjkzNDc4MjYwODcAUoMk1B3U3QhUZ0PVHdTdCCdDSVFBVkcuQklUOldUQUkuSVFfVk9MVU1FLi0zMEQuMjAyNS84LzEBAAAATbpbIwIAAAASMC4wMTM2NzU3MzkxMzA0MzQ4AFKDJNQd1N0IFQBF1R3U3QgnQ0lRQVZHLkxTRTpBSUFHLklRX1ZPTFVNRS4tMzBELjIwMjUvOC8xAQAAAPCdgiQCAAAAEjAuMDU5OTc1MTczOTEzMDQzNQBSgyTUHdTdCGqLRtUd1N0IJ0NJUUFW</t>
+  </si>
+  <si>
+    <t>Ry5BU1g6UkJUWi5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAAAp7XYiAgAAABIwLjA0NTIyNDU2NTIxNzM5MTMAUoMk1B3U3QhFpzDVHdTdCCZDSVFBVkcuREI6WEIwVC5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAADTM94pAwAAAAAAUoMk1B3U3Qj/fzLVHdTdCDNDSVFBVkcuTkFTREFRR006UVFRLklRX1ZXQVAuMjAyNC8xMi8zMS4yMDI1LzgvMS5VU0QBAAAADrp7AAIAAAAQNTExLjQzMTM2OTg2MzAxNABSgyTUHdTdCCRFSdUd1N0IM0NJUUFWRy5OQVNEQVFHTTpRUVEuSVFfVldBUC4yMDIzLzEyLzI5LjIwMjUvOC8xLlVTRAEAAAAOunsAAgAAABA0ODEuNjI5NzA0MDMwMTUxAFKDJNQd1N0IrRtI1R3U3QgrQ0lRQVZHLk5BU0RBUUdNOlFRUS5JUV9WT0xVTUUuLTMwRC4yMDI1LzgvMQEAAAAOunsAAgAAABA0Mi41MDk2MDU1NDU0NTQ1AFKDJNQd1N0IFQBF1R3U3QgjQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAI/cAcAIAAAAHMzEuMzkwMQBk+STUHdTdCNyJRNUd1N0IJENJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAj9wBwAgAAAAczMi40NTk1AGT5JNQd1N0IyrpJ1R3U3QgkQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAACP3AHACAAAABzMyLjQ2ODIA9TaBugjU3QhVLra7CNTdCCNDSVEuQUdJWC5JUV9DTE9TRVBSSUNF</t>
+  </si>
+  <si>
+    <t>LjIwMjUvNy8xLlVTRAEAAAAj9wBwAgAAAAUzMS4wMgBk+STUHdTdCBUARdUd1N0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEuVVNEAQAAACP3AHACAAAABTI1Ljk3AFKDJNQd1N0IyrpJ1R3U3QgjQ0lRLl5TUFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAm7goAAIAAAAQNjIzOC4wMDY1NzAwNDYwMgBSgyTUHdTdCNttMdUd1N0IJENJUS5eU1BYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACbuCgAAgAAAA82MzM5LjM5NDU2NzE2NTgAUoMk1B3U3Qjf/jLVHdTdCCRDSVEuXlNQWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAm7goAAIAAAAQNjM4OC42NDQ1MDAwNDA1NQD1NoG6CNTdCFc4kbsI1N0II0NJUS5eU1BYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAJu4KAACAAAAEDYxOTguMDA2OTQ1OTczMjEAZPkk1B3U3Qj8w0XVHdTdCCVDSVEuXlNQWC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAJu4KAACAAAAEDU4ODEuNjI3NjQ4MjE0MDkAZPkk1B3U3QitG0jVHdTdCCVDSVEuXlNQWC5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkuVVNEAQAAAJu4KAACAAAAEDQ3NjkuODI5NDEwNzkwNjcAZPkk1B3U3QjSiDTVHdTdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAA66ewACAAAABjU1My44OABS</t>
+  </si>
+  <si>
+    <t>gyTUHdTdCK0bSNUd1N0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAA66ewACAAAABjU2NS4wMQBSgyTUHdTdCMq6SdUd1N0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAA66ewACAAAABjU2Ni4zNwD1NoG6CNTdCHs3xrsI1N0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAADrp7AAIAAAAGNTQ2Ljk5AFKDJNQd1N0I8zg71R3U3QgtQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAA66ewACAAAABjUxMS4yMwBSgyTUHdTdCCGQPNUd1N0ILUNJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5LlVTRAEAAAAOunsAAgAAAAY0MDkuNTIAUoMk1B3U3QhN5kjVHdTdCCNDSVEuXkRKSS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAD4tCgAAgAAABA0MzU4OC41NzgzNDAwNjgzAFKDJNQd1N0IQZI/1R3U3QgkQ0lRLl5ESkkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAPi0KAACAAAAEDQ0MTMwLjk3OTEyMTk4ODMAUoMk1B3U3QjoIkrVHdTdCCRDSVEuXkRKSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAA+LQoAAIAAAAQNDQ5MDEuOTIwOTQwNTMzMgD1NoG6CNTdCGYQxrsI1N0II0NJUS5eREpJLklR</t>
+  </si>
+  <si>
+    <t>X0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAPi0KAACAAAAEDQ0NDk0LjkzNTk0NzY2MjQAUoMk1B3U3QhE/0DVHdTdCCVDSVEuXkRKSS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAPi0KAACAAAAEDQyNTQ0LjIyMzI1MzM5MzIAUoMk1B3U3QitG0jVHdTdCCVDSVEuXkRKSS5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkuVVNEAQAAAPi0KAACAAAAEDM3Njg5LjUzNTY1OTczMDkAUoMk1B3U3QhUZ0PVHdTdCCdDSVEuSFNURUNILklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilSgyTUHdTdCBUARdUd1N0IJ0NJUS5IU1RFQ0guSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5LlVTRAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKVKDJNQd1N0IrRtI1R3U3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADp3GIhAgAAAAU0My40NwBSgyTUHdTdCNttMdUd1N0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAOncYiECAAAABTQ0LjU3AFKDJNQd1N0I3/4y1R3U3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAA6dxiIQIAAAAFNDQuNzQA9TaBugjU3QjnCIm7CNTdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NF</t>
+  </si>
+  <si>
+    <t>UFJJQ0UuMjAyNS83LzEuVVNEAQAAAOncYiECAAAABDQzLjIAUoMk1B3U3Qjf/jLVHdTdCC1DSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyMy8xMi8yOS5VU0QBAAAA6dxiIQIAAAAFMzEuMTgAUoMk1B3U3QjSiDTVHdTdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAGDCNgACAAAABjI4My45NQBSgyTUHdTdCOgiStUd1N0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAGDCNgACAAAABjI4OC43OABSgyTUHdTdCLW8R9Ud1N0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAGDCNgACAAAABjI4Ny40OQD1NoG6CNTdCPa6w7sI1N0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAAYMI2AAIAAAAGMjc1Ljg0AFKDJNQd1N0I8zg71R3U3QgtQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAGDCNgACAAAABjI0Mi4xNwBSgyTUHdTdCCGQPNUd1N0ILUNJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5LlVTRAEAAABgwjYAAgAAAAYxNzQuODcAUoMk1B3U3QghfT/VHdTdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAD3/QgWAgAAAAUzMy4x</t>
+  </si>
+  <si>
+    <t>MgBSgyTUHdTdCPDpQNUd1N0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAD3/QgWAgAAAAUzMy40NwBSgyTUHdTdCM3ZRtUd1N0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAD3/QgWAgAAAAUzNC4zMwD1NoG6CNTdCEsHtrsI1N0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAPf9CBYCAAAABTMyLjE0AFKDJNQd1N0IFQBF1R3U3QgfQ0lRLk5BU0RBUUdNOkFHSVguSVFfTUFSS0VUQ0FQLgEAAAAj9wBwAgAAAAkyOC44MjA0OTQAUoMk1B3U3QhSgyTUHdTdCCdDSVEuTkFTREFRR006QUdJWC5JUV9NQVJLRVRDQVAuMjAyNS84LzEBAAAAI/cAcAIAAAAJMjguMjUxMTUzAFKDJNQd1N0I6CJK1R3U3QgmQ0lRLk5BU0RBUUdNOlNNSC5JUV9NQVJLRVRDQVAuMjAyNS84LzEBAAAAYMI2AAIAAAAMMjY4MzAuOTY3NjIyAFKDJNQd1N0I0og01R3U3QgiQ0lRLkJBVFM6SUdWLklRX01BUktFVENBUC4yMDI1LzgvMQEAAADNOoYAAgAAAAgxMTczMi4wNAEGAAAABQAAAAExAQAAAAstMTkzODcwNzMyNgMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI1UoMk1B3U3QjoIkrVHdTdCCdDSVEuTkFTREFRR006Qk9UWi5JUV9NQVJLRVRDQVAuMjAyNS84LzEBAAAA9/0IFgIAAAAJ</t>
+  </si>
+  <si>
+    <t>Mjc3MC44MTkyAFKDJNQd1N0IyrpJ1R3U3QgmQ0lRLk5BU0RBUUdNOkFJUS5JUV9NQVJLRVRDQVAuMjAyNS84LzEBAAAA6dxiIQIAAAALMzg3OS42OTc1ODcAUoMk1B3U3Qj5TjnVHdTdCCNDSVEuQVJDQTpBUlRZLklRX01BUktFVENBUC4yMDI1LzgvMQEAAABuH2khAgAAAAgxMTg5LjYxOQBSgyTUHdTdCL0RO9Ud1N0IJ0NJUS5OQVNEQVFHTTpST0JULklRX01BUktFVENBUC4yMDI1LzgvMQEAAABcY9kgAgAAAAo1MDQuOTM5MDU4AFKDJNQd1N0IIZA81R3U3QgjQ0lRLkFSQ0E6SUdQVC5JUV9NQVJLRVRDQVAuMjAyNS84LzEBAAAAzAJeAQIAAAAINDkwLjgyMjIBBgAAAAUAAAABMQEAAAALLTE5MzY1MTExOTUDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNVKDJNQd1N0I6CJK1R3U3QgjQ0lRLkJBVFM6V1RBSS5JUV9NQVJLRVRDQVAuMjAyNS84LzEBAAAAYE5vZAIAAAAHMjEyLjA3NgBSgyTUHdTdCK0bSNUd1N0II0NJUS5BUkNBOlRITlEuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xAQAAAK7DfiQCAAAACTIwMi43NTE3NQBSgyTUHdTdCCF9P9Ud1N0IJ0NJUS5OQVNEQVFHTTpGRFRYLklRX01BUktFVENBUC4yMDI1LzgvMQEAAAC9pZ0mAgAAAAkxODAuMzE3NTgAUoMk1B3U3Qjw6UDVHdTdCCNDSVEuQVJDQTpDSEFULklRX01BUktFVENBUC4yMDI1LzgvMQEAAAAAMDVtAgAAAAkzNzUuNTcy</t>
+  </si>
+  <si>
+    <t>NzUAUoMk1B3U3QjoIkrVHdTdCCNDSVEuQVJDQTpMT1VQLklRX01BUktFVENBUC4yMDI1LzgvMQEAAABZXA8iAgAAAAk5OS4zMTIwNjIAUoMk1B3U3QhUZ0PVHdTdCCNDSVEuQVJDQTpMUk5aLklRX01BUktFVENBUC4yMDI1LzgvMQEAAAC1dsMmAgAAAAkzNC4wNTQyNTQAUoMk1B3U3QgVAEXVHdTdCCJDSVEuQVJDQTpBSVMuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xAQAAAJiXn3ACAAAACDIzLjE4NjY0AFKDJNQd1N0ITeZI1R3U3QgnQ0lRLk5BU0RBUUdNOldJU0UuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xAQAAAOmwQ24CAAAACTMxLjcyNjE3NABSgyTUHdTdCNttMdUd1N0II0NJUS5YVFJBOlhBSVguSVFfTUFSS0VUQ0FQLjIwMjUvOC8xAQAAADXs4iICAAAACzQ4MDcuMTA3OTU2AFKDJNQd1N0I3/4y1R3U3QgiQ0lRLkJJVDpXVEFJLklRX01BUktFVENBUC4yMDI1LzgvMQEAAABNulsjAgAAAAo3NjkuMzY4MzI5AFKDJNQd1N0I220x1R3U3QgiQ0lRLkxTRTpBSUFHLklRX01BUktFVENBUC4yMDI1LzgvMQEAAADwnYIkAgAAAAo3NDguMTczNzk4AFKDJNQd1N0I3/4y1R3U3QgiQ0lRLkFTWDpSQlRaLklRX01BUktFVENBUC4yMDI1LzgvMQEAAAAp7XYiAgAAAAozMDQuMjg1OTA4AFKDJNQd1N0IrRtI1R3U3QghQ0lRLkRCOlhCMFQuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xAQAAANMz3ikCAAAACDc3LjQ2NDY2AFKD</t>
+  </si>
+  <si>
+    <t>JNQd1N0I0og01R3U3QgpQ0lRLk5BU0RBUUdNOkFHSVguSVFfTUFSS0VUQ0FQLjIwMjQvMTIvMzEBAAAAI/cAcAIAAAAJMTEuMzcyMDU3AFKDJNQd1N0I+U451R3U3QgoQ0lRLk5BU0RBUUdNOlNNSC5JUV9NQVJLRVRDQVAuMjAyNC8xMi8zMQEAAABgwjYAAgAAAAwyMzMwNi44OTQ2MjcAUoMk1B3U3QjKuknVHdTdCCRDSVEuQkFUUzpJR1YuSVFfTUFSS0VUQ0FQLjIwMjQvMTIvMzEBAAAAzTqGAAIAAAAIOTMyMS4xNzIBBgAAAAUAAAABMQEAAAALLTE5NjQ4OTEzMTIDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAoxMi8zMS8yMDI0UoMk1B3U3Qj5TjnVHdTdCClDSVEuTkFTREFRR006Qk9UWi5JUV9NQVJLRVRDQVAuMjAyNC8xMi8zMQEAAAD3/QgWAgAAAAgyNTgyLjgzOABSgyTUHdTdCL0RO9Ud1N0IKENJUS5OQVNEQVFHTTpBSVEuSVFfTUFSS0VUQ0FQLjIwMjQvMTIvMzEBAAAA6dxiIQIAAAALMjYxMC45MDQ4NzcAUoMk1B3U3QghkDzVHdTdCCVDSVEuQVJDQTpBUlRZLklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAAG4faSECAAAABzcxOS4xNTgAUoMk1B3U3QjKuknVHdTdCClDSVEuTkFTREFRR006Uk9CVC5JUV9NQVJLRVRDQVAuMjAyNC8xMi8zMQEAAABcY9kgAgAAAAk0NDMuNjQ0MDkAUoMk1B3U3QghfT/VHdTdCCVDSVEuQVJDQTpJR1BULklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAAMwC</t>
+  </si>
+  <si>
+    <t>XgECAAAABjQwNy4wNwEGAAAABQAAAAExAQAAAAstMTk4Nzg1Nzk1MwMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACjEyLzMxLzIwMjRSgyTUHdTdCPDpQNUd1N0IJUNJUS5CQVRTOldUQUkuSVFfTUFSS0VUQ0FQLjIwMjQvMTIvMzEBAAAAYE5vZAIAAAAFMjAyLjQAUoMk1B3U3QjN2UbVHdTdCCVDSVEuQVJDQTpUSE5RLklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAAK7DfiQCAAAABjE0OS40NQBSgyTUHdTdCFRnQ9Ud1N0IKUNJUS5OQVNEQVFHTTpGRFRYLklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAAL2lnSYCAAAACjE2Mi4yMDIzNzkAUoMk1B3U3QhN5kjVHdTdCCVDSVEuQVJDQTpDSEFULklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAAAAwNW0CAAAACDIyNS41NjQ1AFKDJNQd1N0IVGdD1R3U3QglQ0lRLkFSQ0E6TE9VUC5JUV9NQVJLRVRDQVAuMjAyNC8xMi8zMQEAAABZXA8iAgAAAAk2Ni42Nzg1NTMAUoMk1B3U3QgVAEXVHdTdCCVDSVEuQVJDQTpMUk5aLklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAALV2wyYCAAAACTMzLjkxMTIwOABSgyTUHdTdCM3ZRtUd1N0IJENJUS5BUkNBOkFJUy5JUV9NQVJLRVRDQVAuMjAyNC8xMi8zMQEAAACYl59wAgAAAAgwLjU5NjMxOABSgyTUHdTdCEWnMNUd1N0IKUNJUS5OQVNEQVFHTTpXSVNFLklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAAOmwQ24C</t>
+  </si>
+  <si>
+    <t>AAAABzIwLjcxOTgAUoMk1B3U3Qjf/jLVHdTdCCVDSVEuWFRSQTpYQUlYLklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAADXs4iICAAAACzQxMDguNTE3MDU2AFKDJNQd1N0IJEVJ1R3U3QgkQ0lRLkJJVDpXVEFJLklRX01BUktFVENBUC4yMDI0LzEyLzMxAQAAAE26WyMCAAAACjc2OS4zNzE3MjYAUoMk1B3U3QjSiDTVHdTdCCRDSVEuTFNFOkFJQUcuSVFfTUFSS0VUQ0FQLjIwMjQvMTIvMzEBAAAA8J2CJAIAAAAKNTk4LjA4MTkwMwBSgyTUHdTdCMq6SdUd1N0IJENJUS5BU1g6UkJUWi5JUV9NQVJLRVRDQVAuMjAyNC8xMi8zMQEAAAAp7XYiAgAAAAoyODcuODQwMDAxAFKDJNQd1N0I0og01R3U3QgjQ0lRLkRCOlhCMFQuSVFfTUFSS0VUQ0FQLjIwMjQvMTIvMzEBAAAA0zPeKQIAAAAFNjEuMjkAUoMk1B3U3QitG0jVHdTdCCRDSVEuTkFTREFRR006QUdJWC5JUV9WT0xVTUUuMjAyNS84LzEBAAAAI/cAcAIAAAAIMC4wMzI1NTkAUoMk1B3U3QitG0jVHdTdCCNDSVEuTkFTREFRR006U01ILklRX1ZPTFVNRS4yMDI1LzgvMQEAAABgwjYAAgAAAAkxNC4wMzIxOTYAUoMk1B3U3Qj5TjnVHdTdCB9DSVEuQkFUUzpJR1YuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAM06hgACAAAABzYuODgyNzUAUoMk1B3U3Qi9ETvVHdTdCCRDSVEuTkFTREFRR006Qk9UWi5JUV9WT0xVTUUuMjAyNS84LzEBAAAA9/0IFgIAAAAIMC44</t>
+  </si>
+  <si>
+    <t>NDY3MzEAUoMk1B3U3QghkDzVHdTdCCNDSVEuTkFTREFRR006QUlRLklRX1ZPTFVNRS4yMDI1LzgvMQEAAADp3GIhAgAAAAgxLjI4OTU0NABSgyTUHdTdCMq6SdUd1N0IIENJUS5BUkNBOkFSVFkuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAG4faSECAAAACDAuNjU5OTk2AFKDJNQd1N0IIX0/1R3U3QgkQ0lRLk5BU0RBUUdNOlJPQlQuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAFxj2SACAAAABzAuMDYzNjIAUoMk1B3U3Qjw6UDVHdTdCCBDSVEuQVJDQTpJR1BULklRX1ZPTFVNRS4yMDI1LzgvMQEAAADMAl4BAgAAAAgwLjA4MTgzNABSgyTUHdTdCCF9P9Ud1N0IIENJUS5CQVRTOldUQUkuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAGBOb2QCAAAACDAuMjIyMzE1AFKDJNQd1N0IxdRA1R3U3QggQ0lRLkFSQ0E6VEhOUS5JUV9WT0xVTUUuMjAyNS84LzEBAAAArsN+JAIAAAAIMC4wMzU5NTMAUoMk1B3U3QitG0jVHdTdCCRDSVEuTkFTREFRR006RkRUWC5JUV9WT0xVTUUuMjAyNS84LzEBAAAAvaWdJgIAAAAIMC4wNTE3NDEAUoMk1B3U3QhUZ0PVHdTdCCBDSVEuQVJDQTpDSEFULklRX1ZPTFVNRS4yMDI1LzgvMQEAAAAAMDVtAgAAAAgwLjI0MDkzMgBSgyTUHdTdCBUARdUd1N0IIENJUS5BUkNBOkxPVVAuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAFlcDyICAAAACDAuMDE0OTY5AFKDJNQd1N0IzdlG1R3U3QggQ0lRLkFSQ0E6</t>
+  </si>
+  <si>
+    <t>TFJOWi5JUV9WT0xVTUUuMjAyNS84LzEBAAAAtXbDJgIAAAAIMC4wMDQwNTcAUoMk1B3U3QhFpzDVHdTdCB9DSVEuQVJDQTpBSVMuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAJiXn3ACAAAACDAuMDMyMDEzAFKDJNQd1N0I3/4y1R3U3QgkQ0lRLk5BU0RBUUdNOldJU0UuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAOmwQ24CAAAACDAuMDE3MDY2AFKDJNQd1N0IrRtI1R3U3QgfQ0lRLkxTRTpSQk9ULklRX1ZPTFVNRS4yMDI1LzgvMQEAAACOeyQUAgAAAAgwLjIxMjYzNQBSgyTUHdTdCBpQR9Ud1N0IIENJUS5YVFJBOlhBSVguSVFfVk9MVU1FLjIwMjUvOC8xAQAAADXs4iICAAAABzAuMTg1NjMAUoMk1B3U3QjSiDTVHdTdCB9DSVEuQklUOldUQUkuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAE26WyMCAAAACDAuMDM1NDA3AFKDJNQd1N0IyrpJ1R3U3QgfQ0lRLkxTRTpBSUFHLklRX1ZPTFVNRS4yMDI1LzgvMQEAAADwnYIkAgAAAAgwLjEzODAzOABSgyTUHdTdCLW8R9Ud1N0IH0NJUS5BU1g6UkJUWi5JUV9WT0xVTUUuMjAyNS84LzEBAAAAKe12IgIAAAAIMC4wMzI2NjkAUoMk1B3U3Qj5TjnVHdTdCB5DSVEuREI6WEIwVC5JUV9WT0xVTUUuMjAyNS84LzEBAAAA0zPeKQMAAAAAAFKDJNQd1N0IvRE71R3U3QgoQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMQEAAAAj9wBwAgAAAAczMS4zOTAxAFKD</t>
+  </si>
+  <si>
+    <t>JNQd1N0IIZA81R3U3QggQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4BAAAAI/cAcAIAAAAHMzIuMDIyNwBSgyTUHdTdCFKDJNQd1N0IKUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAACP3AHACAAAABzMyLjQ1OTUAUoMk1B3U3QjKuknVHdTdCCJDSVEuTkFTREFRR006QUdJWC5JUV9WV0FQLjIwMjUvOC8xAQAAACP3AHACAAAABTMxLjQ5AFKDJNQd1N0IzdlG1R3U3QgvQ0lRLk5BU0RBUUdNOkFHSVguSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS84LzEBAAAAI/cAcAIAAAAIMC45MDAwMDIAUoMk1B3U3QiyZz/VHdTdCDBDSVEuTkFTREFRR006QUdJWC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAAI/cAcAIAAAAIMC45MDAwMDIAUoMk1B3U3QjF1EDVHdTdCDFDSVEuTkFTREFRR006QUdJWC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAACP3AHACAAAACDAuNDAwMDAyAFKDJNQd1N0IFQBF1R3U3QgwQ0lRLk5BU0RBUUdNOlNNSC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAAGDCNgACAAAACTk2LjI0MTg3NABSgyTUHdTdCGqLRtUd1N0ILENJUS5CQVRTOklHVi5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAAM06hgACAAAABDkzLjEAUoMk1B3U3QgVAEXVHdTdCDFDSVEuTkFTREFRR006Qk9UWi5J</t>
+  </si>
+  <si>
+    <t>UV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAAPf9CBYCAAAABTgwLjg0AFKDJNQd1N0IaotG1R3U3QgwQ0lRLk5BU0RBUUdNOkFJUS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAAOncYiECAAAACTY3LjU3MDAwMgBSgyTUHdTdCEWnMNUd1N0ILUNJUS5BUkNBOkFSVFkuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAABuH2khAgAAAAQxOS40AFKDJNQd1N0I/38y1R3U3QgxQ0lRLk5BU0RBUUdNOlJPQlQuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAABcY9kgAgAAAAg5Ljg1MDAwMgBSgyTUHdTdCK0bSNUd1N0ILUNJUS5BUkNBOklHUFQuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAADMAl4BAgAAAAE5AFKDJNQd1N0I0og01R3U3QgtQ0lRLkJBVFM6V1RBSS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAAGBOb2QCAAAAAzkuMgBSgyTUHdTdCK0bSNUd1N0ILUNJUS5BUkNBOlRITlEuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAACuw34kAgAAAAQzLjA1AFKDJNQd1N0IyrpJ1R3U3QgxQ0lRLk5BU0RBUUdNOkZEVFguSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAAC9pZ0mAgAAAAg0LjU4ODQ2OQBSgyTUHdTdCPlOOdUd1N0ILUNJUS5BUkNBOkNIQVQuSVFfU0hBUkVTT1VUU1RBTkRJTkcu</t>
+  </si>
+  <si>
+    <t>MjAyNC8xMi8zMQEAAAAAMDVtAgAAAAU1LjU3NQBSgyTUHdTdCOgiStUd1N0ILUNJUS5BUkNBOkxPVVAuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAABZXA8iAgAAAAgxLjI1MDAwMQBSgyTUHdTdCPlOOdUd1N0ILUNJUS5BUkNBOkxSTlouSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAAC1dsMmAgAAAAQwLjg3AFKDJNQd1N0IvRE71R3U3QgsQ0lRLkFSQ0E6QUlTLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjQvMTIvMzEBAAAAmJefcAIAAAAFMC4wMjUAUoMk1B3U3QghkDzVHdTdCDFDSVEuTkFTREFRR006V0lTRS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAAOmwQ24CAAAABDAuNTQAUoMk1B3U3QitG0jVHdTdCC1DSVEuWFRSQTpYQUlYLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjQvMTIvMzEBAAAANeziIgIAAAAJMzAuNDM3OTY5AFKDJNQd1N0Iw1M/1R3U3QgsQ0lRLkJJVDpXVEFJLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjQvMTIvMzEBAAAATbpbIwIAAAAIMTEuNDYyNjMAUoMk1B3U3QjF1EDVHdTdCCxDSVEuTFNFOkFJQUcuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAADwnYIkAgAAAAkzNC41MTEzNjIAUoMk1B3U3QitG0jVHdTdCCxDSVEuQVNYOlJCVFouSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAAAp7XYiAgAA</t>
+  </si>
+  <si>
+    <t>AAkxOS4yNjYzOTkAUoMk1B3U3QhUZ0PVHdTdCCtDSVEuREI6WEIwVC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI0LzEyLzMxAQAAANMz3ikCAAAAATMAUoMk1B3U3QgaUEfVHdTdCC5DSVEuTkFTREFRR006U01ILklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvOC8xAQAAAGDCNgACAAAACTk0LjQ5MTg3NABSgyTUHdTdCFRnQ9Ud1N0IKkNJUS5CQVRTOklHVi5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEAAADNOoYAAgAAAAMxMDgAUoMk1B3U3QgVAEXVHdTdCC9DSVEuTkFTREFRR006Qk9UWi5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEAAAD3/QgWAgAAAAU4My42NgBSgyTUHdTdCGqLRtUd1N0ILkNJUS5OQVNEQVFHTTpBSVEuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS84LzEBAAAA6dxiIQIAAAAJODkuMjUwMDAyAFKDJNQd1N0IRacw1R3U3QgrQ0lRLkFSQ0E6QVJUWS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEAAABuH2khAgAAAAUyOC4xNQBSgyTUHdTdCP9/MtUd1N0IL0NJUS5OQVNEQVFHTTpST0JULklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvOC8xAQAAAFxj2SACAAAACTEwLjMwMDAwMgBSgyTUHdTdCOgiStUd1N0IK0NJUS5BUkNBOklHUFQuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS84LzEBAAAAzAJeAQIAAAADOS45AFKDJNQd1N0I0og01R3U3QgrQ0lR</t>
+  </si>
+  <si>
+    <t>LkJBVFM6V1RBSS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEAAABgTm9kAgAAAAM4LjYAUoMk1B3U3Qi1vEfVHdTdCCtDSVEuQVJDQTpUSE5RLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvOC8xAQAAAK7DfiQCAAAABTMuNzI1AFKDJNQd1N0I0og01R3U3QgvQ0lRLk5BU0RBUUdNOkZEVFguSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS84LzEBAAAAvaWdJgIAAAAINC42ODg0NjkAUoMk1B3U3QjoIkrVHdTdCCtDSVEuQVJDQTpDSEFULklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvOC8xAQAAAAAwNW0CAAAABTcuNTI1AFKDJNQd1N0IzdlG1R3U3QgrQ0lRLkFSQ0E6TE9VUC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEAAABZXA8iAgAAAAgxLjYwMDAwMQBSgyTUHdTdCPlOOdUd1N0IK0NJUS5BUkNBOkxSTlouSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS84LzEBAAAAtXbDJgIAAAAEMC43OABSgyTUHdTdCL0RO9Ud1N0IKkNJUS5BUkNBOkFJUy5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEAAACYl59wAgAAAAMwLjgAUoMk1B3U3QghkDzVHdTdCC9DSVEuTkFTREFRR006V0lTRS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEAAADpsENuAgAAAAQwLjg2AFKDJNQd1N0IIyhH1R3U3QgrQ0lRLlhUUkE6WEFJWC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzgvMQEA</t>
+  </si>
+  <si>
+    <t>AAA17OIiAgAAAAkzNC44OTk4NjkAUoMk1B3U3QjDUz/VHdTdCCpDSVEuQklUOldUQUkuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS84LzEBAAAATbpbIwIAAAAIMTIuMDY2NjMAUoMk1B3U3QjF1EDVHdTdCCpDSVEuTFNFOkFJQUcuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS84LzEBAAAA8J2CJAIAAAAJNDEuNDEzMzYyAFKDJNQd1N0Iw1M/1R3U3QgqQ0lRLkFTWDpSQlRaLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvOC8xAQAAACntdiICAAAACTIwLjY3MTU5NwBSgyTUHdTdCGa/QNUd1N0IKUNJUS5EQjpYQjBULklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvOC8xAQAAANMz3ikCAAAABDQuMDMAUoMk1B3U3QjoIkrVHdTdCDFDSVEuTkFTREFRR006QUdJWC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDIzLzEyLzI5AQAAACP3AHADAAAAAABSgyTUHdTdCGqLRtUd1N0IMENJUS5OQVNEQVFHTTpTTUguSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAABgwjYAAgAAAAk2OC40NDE4NzQAUoMk1B3U3QhFpzDVHdTdCCxDSVEuQkFUUzpJR1YuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAADNOoYAAgAAAAU5Mi4yNQBSgyTUHdTdCGqLRtUd1N0IMUNJUS5OQVNEQVFHTTpCT1RaLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjMvMTIvMjkBAAAA9/0IFgIAAAAFODcuMDYAUoMk1B3U</t>
+  </si>
+  <si>
+    <t>3QhFpzDVHdTdCDBDSVEuTkFTREFRR006QUlRLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjMvMTIvMjkBAAAA6dxiIQIAAAAJMjguODYwMDAyAFKDJNQd1N0I/38y1R3U3QgtQ0lRLkFSQ0E6QVJUWS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDIzLzEyLzI5AQAAAG4faSECAAAABDE3LjQAUoMk1B3U3QitG0jVHdTdCDFDSVEuTkFTREFRR006Uk9CVC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDIzLzEyLzI5AQAAAFxj2SACAAAACTEwLjgwMDAwMgBSgyTUHdTdCNKINNUd1N0ILUNJUS5BUkNBOklHUFQuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAADMAl4BAgAAAAQ0Ljc2AFKDJNQd1N0IlO421R3U3QgtQ0lRLkJBVFM6V1RBSS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDIzLzEyLzI5AQAAAGBOb2QCAAAABDkuNTUAUoMk1B3U3QitG0jVHdTdCC1DSVEuQVJDQTpUSE5RLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjMvMTIvMjkBAAAArsN+JAIAAAADMy4xAFKDJNQd1N0I+U451R3U3QgxQ0lRLk5BU0RBUUdNOkZEVFguSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAAC9pZ0mAgAAAAgzLjc4ODQ2OQBSgyTUHdTdCDX8OtUd1N0ILUNJUS5BUkNBOkNIQVQuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAAAAMDVtAgAAAAUyLjA3NQBSgyTUHdTdCPlOOdUd1N0ILUNJUS5B</t>
+  </si>
+  <si>
+    <t>UkNBOkxPVVAuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAABZXA8iAgAAAAgxLjA1MDAwMQBSgyTUHdTdCDX8OtUd1N0ILUNJUS5BUkNBOkxSTlouSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAAC1dsMmAgAAAAQwLjk2AFKDJNQd1N0IIZA81R3U3QgsQ0lRLkFSQ0E6QUlTLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjMvMTIvMjkBAAAAmJefcAMAAAAAAFKDJNQd1N0ItbxH1R3U3QgxQ0lRLk5BU0RBUUdNOldJU0UuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyMy8xMi8yOQEAAADpsENuAgAAAAQwLjA2AFKDJNQd1N0IIiM/1R3U3QgtQ0lRLlhUUkE6WEFJWC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDIzLzEyLzI5AQAAADXs4iICAAAACTE1LjgwNTk2OQBSgyTUHdTdCGa/QNUd1N0ILENJUS5CSVQ6V1RBSS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDIzLzEyLzI5AQAAAE26WyMCAAAACDExLjc5ODYzAFKDJNQd1N0ItbxH1R3U3QgsQ0lRLkxTRTpBSUFHLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjMvMTIvMjkBAAAA8J2CJAIAAAAJMjkuODY2NTMzAFKDJNQd1N0IVGdD1R3U3QgsQ0lRLkFTWDpSQlRaLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjMvMTIvMjkBAAAAKe12IgIAAAAJMTYuNzQxNjY1AFKDJNQd1N0IFQBF1R3U3QgrQ0lRLkRCOlhCMFQuSVFfU0hBUkVTT1VUU1RB</t>
+  </si>
+  <si>
+    <t>TkRJTkcuMjAyMy8xMi8yOQEAAADTM94pAgAAAAQxLjg3AFKDJNQd1N0IVGdD1R3U3QgnQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAGDCNgACAAAABjI4My45NQDi0STUHdTdCBUARdUd1N0IKUNJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5AQAAAGDCNgACAAAABjE3NC44NwBSgyTUHdTdCGqLRtUd1N0IJkNJUS5OQVNEQVFHTTpRUVEuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xAQAAAA66ewACAAAACjM1NDAxMi40MDIBBgAAAAUAAAABMQEAAAALLTE5NjM3MTQ2MzYDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNVKDJNQd1N0IgZNJ1R3U3QgoQ0lRLk5BU0RBUUdNOlFRUS5JUV9NQVJLRVRDQVAuMjAyNC8xMi8zMQEAAAAOunsAAgAAAAszMTU1MDUuNTk0NQEGAAAABQAAAAExAQAAAAstMTk2MzcxNDYzNgMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACjEyLzMxLzIwMjRSgyTUHdTdCE3mSNUd1N0II0NJUS5OQVNEQVFHTTpRUVEuSVFfVk9MVU1FLjIwMjUvOC8xAQAAAA66ewACAAAACTY5LjQwMDc4OQBSgyTUHdTdCNKINNUd1N0IKENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEBAAAADrp7AAIAAAAGNTY1LjAxAFKDJNQd1N0IQMc21R3U3QgnQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIw</t>
+  </si>
+  <si>
+    <t>MjUvOC8xAQAAAA66ewACAAAABjU1My44OADi0STUHdTdCE3mSNUd1N0IIUNJUS5OQVNEQVFHTTpRUVEuSVFfVldBUC4yMDI1LzgvMQEAAAAOunsAAgAAAAY1NTUuMjcA4tEk1B3U3Qj5TjnVHdTdCC9DSVEuTkFTREFRR006UVFRLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvNy8zMQEAAAAOunsAAgAAAAY2MzkuMTUA4tEk1B3U3Qg1/DrVHdTdCC5DSVEuTkFTREFRR006UVFRLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvOC8xAQAAAA66ewACAAAABjYzOS4xNQDi0STUHdTdCCGQPNUd1N0IMENJUS5OQVNEQVFHTTpRUVEuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNC8xMi8zMQEAAAAOunsAAgAAAAY2MTcuMTUA4tEk1B3U3QgiIz/VHdTdCDBDSVEuTkFTREFRR006UVFRLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjMvMTIvMjkBAAAADrp7AAIAAAAGNTYwLjM1AOLRJNQd1N0IIiM/1R3U3QgpQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAADrp7AAIAAAAGNDA5LjUyAOLRJNQd1N0ICKpA1R3U3QgpQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAADrp7AAIAAAAGNTExLjIzAOLRJNQd1N0IrRtI1R3U3QgoQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAABgwjYAAgAAAAYyODguNzgA4tEk1B3U3Qhqi0bVHdTd</t>
+  </si>
+  <si>
+    <t>CCFDSVEuTkFTREFRR006U01ILklRX1ZXQVAuMjAyNS84LzEBAAAAYMI2AAIAAAAGMjgzLjI1AOLRJNQd1N0I/38y1R3U3QgvQ0lRLk5BU0RBUUdNOlNNSC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAAYMI2AAIAAAAJOTQuNDkxODc0AOLRJNQd1N0IRacw1R3U3QgpQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAAYMI2AAIAAAAGMjQyLjE3AOLRJNQd1N0I/38y1R3U3QgkQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAAM06hgACAAAABjExMS42NgDi0STUHdTdCK0bSNUd1N0II0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAM06hgACAAAABjEwOC42MwDi0STUHdTdCFDmOtUd1N0IK0NJUS5CQVRTOklHVi5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAAzTqGAAIAAAADMTA4AOLRJNQd1N0IQMc21R3U3QglQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyMy8xMi8yOQEAAADNOoYAAgAAAAY4MS4xMjgA4tEk1B3U3QitG0jVHdTdCCVDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxAQAAAM06hgACAAAABjEwMC4xMgDi0STUHdTdCPlOOdUd1N0IKUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAAPf9CBYCAAAABTMzLjQ3AOLRJNQd1N0IIZA81R3U</t>
+  </si>
+  <si>
+    <t>3QgoQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzgvMQEAAAD3/QgWAgAAAAUzMy4xMgDi0STUHdTdCLW8R9Ud1N0IIkNJUS5OQVNEQVFHTTpCT1RaLklRX1ZXQVAuMjAyNS84LzEBAAAA9/0IFgIAAAAFMzMuMDIA4tEk1B3U3QghkDzVHdTdCDBDSVEuTkFTREFRR006Qk9UWi5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAA9/0IFgIAAAAFODMuNjYA4tEk1B3U3Qi1vEfVHdTdCCpDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAA9/0IFgIAAAAEMjguNQDi0STUHdTdCCIjP9Ud1N0IKkNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMQEAAAD3/QgWAgAAAAUzMS45NQDi0STUHdTdCAiqQNUd1N0IKENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEBAAAA6dxiIQIAAAAFNDQuNTcA4tEk1B3U3QhUZ0PVHdTdCCdDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEBAAAA6dxiIQIAAAAFNDMuNDcA4tEk1B3U3QgVAEXVHdTdCCFDSVEuTkFTREFRR006QUlRLklRX1ZXQVAuMjAyNS84LzEBAAAA6dxiIQIAAAAENDMuNQDi0STUHdTdCGqLRtUd1N0IL0NJUS5OQVNEQVFHTTpBSVEuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS83LzMxAQAAAOncYiECAAAACTg5LjI1MDAwMgDi0STU</t>
+  </si>
+  <si>
+    <t>HdTdCBUARdUd1N0IKUNJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5AQAAAOncYiECAAAABTMxLjE4AOLRJNQd1N0IaotG1R3U3QgpQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAA6dxiIQIAAAAFMzguNjQA4tEk1B3U3QhFpzDVHdTdCCVDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAAG4faSECAAAABTQzLjQ1AOLRJNQd1N0IGlBH1R3U3QgkQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAG4faSECAAAABTQyLjI2AOLRJNQd1N0I+U451R3U3QgeQ0lRLkFSQ0E6QVJUWS5JUV9WV0FQLjIwMjUvOC8xAQAAAG4faSECAAAABTQyLjIzAOLRJNQd1N0IQMc21R3U3QgsQ0lRLkFSQ0E6QVJUWS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAAbh9pIQIAAAAFMjguMTUA4tEk1B3U3QjKuknVHdTdCCZDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyMy8xMi8yOQEAAABuH2khAgAAAAQzNC41AOLRJNQd1N0I+U451R3U3QgmQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAAbh9pIQIAAAAFMzcuMDcA4tEk1B3U3QjKuknVHdTdCClDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAABcY9kgAgAAAAc0OS45NjU1AOLRJNQd1N0IUOY61R3U</t>
+  </si>
+  <si>
+    <t>3QgoQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMQEAAABcY9kgAgAAAAc0OS4wMjMyAOLRJNQd1N0IVGdD1R3U3QgiQ0lRLk5BU0RBUUdNOlJPQlQuSVFfVldBUC4yMDI1LzgvMQEAAABcY9kgAgAAAAU0OC45OQDi0STUHdTdCM3ZRtUd1N0IMENJUS5OQVNEQVFHTTpST0JULklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvNy8zMQEAAABcY9kgAgAAAAkxMC4zMDAwMDIA4tEk1B3U3QgiIz/VHdTdCCpDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAAXGPZIAIAAAAFNDUuNTMA4tEk1B3U3QgIqkDVHdTdCCpDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAAXGPZIAIAAAAFNDUuMDQA4tEk1B3U3QgjKEfVHdTdCCVDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAAMwCXgECAAAABTUwLjY3AOLRJNQd1N0IJEVJ1R3U3QgkQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAMwCXgECAAAABjQ5LjU3OADi0STUHdTdCIGTSdUd1N0IHkNJUS5BUkNBOklHUFQuSVFfVldBUC4yMDI1LzgvMQEAAADMAl4BAgAAAAU0OS41MwDi0STUHdTdCBUARdUd1N0ILENJUS5BUkNBOklHUFQuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS83LzMxAQAAAMwCXgECAAAAAzkuOQDi0STUHdTdCGqLRtUd</t>
+  </si>
+  <si>
+    <t>1N0IJkNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5AQAAAMwCXgECAAAABTM4LjYxAOLRJNQd1N0IRacw1R3U3QgmQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAAzAJeAQIAAAAFNDUuMjMA4tEk1B3U3Qj/fzLVHdTdCCVDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAAGBOb2QCAAAABTI1LjQ2AOLRJNQd1N0I0og01R3U3QgkQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAGBOb2QCAAAABTI0LjY2AOLRJNQd1N0IUOY61R3U3QgeQ0lRLkJBVFM6V1RBSS5JUV9WV0FQLjIwMjUvOC8xAQAAAGBOb2QCAAAABTI0LjY2AOLRJNQd1N0I0og01R3U3QgsQ0lRLkJBVFM6V1RBSS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAAYE5vZAIAAAADOC42AOLRJNQd1N0IQMc21R3U3QgmQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAAYE5vZAIAAAAFMjAuNjkA4tEk1B3U3QhN5kjVHdTdCCZDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMQEAAABgTm9kAgAAAAIyMgDi0STUHdTdCPlOOdUd1N0IJUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEBAAAArsN+JAIAAAAFNTYuMTIA4tEk1B3U3QghkDzVHdTdCCRDSVEuQVJDQTpUSE5RLklRX0NMT1NF</t>
+  </si>
+  <si>
+    <t>UFJJQ0UuMjAyNS84LzEBAAAArsN+JAIAAAAFNTQuNDMA4tEk1B3U3QgkRUnVHdTdCB5DSVEuQVJDQTpUSE5RLklRX1ZXQVAuMjAyNS84LzEBAAAArsN+JAIAAAAFNTQuNTIA4tEk1B3U3QgiIz/VHdTdCCxDSVEuQVJDQTpUSE5RLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvNy8zMQEAAACuw34kAgAAAAUzLjcyNQDi0STUHdTdCAiqQNUd1N0IJkNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5AQAAAK7DfiQCAAAABzQxLjI0MDUA4tEk1B3U3QgiIz/VHdTdCCZDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMQEAAACuw34kAgAAAAI0OQDi0STUHdTdCAiqQNUd1N0IKUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAAL2lnSYCAAAABzM5LjY0NjUA4tEk1B3U3QhUZ0PVHdTdCChDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAL2lnSYCAAAABzM4LjQ1OTgA4tEk1B3U3QgVAEXVHdTdCCJDSVEuTkFTREFRR006RkRUWC5JUV9WV0FQLjIwMjUvOC8xAQAAAL2lnSYCAAAABTM4LjU4AOLRJNQd1N0IaotG1R3U3QgwQ0lRLk5BU0RBUUdNOkZEVFguSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS83LzMxAQAAAL2lnSYCAAAACDQuNjg4NDY5AOLRJNQd1N0IRacw1R3U3QgpQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xP</t>
+  </si>
+  <si>
+    <t>U0VQUklDRS4yMDIzLzYvMTIBAAAAvaWdJgIAAAAHMjUuNTE3MQDi0STUHdTdCP9/MtUd1N0IKkNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMQEAAAC9pZ0mAgAAAAUzNS4zNQDi0STUHdTdCE3mSNUd1N0IJUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEBAAAAADA1bQIAAAAFNTEuNTQA4tEk1B3U3QitG0jVHdTdCCRDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEBAAAAADA1bQIAAAAFNDkuOTEA4tEk1B3U3QghkDzVHdTdCB5DSVEuQVJDQTpDSEFULklRX1ZXQVAuMjAyNS84LzEBAAAAADA1bQIAAAAFNDkuOTkA4tEk1B3U3QhAxzbVHdTdCCxDSVEuQVJDQTpDSEFULklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvNy8zMQEAAAAAMDVtAgAAAAU3LjUyNQDi0STUHdTdCK0bSNUd1N0IJUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDIzLzUvMTgBAAAAADA1bQIAAAAHMjUuOTA3OADi0STUHdTdCPlOOdUd1N0IJkNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxAQAAAAAwNW0CAAAABTQwLjQ2AOLRJNQd1N0IUOY61R3U3QglQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAABZXA8iAgAAAAU2NC4yNQDi0STUHdTdCK0bSNUd1N0IJENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1Lzgv</t>
+  </si>
+  <si>
+    <t>MQEAAABZXA8iAgAAAAU2Mi4wNwDi0STUHdTdCLzxQtUd1N0IHkNJUS5BUkNBOkxPVVAuSVFfVldBUC4yMDI1LzgvMQEAAABZXA8iAgAAAAU2Mi4wNQDi0STUHdTdCLW8R9Ud1N0ILENJUS5BUkNBOkxPVVAuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS83LzMxAQAAAFlcDyICAAAACDEuNjAwMDAxAOLRJNQd1N0IIiM/1R3U3QgmQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAAWVwPIgIAAAAHNDMuNzk2OQDi0STUHdTdCPSUQNUd1N0IJkNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxAQAAAFlcDyICAAAABzUzLjM0MjgA4tEk1B3U3Qi1vEfVHdTdCCVDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAALV2wyYCAAAABzQ0LjQyMzIA4tEk1B3U3QgVAEXVHdTdCCRDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEBAAAAtXbDJgIAAAAHNDMuNjU5MwDi0STUHdTdCBpQR9Ud1N0IHkNJUS5BUkNBOkxSTlouSVFfVldBUC4yMDI1LzgvMQEAAAC1dsMmAgAAAAU0My4yOADi0STUHdTdCEWnMNUd1N0ILENJUS5BUkNBOkxSTlouSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS83LzMxAQAAALV2wyYCAAAABDAuNzgA4tEk1B3U3Qhqi0bVHdTdCCZDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyMy8xMi8yOQEAAAC1dsMmAgAA</t>
+  </si>
+  <si>
+    <t>AAczOC4yMTA2AOLRJNQd1N0IRacw1R3U3QgmQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAAtXbDJgIAAAAHMzguOTc4NADi0STUHdTdCP9/MtUd1N0IJENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAACYl59wAgAAAAUyOS42NwDi0STUHdTdCNKINNUd1N0II0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAJiXn3ACAAAABzI4Ljk4MzMA4tEk1B3U3QilHzrVHdTdCB1DSVEuQVJDQTpBSVMuSVFfVldBUC4yMDI1LzgvMQEAAACYl59wAgAAAAUyOC44NwDi0STUHdTdCMq6SdUd1N0IK0NJUS5BUkNBOkFJUy5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAAmJefcAIAAAADMC44AOLRJNQd1N0I+U451R3U3QglQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyMy8xMi8yOQEAAACYl59wAwAAAAAA4tEk1B3U3QilHzrVHdTdCCVDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxAQAAAJiXn3ACAAAABzIzLjg1MjcA4tEk1B3U3Qj5TjnVHdTdCClDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAADpsENuAgAAAAczNy44MzYzAOLRJNQd1N0IIZA81R3U3QgoQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMQEAAADpsENuAgAAAAczNi44OTA5AOLRJNQd1N0I</t>
+  </si>
+  <si>
+    <t>zdlG1R3U3QgiQ0lRLk5BU0RBUUdNOldJU0UuSVFfVldBUC4yMDI1LzgvMQEAAADpsENuAgAAAAUzNi44OQDi0STUHdTdCCIjP9Ud1N0IMENJUS5OQVNEQVFHTTpXSVNFLklRX1NIQVJFU09VVFNUQU5ESU5HLjIwMjUvNy8zMQEAAADpsENuAgAAAAQwLjg2AOLRJNQd1N0I9JRA1R3U3QgpQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzgBAAAA6bBDbgIAAAAHMjUuNDAyOQDi0STUHdTdCCMoR9Ud1N0IKkNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMQEAAADpsENuAgAAAAUzOC4zNwDi0STUHdTdCLzxQtUd1N0IJENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAACOeyQUAgAAAAUxNS4zMgDi0STUHdTdCLzxQtUd1N0II0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xAQAAAI57JBQCAAAABTE0Ljg4AOLRJNQd1N0IgZNJ1R3U3QgdQ0lRLkxTRTpSQk9ULklRX1ZXQVAuMjAyNS84LzEBAAAAjnskFAIAAAAJMTQuOTkyMzczAOLRJNQd1N0IaotG1R3U3QglQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyMy8xMi8yOQEAAACOeyQUAgAAAAUxMy4xNQDi0STUHdTdCEWnMNUd1N0IJUNJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEBAAAAjnskFAIAAAAGMTMuODc1AOLRJNQd1N0I/38y1R3U3QglQ0lR</t>
+  </si>
+  <si>
+    <t>LlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAAA17OIiAgAAAAYxNDMuNzYA4tEk1B3U3QjSiDTVHdTdCCRDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEBAAAANeziIgIAAAAGMTM3Ljc0AOLRJNQd1N0IyrpJ1R3U3QgsQ0lRLlhUUkE6WEFJWC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAANeziIgIAAAAJMzQuODk5ODY5AOLRJNQd1N0IElg21R3U3QgmQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAANeziIgIAAAAGMTAwLjI2AOLRJNQd1N0ITeZI1R3U3QgmQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzABAAAANeziIgIAAAAGMTM0Ljk4AOLRJNQd1N0I+U451R3U3QgkQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxAQAAAE26WyMCAAAABDY2LjkA4tEk1B3U3QghkDzVHdTdCCNDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMQEAAABNulsjAgAAAAU2My43NgDi0STUHdTdCCRFSdUd1N0IHUNJUS5CSVQ6V1RBSS5JUV9WV0FQLjIwMjUvOC8xAQAAAE26WyMCAAAACTY0LjI5MTczNADi0STUHdTdCFnUPtUd1N0IK0NJUS5CSVQ6V1RBSS5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAATbpbIwIAAAAIMTIuMDY2NjMA4tEk1B3U3Qj0lEDVHdTdCCVDSVEuQklUOldU</t>
+  </si>
+  <si>
+    <t>QUkuSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5AQAAAE26WyMCAAAABTU1Ljk0AOLRJNQd1N0IJEVJ1R3U3QglQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMAEAAABNulsjAgAAAAU2Ny4xMgDi0STUHdTdCPSUQNUd1N0IJENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAADwnYIkAgAAAAYxOC44NzMA4tEk1B3U3Qi88ULVHdTdCCNDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMQEAAADwnYIkAgAAAAYxOC4wNjYA4tEk1B3U3QgVAEXVHdTdCB1DSVEuTFNFOkFJQUcuSVFfVldBUC4yMDI1LzgvMQEAAADwnYIkAgAAAAkxOC4zMTIzODcA4tEk1B3U3Qhqi0bVHdTdCCtDSVEuTFNFOkFJQUcuSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS83LzMxAQAAAPCdgiQCAAAACTQxLjQxMzM2MgDi0STUHdTdCEWnMNUd1N0IJUNJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAA8J2CJAIAAAAGMTQuMzczAOLRJNQd1N0I/38y1R3U3QglQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMQEAAADwnYIkAgAAAAUxNy4zMwDi0STUHdTdCE3mSNUd1N0IJENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMQEAAAAp7XYiAgAAAAUxNC45MwDi0STUHdTdCK0bSNUd1N0II0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIw</t>
+  </si>
+  <si>
+    <t>MjUvOC8xAQAAACntdiICAAAABTE0LjcyAOLRJNQd1N0IIZA81R3U3QgdQ0lRLkFTWDpSQlRaLklRX1ZXQVAuMjAyNS84LzEBAAAAKe12IgIAAAAIMTQuNzg4MTIA4tEk1B3U3QgSWDbVHdTdCCtDSVEuQVNYOlJCVFouSVFfU0hBUkVTT1VUU1RBTkRJTkcuMjAyNS83LzMxAQAAACntdiICAAAACTIwLjY3MTU5NwDi0STUHdTdCK0bSNUd1N0IJUNJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjMvMTIvMjkBAAAAKe12IgIAAAAFMTIuNjUA4tEk1B3U3Qj5TjnVHdTdCCVDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxAQAAACntdiICAAAABTE0Ljk0AOLRJNQd1N0IpR861R3U3QgjQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEBAAAA0zPeKQIAAAAGMTkuNTE4AOLRJNQd1N0IrRtI1R3U3QgiQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMQEAAADTM94pAgAAAAYxOS4yMjIA4tEk1B3U3QhZ1D7VHdTdCCpDSVEuREI6WEIwVC5JUV9TSEFSRVNPVVRTVEFORElORy4yMDI1LzcvMzEBAAAA0zPeKQIAAAAENC4wMQDi0STUHdTdCBUARdUd1N0IJENJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyMy8xMi8yOQEAAADTM94pAgAAAAUxNy4wMgDi0STUHdTdCGqLRtUd1N0IJENJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMAEAAADTM94pAgAAAAUy</t>
+  </si>
+  <si>
+    <t>MC40MwDi0STUHdTdCEWnMNUd1N0II0NJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAABfbPAECAAAABjc1MC4wMQBk+STUHdTdCNyJRNUd1N0IJENJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAX2zwBAgAAAAY3NzMuNDQAZPkk1B3U3Qi22kHVHdTdCCJDSVEuTUVUQS5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAABfbPAECAAAADjE4ODQxMzEuMjI3NjY1AQYAAAAFAAAAATEBAAAACy0xOTM0MDY1NDM3AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXi0STUHdTdCLW8R9Ud1N0IJENJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAAX2zwBAgAAAAY3MTIuNjgAaEyBugjU3QjZ9bS7CNTdCCFDSVEuQ1JNLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAJeABAAIAAAAJMjM5NzA3LjQ0AQYAAAAFAAAAATEBAAAACy0xOTQwMzYwMzIwAwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXi0STUHdTdCNKINNUd1N0IIUNJUS5OT1cuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAAC/dF4BAgAAAAwxODk3NDkuMTQ4MDMBBgAAAAUAAAABMQEAAAALLTE5MzQ5MzI3MzEDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNeLRJNQd1N0IElg21R3U3QgiQ0lRLkRVT0wuSVFfTUFSS0VUQ0FQ</t>
+  </si>
+  <si>
+    <t>LjIwMjUvOC8xLlVTRAEAAACw8IcMAgAAAAwxNTQwOC41MzQ1MTMBBgAAAAUAAAABMQEAAAALLTE5NDY4MjY3NDADAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNeLRJNQd1N0IyrpJ1R3U3QghQ0lRLlNBUC5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAAvuAQACAAAAEDMyODk2OC4yMzY4MzE1MzgBBgAAAAUAAAABMQEAAAALLTE5MzUwNTc1NjUDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNeLRJNQd1N0I+U451R3U3QghQ0lRLlRFTS5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAADTJBkCAAAACzk1MDIuMzUwNjg4AQYAAAAFAAAAATEBAAAACy0xOTQ1ODY3ODg3AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXi0STUHdTdCKUfOtUd1N0IIkNJUS5BREJFLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAAV8AAAIAAAAJMTQ3NTM2Ljc2AQYAAAAFAAAAATEBAAAACy0xOTM3MjM4MzkzAwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXi0STUHdTdCCGQPNUd1N0IIUNJUS5JT1QuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAAC6PvwRAgAAAAsyMDUwMS43ODc1NgEGAAAABQAAAAExAQAAAAstMTkzODczODMwNAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI14tEk1B3U3Qi1vEfVHdTdCCJD</t>
+  </si>
+  <si>
+    <t>SVEuV0RBWS5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAIdjawECAAAADDU5Mjk4LjcyNDc4NQEGAAAABQAAAAExAQAAAAstMTk0MTM2NTQxMwMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI14tEk1B3U3QhZ1D7VHdTdCCJDSVEuUkJMWC5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAGlV9AECAAAADDg2Njc2LjYyODUyNAEGAAAABQAAAAExAQAAAAstMTkzNDEyNTQ1NQMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI14tEk1B3U3QjBf0DVHdTdCCFDSVEuQVBQLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAA2rnODQIAAAANMTI4MzA2LjE0NTcwNgEGAAAABQAAAAExAQAAAAstMTk0NTQ1MDU2MQMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI14tEk1B3U3QgjKEfVHdTdCCJDSVEuU0hPUC5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAAYrBAUCAAAADTE1Mzg2OS4zNzEzMDEBBgAAAAUAAAABMQEAAAALLTE5NDU0MTkyNjgDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNeLRJNQd1N0IvPFC1R3U3QgiQ0lRLlRFQU0uSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAABSEyIPAgAAAAw0ODAyOC4wNjc5MzgBBgAAAAUAAAABMQEAAAALLTE5NDY2NTQ0MzIDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4</t>
+  </si>
+  <si>
+    <t>LzEvMjAyNeLRJNQd1N0IFQBF1R3U3QgiQ0lRLk1TRlQuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAABLVQAAAgAAAA4zODk1Nzk2LjgzMDg5OAEGAAAABQAAAAExAQAAAAstMTkzNDI0Nzc5MwMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI14tEk1B3U3QgiM0bVHdTdCCJDSVEuQU1aTi5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAD1JAAACAAAADjIyOTAyODkuODcyODMxAQYAAAAFAAAAATEBAAAACy0xOTMzNzAzMjgwAwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXi0STUHdTdCEWnMNUd1N0ILENJUS5OQVNEQVFHUzpHT09HTC5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAKhxAAACAAAACjIyOTE3OTAuODIBBgAAAAUAAAABMQEAAAALLTE5MzQ5Mjg1NTEDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNeLRJNQd1N0I/38y1R3U3QgiQ0lRLlRTTEEuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAAAQxqIBAgAAAA05NzYxMTcuNTk3Mjc4AQYAAAAFAAAAATEBAAAACy0xOTM0ODQxOTc4AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXi0STUHdTdCIGTSdUd1N0IIkNJUS5QTFRSLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAZfqYAgIAAAANMzY0MDYzLjY4NTQ4NQEGAAAABQAAAAExAQAAAAstMTk0</t>
+  </si>
+  <si>
+    <t>NTk1NzU1NQMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI14tEk1B3U3QjSiDTVHdTdCCJDSVEuT1JDTC5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAOdWAAACAAAADDY4NjUzNC45NjE4NgEGAAAABQAAAAExAQAAAAstMTkzNzg4ODc0MAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI14tEk1B3U3QgSWDbVHdTdCCJDSVEuTkJJUy5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAL/7GQMCAAAADDEyNDEyLjg0NDEzMgEGAAAABQAAAAExAQAAAAstMTk0MjI5OTY4NAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI14tEk1B3U3QjKuknVHdTdCCJDSVEuRVNUQy5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAICEWw0CAAAACzg0MDMuMTExNTUxAQYAAAAFAAAAATEBAAAACy0xOTM4ODAwODM0AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjXi0STUHdTdCPlOOdUd1N0IIkNJUS5TTk9XLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAsDxkEAIAAAAMNjg0MDYuNTYxNzI1AQYAAAAFAAAAATEBAAAACy0xOTM5MjA3ODEwAwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjVk+STUHdTdCKUfOtUd1N0IIkNJUS5ERE9HLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAu6EECAIAAAAMNDY4MjkuODk4</t>
+  </si>
+  <si>
+    <t>MTI0AQYAAAAFAAAAATEBAAAACy0xOTQ1MjQ3ODcyAwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjVk+STUHdTdCCGQPNUd1N0IIUNJUS5ORVQuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAAA09eAEAgAAAAw2OTczNC42NTAzNzUBBgAAAAUAAAABMQEAAAALLTE5MzQwMTg1NzADAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNWT5JNQd1N0IzdlG1R3U3QgiQ0lRLkdUTEIuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAADNhBcRAgAAAAg2OTA4LjY2NAEGAAAABQAAAAExAQAAAAstMTkzODY3MzgxOAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI1ZPkk1B3U3QhZ1D7VHdTdCCJDSVEuUEFOVy5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAIN9hAECAAAADTExNTQ3Mi43MzEwNzcBBgAAAAUAAAABMQEAAAALLTE5NDIxMDI4NDMDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNWT5JNQd1N0IwX9A1R3U3QghQ0lRLk1EQi5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAAOJuzAICAAAADDE4MDU2LjQxMTc0NAEGAAAABQAAAAExAQAAAAstMTkzOTM3MDIxNgMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI1ZPkk1B3U3QgkRUnVHdTdCCJDSVEuUFNURy5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAA</t>
+  </si>
+  <si>
+    <t>ALjKpQYCAAAADDE3ODE1LjU5NDc2OAEGAAAABQAAAAExAQAAAAstMTkzODYxNDkwMgMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI1ZPkk1B3U3Qi88ULVHdTdCCBDSVEuWlMuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAADUzIEDAgAAAAw0MzYzNi44MjU5OTEBBgAAAAUAAAABMQEAAAALLTE5Mzk1MzgzOTIDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNWT5JNQd1N0IFQBF1R3U3QgiQ0lRLkNGTFQuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAAAmAXoQAgAAAAs1OTI5LjU5ODg5OAEGAAAABQAAAAExAQAAAAstMTkzNDE3MDU1NQMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI1ZPkk1B3U3QgiM0bVHdTdCCJDSVEuTlZEQS5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAADN+AAACAAAABzQyMzg3NjgBBgAAAAUAAAABMQEAAAALLTE5NDA1NzIyNDkDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNWT5JNQd1N0IRacw1R3U3QgiQ0lRLkFBUEwuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAABpYQAAAgAAAAwzMDAzMzk4LjEyODIBBgAAAAUAAAABMQEAAAALLTE5MzM3MDMzMDMDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNWT5JNQd1N0I/38y1R3U3QgiQ0lRLkFWR08uSVFfTUFSS0VUQ0FQ</t>
+  </si>
+  <si>
+    <t>LjIwMjUvOC8xLlVTRAEAAADwtn0BAgAAAA4xMzU3NjA5Ljg2MzM3OQEGAAAABQAAAAExAQAAAAstMTkzODU1NzI2MAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI1ZPkk1B3U3QhN5kjVHdTdCCdDSVEuVFdTRToyMzMwLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAq8wFAAIAAAAQOTk0MTU0LjgxMjg0OTI1MQEGAAAABQAAAAExAQAAAAstMTkzNTQ5NzM0MQMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI1ZPkk1B3U3QjSiDTVHdTdCCpDSVEuS09TRTpBMDAwNjYwLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAnXoNAAIAAAAQMTI4MTgxLjkzOTM3NTA2OQEGAAAABQAAAAExAQAAAAstMTkzNDc1NTMzMAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI1ZPkk1B3U3QgSWDbVHdTdCCtDSVEuTkFTREFRR1M6QVNNTC5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAACjvBQACAAAAEDI2NjA3NS45NjkwMzk1MjEBBgAAAAUAAAABMQEAAAALLTE5MzUzMDc0NDADAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNWT5JNQd1N0ITeZI1R3U3QgiQ0lRLk1SVkwuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAAC2eQAAAgAAAAg2NDE5MC43OQEGAAAABQAAAAExAQAAAAstMTk0MDAwMjkzMQMAAAADMTYwAgAAAAYxMDAwNTQE</t>
+  </si>
+  <si>
+    <t>AAAAATAHAAAACDgvMS8yMDI1ZPkk1B3U3Qj5TjnVHdTdCCFDSVEuVlJULklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAARJuHIgIAAAAMNTQwNjguNTAwOTU2AQYAAAAFAAAAATEBAAAACy0xOTM0MTk1NDM1AwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjVk+STUHdTdCKUfOtUd1N0IIkNJUS5BTkVULklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAw9v8AQIAAAANMTQ3NjU4LjY4MjY0MwEGAAAABQAAAAExAQAAAAstMTk0NTc1ODg5MAMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI1ZPkk1B3U3QghkDzVHdTdCCdDSVEuVFdTRToyNDU0LklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAAPTdcAAIAAAAQNzIzNTguMjE2NTcxNDYyOQEGAAAABQAAAAExAQAAAAstMTkzNDM1NTQ5MQMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI1ZPkk1B3U3QgkRUnVHdTdCCBDSVEuTVUuSVFfTUFSS0VUQ0FQLjIwMjUvOC8xLlVTRAEAAAAGaQQAAgAAAA0xMTczNzMuODQwNTkzAQYAAAAFAAAAATEBAAAACy0xOTM3MTc2MDgyAwAAAAMxNjACAAAABjEwMDA1NAQAAAABMAcAAAAIOC8xLzIwMjVk+STUHdTdCK0bSNUd1N0IIkNJUS5RQ09NLklRX01BUktFVENBUC4yMDI1LzgvMS5VU0QBAAAA1YIAAAIAAAANMTU5ODI2LjQ5NDM4MQEGAAAABQAAAAExAQAA</t>
+  </si>
+  <si>
+    <t>AAstMTkzNDI1NDI1MQMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI1ZPkk1B3U3Qi88ULVHdTdCCJDSVEuU05QUy5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAANSIAAACAAAADTExNDQ3Ny4yNDQ3OTMBBgAAAAUAAAABMQEAAAALLTE5NDA1NzIyNDcDAAAAAzE2MAIAAAAGMTAwMDU0BAAAAAEwBwAAAAg4LzEvMjAyNWT5JNQd1N0IFQBF1R3U3QghQ0lRLkFSTS5JUV9NQVJLRVRDQVAuMjAyNS84LzEuVVNEAQAAACznxScCAAAACTE0NTY5Ny4yMgEGAAAABQAAAAExAQAAAAstMTkzNDI1NDQwNwMAAAADMTYwAgAAAAYxMDAwNTQEAAAAATAHAAAACDgvMS8yMDI1ZPkk1B3U3QgiM0bVHdTdCCJDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAACXgAQACAAAABjI1MC43NABk+STUHdTdCOUOPtUd1N0II0NJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACXgAQACAAAABjI1OC4zMwBk+STUHdTdCES9O9Ud1N0II0NJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAACXgAQACAAAABjI2OS4xMQBHdYG6CNTdCD7pxbsI1N0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAv3ReAQIAAAAGOTE0LjM3AGT5JNQd1N0IWdQ+1R3U3QgjQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAv3ReAQIAAAAG</t>
+  </si>
+  <si>
+    <t>OTQzLjEyAGT5JNQd1N0IwX9A1R3U3QgjQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAv3ReAQIAAAAGOTY4Ljc5AEd1gboI1N0I3NmYuwjU3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAsPCHDAIAAAAGMzM4Ljk5AGT5JNQd1N0I3IlE1R3U3QgkQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAALDwhwwCAAAABjM0Ni41NQBk+STUHdTdCNyJRNUd1N0IJENJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAACw8IcMAgAAAAYzNjQuMDkAR3WBugjU3QhuHoi7CNTdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAvuAQACAAAADzI4Mi40NzMxNTU0NDUyNQBk+STUHdTdCK0bSNUd1N0II0NJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAAvuAQACAAAADjI4Ni44OTA4NzE2NDc2AGT5JNQd1N0I80811R3U3QgjQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAC+4BAAIAAAALMjg3LjU1ODY4NTQAR3WBugjU3QjPpbG7CNTdCCJDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAADTJBkCAAAABTU0Ljg5AGT5JNQd1N0IJEVJ1R3U3QgjQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAANMkGQIAAAAFNTYuNTkAZPkk1B3U</t>
+  </si>
+  <si>
+    <t>3QgkRUnVHdTdCCNDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAAA0yQZAgAAAAU2NC40OQBHdYG6CNTdCP9/w7sI1N0II0NJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAFfAAACAAAABTM0Ny44AGT5JNQd1N0I3IlE1R3U3QgkQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAAFfAAACAAAABjM1Ny42OQBk+STUHdTdCNyJRNUd1N0IJENJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAABXwAAAgAAAAYzNzAuNzQAR3WBugjU3Qjc2Zi7CNTdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALo+/BECAAAABTM2LjAxAGT5JNQd1N0Ibic51R3U3QgjQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAuj78EQIAAAAFMzguMDMAZPkk1B3U3QilHzrVHdTdCCNDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAC6PvwRAgAAAAUzOC45OQBHdYG6CNTdCGX3h7sI1N0II0NJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAIdjawECAAAABjIyMi4yMgBk+STUHdTdCLW8R9Ud1N0IJENJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACHY2sBAgAAAAYyMjkuMzgAZPkk1B3U3QhEvTvVHdTdCCRDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIw</t>
+  </si>
+  <si>
+    <t>MjUvNy8yNS5VU0QBAAAAh2NrAQIAAAAGMjQxLjc0AEd1gboI1N0IvX6xuwjU3QgjQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAaVX0AQIAAAAGMTI1LjAzAGT5JNQd1N0IFQBF1R3U3QgkQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAGlV9AECAAAABjEzNy43OQBk+STUHdTdCCIzRtUd1N0IJENJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAABpVfQBAgAAAAYxMTguODIAR3WBugjU3QitlcK7CNTdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAANq5zg0CAAAABjM3OS4xNwBk+STUHdTdCLbaQdUd1N0II0NJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAANq5zg0CAAAABTM5MC43AGT5JNQd1N0IbWpA1R3U3QgjQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAA2rnODQIAAAAGMzY0LjE0AEd1gboI1N0IHLKYuwjU3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAABisEBQIAAAAFMTE4LjYAZPkk1B3U3QjlDj7VHdTdCCRDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAABisEBQIAAAAGMTIyLjIxAGT5JNQd1N0IRL071R3U3QgkQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAAYrBAUCAAAABjEyNC40MwBH</t>
+  </si>
+  <si>
+    <t>dYG6CNTdCCrQh7sI1N0II0NJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAFITIg8CAAAABjE4Mi45NgBk+STUHdTdCBpQR9Ud1N0IJENJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAABSEyIPAgAAAAYxOTEuNzgAZPkk1B3U3QhIO0TVHdTdCCRDSVEuVEVBTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAUhMiDwIAAAADMjAzAEd1gboI1N0IvX6xuwjU3QgjQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAS1UAAAIAAAAGNTI0LjExAGT5JNQd1N0IgdhE1R3U3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAEtVAAACAAAABTUzMy41AGT5JNQd1N0IIjNG1R3U3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAEtVAAACAAAABjUxMy43MQBHdYG6CNTdCFcPwbsI1N0II0NJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAD1JAAACAAAABjIxNC43NQBk+STUHdTdCLbaQdUd1N0IJENJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAA9SQAAAgAAAAYyMzQuMTEAZPkk1B3U3QhtakDVHdTdCCRDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAPUkAAAIAAAAGMjMxLjQ0AEd1gboI1N0IHLKYuwjU3QgtQ0lRLk5BU0RBUUdTOkdP</t>
+  </si>
+  <si>
+    <t>T0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAKhxAAACAAAABjE4OS4xMwBk+STUHdTdCLW8R9Ud1N0ILkNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAqHEAAAIAAAAFMTkxLjkAZPkk1B3U3Qi1vEfVHdTdCC5DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAKhxAAACAAAABjE5My4xOABHdYG6CNTdCCrQh7sI1N0II0NJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAABDGogECAAAABjMwMi42MwBk+STUHdTdCE3mSNUd1N0IJENJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAQxqIBAgAAAAYzMDguMjcAZPkk1B3U3QhN5kjVHdTdCCRDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAEMaiAQIAAAAGMzE2LjA2AEd1gboI1N0IvX6xuwjU3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAZfqYAgIAAAAGMTU0LjI3AGT5JNQd1N0IgdhE1R3U3QgkQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAGX6mAICAAAABjE1OC4zNQBk+STUHdTdCCIzRtUd1N0IJENJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAABl+pgCAgAAAAUxNTguOABHdYG6CNTdCGavv7sI1N0II0NJUS5PUkNMLklRX0NM</t>
+  </si>
+  <si>
+    <t>T1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAOdWAAACAAAABjI0NC40MgBk+STUHdTdCEg7RNUd1N0IJENJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADnVgAAAgAAAAYyNTMuNzcAZPkk1B3U3Qi22kHVHdTdCCRDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAA51YAAAIAAAAGMjQ1LjEyABjFhboI1N0ICouYuwjU3QgjQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAv/sZAwIAAAACNTIAZPkk1B3U3QgaUEfVHdTdCCRDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAv/sZAwIAAAAFNTQuNDMAZPkk1B3U3QgaUEfVHdTdCCRDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAv/sZAwIAAAAFNTEuMzcAI+yFugjU3Qgq0Ie7CNTdCCNDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACAhFsNAgAAAAU3OS41OABk+STUHdTdCIGTSdUd1N0IJENJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACAhFsNAgAAAAQ4My43AGT5JNQd1N0IrRtI1R3U3QgkQ0lRLkVTVEMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAICEWw0CAAAABTg5Ljg2ACPshboI1N0IvX6xuwjU3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAsDxkEAIAAAAGMjA1</t>
+  </si>
+  <si>
+    <t>LjAyAGT5JNQd1N0IgdhE1R3U3QgkQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAALA8ZBACAAAABTIyMy41AGT5JNQd1N0IIjNG1R3U3QgkQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAALA8ZBACAAAABjIxOS41MQAj7IW6CNTdCHw7xLsI1N0II0NJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALuhBAgCAAAABTEzNS42AGT5JNQd1N0I3IlE1R3U3QgkQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAALuhBAgCAAAABjEzOS45OABk+STUHdTdCLbaQdUd1N0IJENJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAC7oQQIAgAAAAYxNDkuODQAI+yFugjU3QgKi5i7CNTdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAADT14AQCAAAABjIwMC4xMQBk+STUHdTdCES9O9Ud1N0II0NJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAADT14AQCAAAABjIwNy42OABk+STUHdTdCKUfOtUd1N0II0NJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAADT14AQCAAAABjE5OC40MgAj7IW6CNTdCBaph7sI1N0II0NJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAM2EFxECAAAABTQxLjgyAGT5JNQd1N0IJEVJ1R3U3QgkQ0lRLkdUTEIuSVFf</t>
+  </si>
+  <si>
+    <t>Q0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAM2EFxECAAAABTQzLjgxAGT5JNQd1N0IZnk41R3U3QgkQ0lRLkdUTEIuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAM2EFxECAAAABTQ3Ljg5ACEThroI1N0IzFexuwjU3QgjQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAg32EAQIAAAAGMTcyLjg4AGT5JNQd1N0IgdhE1R3U3QgkQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAIN9hAECAAAABTE3My42AGT5JNQd1N0IIjNG1R3U3QgkQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAIN9hAECAAAABjIwMy4yNwAhE4a6CNTdCPa6w7sI1N0IIkNJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA4m7MAgIAAAAGMjIwLjk3AGT5JNQd1N0IWdQ+1R3U3QgjQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA4m7MAgIAAAAGMjM3Ljg5AGT5JNQd1N0IJFVA1R3U3QgjQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAA4m7MAgIAAAAGMjQxLjM3ACEThroI1N0I9GOYuwjU3QgjQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAuMqlBgIAAAAFNTQuNTEAZPkk1B3U3QjN2UbVHdTdCCRDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAuMqlBgIA</t>
+  </si>
+  <si>
+    <t>AAAFNTkuNTIAZPkk1B3U3QjN2UbVHdTdCCRDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAuMqlBgIAAAAFNTcuNTkAMDqGugjU3QhAgoe7CNTdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA1MyBAwIAAAAGMjgwLjI3AGT5JNQd1N0ITeZI1R3U3QgiQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADUzIEDAgAAAAYyODUuNTYAZPkk1B3U3QiwKkHVHdTdCCJDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAANTMgQMCAAAABzI4Ni4xODUAMDqGugjU3QjAMLG7CNTdCCNDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAmAXoQAgAAAAQxNy4yAGT5JNQd1N0IgdhE1R3U3QgkQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACYBehACAAAABjE3LjcyNQBk+STUHdTdCCIzRtUd1N0IJENJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAAmAXoQAgAAAAUyNy4zNQAwOoa6CNTdCM0Kw7sI1N0II0NJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAADN+AAACAAAABjE3My43MgBk+STUHdTdCOUOPtUd1N0IJENJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAzfgAAAgAAAAYxNzcuODcAZPkk1B3U3QghQEDVHdTdCCRDSVEuTlZEQS5J</t>
+  </si>
+  <si>
+    <t>UV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAM34AAAIAAAAFMTczLjUAPWGGugjU3Qj0Y5i7CNTdCCNDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABpYQAAAgAAAAYyMDIuMzgAZPkk1B3U3Qi22kHVHdTdCCRDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAaWEAAAIAAAAGMjA3LjU3AGT5JNQd1N0I5Q4+1R3U3QgkQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAGlhAAACAAAABjIxMy44OAA9YYa6CNTdCECCh7sI1N0II0NJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAPC2fQECAAAABjI4OC42NABk+STUHdTdCK0bSNUd1N0IJENJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADwtn0BAgAAAAUyOTMuNwBk+STUHdTdCA7ZONUd1N0IJENJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAADwtn0BAgAAAAYyOTAuMTgAPWGGugjU3QjAMLG7CNTdCChDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAKvMBQACAAAACjM4LjMzNjA3OTYAZPkk1B3U3QjciUTVHdTdCClDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACrzAUAAgAAAAszOC43NTA2MjU5MgBk+STUHdTdCCIzRtUd1N0IKUNJUS5UV1NFOjIzMzAuSVFfQ0xP</t>
+  </si>
+  <si>
+    <t>U0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAKvMBQACAAAACzM4LjgwMDQwNjYxAGGIhroI1N0ITKvBuwjU3QgrQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACdeg0AAgAAAAoxODUuNjc4MjE0AGT5JNQd1N0IgZNJ1R3U3QgsQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAnXoNAAIAAAALMTk1Ljk2MTkyOTUAZPkk1B3U3QiBk0nVHdTdCCxDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAACdeg0AAgAAAAkxOTIuNDQ5NjcAYYiGugjU3QjiPJi7CNTdCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAo7wUAAgAAAAY2ODkuODIAZPkk1B3U3QhN5kjVHdTdCC1DSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAKO8FAAIAAAAGNjk0LjcxAGT5JNQd1N0ITeZI1R3U3QgtQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAACjvBQACAAAABjcxMS4yNQBhiIa6CNTdCPZah7sI1N0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALZ5AAACAAAABTc0LjQ1AGT5JNQd1N0ItbxH1R3U3QgkQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAALZ5AAACAAAA</t>
+  </si>
+  <si>
+    <t>BTgwLjM3AGT5JNQd1N0I5Q4+1R3U3QgkQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAALZ5AAACAAAABTc0LjIxAD6mhroI1N0IsAmxuwjU3QgiQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABEm4ciAgAAAAYxNDEuNTkAZPkk1B3U3QjciUTVHdTdCCNDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAABEm4ciAgAAAAUxNDUuNgBk+STUHdTdCCIzRtUd1N0II0NJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAESbhyICAAAABjEzNy40NwA+poa6CNTdCJUkwLsI1N0II0NJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAMPb/AECAAAABjExNy41NwBk+STUHdTdCCRFSdUd1N0IJENJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADD2/wBAgAAAAYxMjMuMjIAZPkk1B3U3QgmK0DVHdTdCCRDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAw9v8AQIAAAAGMTE0LjI4AD6mhroI1N0I4jyYuwjU3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAA9N1wAAgAAAAk0NS4zOTc5ODkAZPkk1B3U3QhEvTvVHdTdCClDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAA9N1wAAgAAAAs0NS43NjU4MjU0NABk+STUHdTd</t>
+  </si>
+  <si>
+    <t>CKUfOtUd1N0IKUNJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAD03XAACAAAACzQ4LjQ1ODE0OTc0ANa7hroI1N0I9lqHuwjU3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAZpBAACAAAABjEwNC44OABk+STUHdTdCBpQR9Ud1N0IIkNJUS5NVS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAABmkEAAIAAAAGMTA5LjE0AGT5JNQd1N0IGlBH1R3U3QgiQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAAGaQQAAgAAAAYxMTEuMjYA1ruGugjU3QiwCbG7CNTdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADVggAAAgAAAAYxNDguMTkAZPkk1B3U3QgkRUnVHdTdCCRDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA1YIAAAIAAAAGMTQ2Ljc2AGT5JNQd1N0IJEVJ1R3U3QgkQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAANWCAAACAAAABTE1OC40AL/RhroI1N0I4Ou+uwjU3QgjQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA1IgAAAIAAAAGNjE4LjY1AGT5JNQd1N0IsCpB1R3U3QgkQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAANSIAAACAAAABjYzMy40NwBk+STUHdTdCCYrQNUd1N0IJENJUS5TTlBTLklRX0NM</t>
+  </si>
+  <si>
+    <t>T1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAADUiAAAAgAAAAY2MDEuNTUAOeeGugjU3QjkFZi7CNTdCCJDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAACznxScCAAAABjEzNy41OABk+STUHdTdCA7ZONUd1N0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACznxScCAAAABzE0MS4zNzUAZPkk1B3U3QilHzrVHdTdCCNDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAAs58UnAgAAAAYxNjMuMTcAOeeGugjU3Qg8x467CNTdCCRDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAAI/cAcAIAAAAHMzEuNzcxMgBk+STUHdTdCOUOPtUd1N0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAACP3AHACAAAABTMxLjY4AGT5JNQd1N0IJitA1R3U3QgbQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4uVVNEAQAAACP3AHACAAAABzMyLjAyMjcAZPkk1B3U3Qhk+STUHdTdCCVDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjQvMTEvMjkuVVNEAQAAACP3AHACAAAABTI4LjIzAGT5JNQd1N0IVKNC1R3U3QgkQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAACP3AHACAAAABTMxLjc5AGT5JNQd1N0I3IlE1R3U3QgkQ0lRLl5ORFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAA6zKAACAAAACjIy</t>
+  </si>
+  <si>
+    <t>OTA3Ljk2NjcAZPkk1B3U3QgDITDVHdTdCCNDSVEuXk5EWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAAAOsygAAgAAAAoyMjg2NC45MDY2AGT5JNQd1N0ImzEy1R3U3QgbQ0lRLl5ORFguSVFfQ0xPU0VQUklDRS4uVVNEAQAAAA6zKAACAAAACjIzMTg4LjYwODIAZPkk1B3U3Qhk+STUHdTdCCVDSVEuXk5EWC5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMzEuVVNEAQAAAA6zKAACAAAACjIxMDEyLjE3MzcAZPkk1B3U3QhSOjTVHdTdCCNDSVEuXk5EWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAAAOsygAAgAAAAoyMjQ3OC4xMzUzAGT5JNQd1N0ImyE21R3U3QglQ0lRLl5ORFguSVFfQ0xPU0VQUklDRS4yMDI0LzExLzI5LlVTRAEAAAAOsygAAgAAAAoyMDkzMC4zNjYyAGT5JNQd1N0IlO421R3U3QglQ0lRLl5ORFguSVFfQ0xPU0VQUklDRS4yMDIzLzEyLzI5LlVTRAEAAAAOsygAAgAAAAoxNjgyNS45MzA3AGT5JNQd1N0IDtk41R3U3QgkQ0lRLl5ORFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAAA6zKAACAAAACjIyODg0LjU4ODQAZPkk1B3U3QilHzrVHdTdCCRDSVEuXlNQWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAAm7goAAIAAAAPNjI2My42OTUyNDE1MDc3AGT5JNQd1N0IRL071R3U3QgjQ0lRLl5TUFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAAm7go</t>
+  </si>
+  <si>
+    <t>AAIAAAAQNjI2My4yNjQzNzg1NzQzNABk+STUHdTdCCMoR9Ud1N0IJUNJUS5eU1BYLklRX0NMT1NFUFJJQ0UuMjAyNC8xMS8yOS5VU0QBAAAAm7goAAIAAAAQNjAzMi4zODQ0MTIyNzM5MgBk+STUHdTdCAMhMNUd1N0IJENJUS5eU1BYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAACbuCgAAgAAABA2MjQzLjc1NTcwOTA2MTExAGT5JNQd1N0IzdlG1R3U3QgjQ0lRLlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAADrp7AAIAAAAFNTYxLjgAZPkk1B3U3QjlDj7VHdTdCCNDSVEuUVFRLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAAOunsAAgAAAAU0NDQuMQBk+STUHdTdCNAVQNUd1N0IJENJUS5RUVEuSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAAAOunsAAgAAAAYyOTMuMzYAZPkk1B3U3QiwKkHVHdTdCCNDSVEuUVFRLklRX0NMT1NFUFJJQ0UuMjAyMy8zLzE0LlVTRAEAAAAOunsAAgAAAAYyOTcuMzcAZPkk1B3U3QhUo0LVHdTdCCJDSVEuUVFRLklRX09QRU5QUklDRS4yMDI0LzcvMTguVVNEAQAAAA66ewACAAAABjQ4NS41MwBk+STUHdTdCEg7RNUd1N0IIUNJUS5RUVEuSVFfWUVBUkhJR0guMjAyNS83LzE3LlVTRAEAAAAOunsAAgAAAAY1NjIuMzEAZPkk1B3U3Qj8w0XVHdTdCCBDSVEuUVFRLklRX1lFQVJMT1cuMjAyNS83LzE3LlVTRAEAAAAOunsAAgAAAAY0</t>
+  </si>
+  <si>
+    <t>MDIuMzkAZPkk1B3U3QgDITDVHdTdCBhDSVEuUVFRLklRX1lFQVJISUdIX0RBVEUBAAAADrp7AAUAAAAJMjAyNS83LzMxAGT5JNQd1N0II+Mx1R3U3QgXQ0lRLlFRUS5JUV9ZRUFSTE9XX0RBVEUBAAAADrp7AAUAAAAIMjAyNS80LzcAZPkk1B3U3QhSOjTVHdTdCCRDSVEuXlNQWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAm7goAAIAAAAQNjI5Ny4zNjE5MDk0NDA0NQBk+STUHdTdCJTuNtUd1N0IJENJUS5eU1BYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAACbuCgAAgAAABA1MjgyLjcwMTAxNzQxMzMyAGT5JNQd1N0IZnk41R3U3QglQ0lRLl5TUFguSVFfQ0xPU0VQUklDRS4yMDIyLzExLzMwLlVTRAEAAACbuCgAAgAAABA0MDgwLjEwNjU1MjE3OTI0AGT5JNQd1N0IpR861R3U3QgkQ0lRLl5TUFguSVFfQ0xPU0VQUklDRS4yMDIzLzMvMTQuVVNEAQAAAJu4KAACAAAAEDM5MTkuMjg2OTU4ODMyMjcAZPkk1B3U3QhmeTjVHdTdCC1DSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMC5VU0QBAAAAnXoNAAIAAAALMTE3Ljk3NDI4MTcAwNQfvAjU3QiU7jbVHdTdCCRDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMC5VU0QBAAAAC+4BAAIAAAANMjQ1LjE3NTM0NzY1OADA1B+8CNTdCLzxQtUd1N0IMENJUS5BUkNBOkFSVFkuSVFfSE9MRElOR1NfRVFVSVRZ</t>
+  </si>
+  <si>
+    <t>CDZCSdUW1N0II0NJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAABDGogECAAAABjMwMC43MQAgLS7VFtTdCDZCSdUW1N0IJENJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAC4yqUGAgAAAAQ1OS40AGT5JNQd1N0IRacw1R3U3QgkQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAGlhAAACAAAABjIxNC4wNQBk+STUHdTdCEWnMNUd1N0ILUNJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAAo7wUAAgAAAAY3MjkuOTkAZPkk1B3U3QhFpzDVHdTdCClDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAA9N1wAAgAAAAo0Ny4xOTg0MzUyAGT5JNQd1N0IAyEw1R3U3QgkQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAAYrBAUCAAAABjEyNi44NABk+STUHdTdCEWnMNUd1N0ILkNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAqHEAAAIAAAAGMTkyLjU4AGT5JNQd1N0IRacw1R3U3QgkQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAL/7GQMCAAAABTUyLjc1AGT5JNQd1N0IRacw1R3U3QgjQ0lRLk5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAANPXgBAIAAAAGMTk5LjQxAGT5JNQd1N0I</t>
+  </si>
+  <si>
+    <t>Racw1R3U3QgkQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAANSIAAACAAAABjU5Mi42MwBk+STUHdTdCJshNtUd1N0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAACznxScCAAAABjE2NC4zNwBk+STUHdTdCBpQR9Ud1N0IJENJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAACw8IcMAgAAAAYzNDAuNDkAZPkk1B3U3QhFpzDVHdTdCCNDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAC6PvwRAgAAAAUzOS42NgBk+STUHdTdCEWnMNUd1N0II0NJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAOJuzAICAAAABjI0NC40MQBk+STUHdTdCBJYNtUd1N0IJENJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAAzfgAAAgAAAAYxNzYuNzUAZPkk1B3U3QgSWDbVHdTdCCxDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAACdeg0AAgAAAAoxODguNzc4NTk4AGT5JNQd1N0IElg21R3U3QgkQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAMPb/AECAAAABjExNy41NQBk+STUHdTdCBJYNtUd1N0IKUNJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAKvMBQACAAAACzM4LjYwMTU3NzM2AGT5JNQd1N0IRL071R3U</t>
+  </si>
+  <si>
+    <t>3QgkQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAD1JAAACAAAABjIzMi43OQBk+STUHdTdCBJYNtUd1N0IJENJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAADnVgAAAgAAAAYyNDcuNzEAZPkk1B3U3QgSWDbVHdTdCCRDSVEuRERPRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAu6EECAIAAAAGMTUwLjc3AGT5JNQd1N0IElg21R3U3QgkQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAALA8ZBACAAAABjIxOC42NwBk+STUHdTdCES9O9Ud1N0IJENJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAADVggAAAgAAAAYxNjEuMDUAZPkk1B3U3QhEvTvVHdTdCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAA8LZ9AQIAAAAFMjk0LjMAZPkk1B3U3Qi22kHVHdTdCCRDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAzYQXEQIAAAAFNDguMzgAZPkk1B3U3Qi22kHVHdTdCCRDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAgIRbDQIAAAAFODguODYAZPkk1B3U3Qi22kHVHdTdCCJDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAAZpBAACAAAABjExMS4yNQBk+STUHdTdCLbaQdUd1N0II0NJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI1</t>
+  </si>
+  <si>
+    <t>LzcvMjguVVNEAQAAAAvuAQACAAAADjI4My41ODEyMjI0MTY3AGT5JNQd1N0IrRtI1R3U3QgkQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAFITIg8CAAAABjIwMS44NABk+STUHdTdCLbaQdUd1N0IJENJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAABl+pgCAgAAAAYxNTcuODgAZPkk1B3U3QhEvTvVHdTdCCNDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAAl4AEAAgAAAAYyNzAuMjUAZPkk1B3U3QghkDzVHdTdCCRDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAaVX0AQIAAAAGMTIwLjk2AGT5JNQd1N0IRL071R3U3QgjQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAARJuHIgIAAAAGMTQyLjU1AGT5JNQd1N0IRL071R3U3QgkQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAACYBehACAAAAAjI3AGT5JNQd1N0IRL071R3U3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAEtVAAACAAAABTUxMi41AGT5JNQd1N0IRL071R3U3QgjQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAv3ReAQIAAAAGOTg1Ljc1AGT5JNQd1N0IElg21R3U3QgjQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAANMkGQIAAAACNjIA</t>
+  </si>
+  <si>
+    <t>ZPkk1B3U3QghkDzVHdTdCCRDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAh2NrAQIAAAAGMjM4LjA0AGT5JNQd1N0I3VRC1R3U3QgkQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAIN9hAECAAAABTIwNC41AGT5JNQd1N0IRL071R3U3QgjQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAA2rnODQIAAAAGMzcwLjk2AGT5JNQd1N0IElg21R3U3QgiQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAADUzIEDAgAAAAYyODkuMDQAZPkk1B3U3Qi22kHVHdTdCCRDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAEMaiAQIAAAAGMzI1LjU5AGT5JNQd1N0IttpB1R3U3QgkQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAALZ5AAACAAAABTc1LjkxAGT5JNQd1N0IttpB1R3U3QgkQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAABfbPAECAAAABjcxNy42MwDi0STUHdTdCLzxQtUd1N0IJENJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAABXwAAAgAAAAYzNjkuNDcAZPkk1B3U3QgSWDbVHdTdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAABgwjYAAgAAAAYyOTEuNDEAUoMk1B3U3Qj5TjnVHdTdCCxDSVEu</t>
+  </si>
+  <si>
+    <t>TkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAAOunsAAgAAAAY1NjguMTQAUoMk1B3U3Qj5TjnVHdTdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAADp3GIhAgAAAAU0NC45MwBSgyTUHdTdCNttMdUd1N0IJENJUS5eREpJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAD4tCgAAgAAABA0NDgzNy41NjMwOTYxNjg5AFKDJNQd1N0IQZI/1R3U3QgkQ0lRLl5TUFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAJu4KAACAAAAEDYzODkuNzY2NDgzODM4MjUAUoMk1B3U3QjKuknVHdTdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAA9/0IFgIAAAAFMzQuMjYAUoMk1B3U3QhUZ0PVHdTdCCRDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAI/cAcAIAAAAHMzIuNzM0NgBSgyTUHdTdCFRnQ9Ud1N0I</t>
   </si>
 </sst>
 </file>
@@ -18422,7 +18426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C9C800-8CE9-4358-A467-6D72A0BB5786}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF728762-DABB-43A5-ADEF-2DDBC9433361}">
   <dimension ref="A1:HL1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18434,661 +18438,661 @@
         <v>364</v>
       </c>
       <c r="B1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J1" t="s">
+        <v>457</v>
+      </c>
+      <c r="K1" t="s">
+        <v>458</v>
+      </c>
+      <c r="L1" t="s">
+        <v>459</v>
+      </c>
+      <c r="M1" t="s">
+        <v>460</v>
+      </c>
+      <c r="N1" t="s">
+        <v>461</v>
+      </c>
+      <c r="O1" t="s">
+        <v>462</v>
+      </c>
+      <c r="P1" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>464</v>
+      </c>
+      <c r="R1" t="s">
+        <v>465</v>
+      </c>
+      <c r="S1" t="s">
+        <v>466</v>
+      </c>
+      <c r="T1" t="s">
+        <v>467</v>
+      </c>
+      <c r="U1" t="s">
+        <v>468</v>
+      </c>
+      <c r="V1" t="s">
+        <v>469</v>
+      </c>
+      <c r="W1" t="s">
+        <v>470</v>
+      </c>
+      <c r="X1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>499</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>500</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>501</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>502</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>503</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>504</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>505</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>506</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>507</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>508</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>509</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>510</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>511</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>512</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>513</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>514</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>515</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>516</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>517</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>518</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>519</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>520</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>521</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>522</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>523</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>524</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>525</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>526</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>527</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>528</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>529</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>530</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>531</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>532</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>533</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>534</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>535</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>536</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>537</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>538</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>539</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>540</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>541</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>542</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>543</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>544</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>545</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>546</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>547</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>548</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>549</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>550</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>551</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>552</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>553</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>554</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>555</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>556</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>557</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>558</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>559</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>560</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>561</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>562</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>563</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>564</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>565</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>566</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>567</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>568</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>569</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>570</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>571</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>572</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>573</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>574</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>575</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>576</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>577</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>578</v>
+      </c>
+      <c r="EB1" t="s">
         <v>365</v>
       </c>
-      <c r="C1" t="s">
+      <c r="EC1" t="s">
         <v>366</v>
       </c>
-      <c r="D1" t="s">
+      <c r="ED1" t="s">
         <v>367</v>
       </c>
-      <c r="E1" t="s">
+      <c r="EE1" t="s">
         <v>368</v>
       </c>
-      <c r="F1" t="s">
+      <c r="EF1" t="s">
         <v>369</v>
       </c>
-      <c r="G1" t="s">
+      <c r="EG1" t="s">
         <v>370</v>
       </c>
-      <c r="H1" t="s">
+      <c r="EH1" t="s">
         <v>371</v>
       </c>
-      <c r="I1" t="s">
+      <c r="EI1" t="s">
         <v>372</v>
       </c>
-      <c r="J1" t="s">
+      <c r="EJ1" t="s">
         <v>373</v>
       </c>
-      <c r="K1" t="s">
+      <c r="EK1" t="s">
         <v>374</v>
       </c>
-      <c r="L1" t="s">
+      <c r="EL1" t="s">
         <v>375</v>
       </c>
-      <c r="M1" t="s">
+      <c r="EM1" t="s">
         <v>376</v>
       </c>
-      <c r="N1" t="s">
+      <c r="EN1" t="s">
         <v>377</v>
       </c>
-      <c r="O1" t="s">
+      <c r="EO1" t="s">
         <v>378</v>
       </c>
-      <c r="P1" t="s">
+      <c r="EP1" t="s">
         <v>379</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="EQ1" t="s">
         <v>380</v>
       </c>
-      <c r="R1" t="s">
+      <c r="ER1" t="s">
         <v>381</v>
       </c>
-      <c r="S1" t="s">
+      <c r="ES1" t="s">
         <v>382</v>
       </c>
-      <c r="T1" t="s">
+      <c r="ET1" t="s">
         <v>383</v>
       </c>
-      <c r="U1" t="s">
+      <c r="EU1" t="s">
         <v>384</v>
       </c>
-      <c r="V1" t="s">
+      <c r="EV1" t="s">
         <v>385</v>
       </c>
-      <c r="W1" t="s">
+      <c r="EW1" t="s">
         <v>386</v>
       </c>
-      <c r="X1" t="s">
+      <c r="EX1" t="s">
         <v>387</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="EY1" t="s">
         <v>388</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="EZ1" t="s">
         <v>389</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="FA1" t="s">
         <v>390</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="FB1" t="s">
         <v>391</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="FC1" t="s">
         <v>392</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="FD1" t="s">
         <v>393</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="FE1" t="s">
         <v>394</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="FF1" t="s">
         <v>395</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="FG1" t="s">
         <v>396</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="FH1" t="s">
         <v>397</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="FI1" t="s">
         <v>398</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="FJ1" t="s">
         <v>399</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="FK1" t="s">
         <v>400</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="FL1" t="s">
         <v>401</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="FM1" t="s">
         <v>402</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="FN1" t="s">
         <v>403</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="FO1" t="s">
         <v>404</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="FP1" t="s">
         <v>405</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="FQ1" t="s">
         <v>406</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="FR1" t="s">
         <v>407</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="FS1" t="s">
         <v>408</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="FT1" t="s">
         <v>409</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="FU1" t="s">
         <v>410</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="FV1" t="s">
         <v>411</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="FW1" t="s">
         <v>412</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="FX1" t="s">
         <v>413</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="FY1" t="s">
         <v>414</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="FZ1" t="s">
         <v>415</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="GA1" t="s">
         <v>416</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="GB1" t="s">
         <v>417</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="GC1" t="s">
         <v>418</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="GD1" t="s">
         <v>419</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="GE1" t="s">
         <v>420</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="GF1" t="s">
         <v>421</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="GG1" t="s">
         <v>422</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="GH1" t="s">
         <v>423</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="GI1" t="s">
         <v>424</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="GJ1" t="s">
         <v>425</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="GK1" t="s">
         <v>426</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="GL1" t="s">
         <v>427</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="GM1" t="s">
         <v>428</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="GN1" t="s">
         <v>429</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="GO1" t="s">
         <v>430</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="GP1" t="s">
         <v>431</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="GQ1" t="s">
         <v>432</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="GR1" t="s">
         <v>433</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="GS1" t="s">
         <v>434</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="GT1" t="s">
         <v>435</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="GU1" t="s">
         <v>436</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="GV1" t="s">
         <v>437</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="GW1" t="s">
         <v>438</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="GX1" t="s">
         <v>439</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="GY1" t="s">
         <v>440</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="GZ1" t="s">
         <v>441</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="HA1" t="s">
         <v>442</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="HB1" t="s">
         <v>443</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="HC1" t="s">
         <v>444</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="HD1" t="s">
         <v>445</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="HE1" t="s">
         <v>446</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="HF1" t="s">
         <v>447</v>
       </c>
-      <c r="CG1" t="s">
-        <v>448</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>449</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>450</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>451</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>452</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>453</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>454</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>455</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>456</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>457</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>458</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>459</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>460</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>461</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>462</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>463</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>464</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>465</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>466</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>467</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>468</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>469</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>470</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>471</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>472</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>473</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>474</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>475</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>476</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>477</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>478</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>479</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>480</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>481</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>482</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>483</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>484</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>485</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>486</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>487</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>488</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>489</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>490</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>491</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>492</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>493</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>494</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>495</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>496</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>497</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>498</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>499</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>500</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>501</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>502</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>503</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>504</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>505</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>506</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>507</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>508</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>509</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>510</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>511</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>512</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>513</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>514</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>515</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>516</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>517</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>518</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>519</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>520</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>521</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>522</v>
-      </c>
-      <c r="FD1" t="s">
-        <v>523</v>
-      </c>
-      <c r="FE1" t="s">
-        <v>524</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>525</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>526</v>
-      </c>
-      <c r="FH1" t="s">
-        <v>527</v>
-      </c>
-      <c r="FI1" t="s">
-        <v>528</v>
-      </c>
-      <c r="FJ1" t="s">
-        <v>529</v>
-      </c>
-      <c r="FK1" t="s">
-        <v>530</v>
-      </c>
-      <c r="FL1" t="s">
-        <v>531</v>
-      </c>
-      <c r="FM1" t="s">
-        <v>532</v>
-      </c>
-      <c r="FN1" t="s">
-        <v>533</v>
-      </c>
-      <c r="FO1" t="s">
-        <v>534</v>
-      </c>
-      <c r="FP1" t="s">
-        <v>535</v>
-      </c>
-      <c r="FQ1" t="s">
-        <v>536</v>
-      </c>
-      <c r="FR1" t="s">
-        <v>537</v>
-      </c>
-      <c r="FS1" t="s">
-        <v>538</v>
-      </c>
-      <c r="FT1" t="s">
-        <v>539</v>
-      </c>
-      <c r="FU1" t="s">
-        <v>540</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>541</v>
-      </c>
-      <c r="FW1" t="s">
-        <v>542</v>
-      </c>
-      <c r="FX1" t="s">
-        <v>543</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>544</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA1" t="s">
-        <v>546</v>
-      </c>
-      <c r="GB1" t="s">
-        <v>547</v>
-      </c>
-      <c r="GC1" t="s">
-        <v>548</v>
-      </c>
-      <c r="GD1" t="s">
-        <v>549</v>
-      </c>
-      <c r="GE1" t="s">
-        <v>550</v>
-      </c>
-      <c r="GF1" t="s">
-        <v>551</v>
-      </c>
-      <c r="GG1" t="s">
-        <v>552</v>
-      </c>
-      <c r="GH1" t="s">
-        <v>553</v>
-      </c>
-      <c r="GI1" t="s">
-        <v>554</v>
-      </c>
-      <c r="GJ1" t="s">
-        <v>555</v>
-      </c>
-      <c r="GK1" t="s">
-        <v>556</v>
-      </c>
-      <c r="GL1" t="s">
-        <v>557</v>
-      </c>
-      <c r="GM1" t="s">
-        <v>558</v>
-      </c>
-      <c r="GN1" t="s">
-        <v>559</v>
-      </c>
-      <c r="GO1" t="s">
-        <v>560</v>
-      </c>
-      <c r="GP1" t="s">
-        <v>561</v>
-      </c>
-      <c r="GQ1" t="s">
-        <v>562</v>
-      </c>
-      <c r="GR1" t="s">
-        <v>563</v>
-      </c>
-      <c r="GS1" t="s">
-        <v>564</v>
-      </c>
-      <c r="GT1" t="s">
-        <v>565</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>566</v>
-      </c>
-      <c r="GV1" t="s">
-        <v>567</v>
-      </c>
-      <c r="GW1" t="s">
-        <v>568</v>
-      </c>
-      <c r="GX1" t="s">
-        <v>569</v>
-      </c>
-      <c r="GY1" t="s">
-        <v>570</v>
-      </c>
-      <c r="GZ1" t="s">
-        <v>571</v>
-      </c>
-      <c r="HA1" t="s">
-        <v>572</v>
-      </c>
-      <c r="HB1" t="s">
-        <v>573</v>
-      </c>
-      <c r="HC1" t="s">
-        <v>574</v>
-      </c>
-      <c r="HD1" t="s">
-        <v>575</v>
-      </c>
-      <c r="HE1" t="s">
-        <v>576</v>
-      </c>
-      <c r="HF1" t="s">
-        <v>577</v>
-      </c>
       <c r="HG1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="HH1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="HI1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="HJ1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="HK1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="HL1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -22289,7 +22293,7 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.5"/>
@@ -22537,7 +22541,9 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="22.5" customHeight="1">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>448</v>
+      </c>
       <c r="B5" s="9"/>
       <c r="C5" s="21" t="s">
         <v>22</v>
